--- a/SMC order 8-14-18.xlsx
+++ b/SMC order 8-14-18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDATED FOR MARK" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="445">
   <si>
     <t>PURCHASING ORDER FORM</t>
   </si>
@@ -1283,9 +1283,6 @@
     <t>OUT OF STOCK</t>
   </si>
   <si>
-    <t>PICK-UP ONLY</t>
-  </si>
-  <si>
     <t># to Order</t>
   </si>
   <si>
@@ -1380,9 +1377,6 @@
     <t>ord 40 8/9/18</t>
   </si>
   <si>
-    <t>ordered 100 from Amazon</t>
-  </si>
-  <si>
     <t>ordered - but now out of stock. WATCH THIS.</t>
   </si>
   <si>
@@ -1390,6 +1384,73 @@
   </si>
   <si>
     <t>69 ord, various vendors</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Rubber Mallets 8 1/2 in. Long, 3/4 in. Diameter, Abs Handle
+</t>
+  </si>
+  <si>
+    <t>Premium Art Tissue Paper Bleeding, (Pack of 50)</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">??? (one of these was delivered, was it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 ct or 10 ct?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ordered (BO)</t>
+  </si>
+  <si>
+    <t>HOW TO GET?</t>
+  </si>
+  <si>
+    <t>in contact w rep</t>
+  </si>
+  <si>
+    <t>DO WE NEED?</t>
+  </si>
+  <si>
+    <r>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="HelveticaNeueLT Std"/>
+      </rPr>
+      <t xml:space="preserve"> Webstaurant</t>
+    </r>
+  </si>
+  <si>
+    <t>ordered from webst. Targ only sold 20 @ a time.</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1464,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1767,6 +1828,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2107,7 +2176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2684,12 +2753,6 @@
     <xf numFmtId="164" fontId="19" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2778,9 +2841,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="42" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2987,6 +3047,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3300,29 +3387,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="221"/>
-    <col min="2" max="2" width="19.88671875" style="222" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" style="222"/>
-    <col min="5" max="8" width="17" style="222" customWidth="1"/>
-    <col min="9" max="16384" width="17" style="222"/>
+    <col min="1" max="1" width="17" style="219"/>
+    <col min="2" max="2" width="19.88671875" style="220" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="220"/>
+    <col min="5" max="8" width="17" style="220" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="220" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="220"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="219" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="220" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="220" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3337,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F3" s="152" t="s">
         <v>10</v>
@@ -3385,15 +3473,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="224" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A5" s="223" t="s">
-        <v>412</v>
+    <row r="5" spans="1:10" s="222" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A5" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D5" s="159" t="s">
         <v>121</v>
@@ -3418,15 +3506,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="224" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A6" s="223" t="s">
-        <v>411</v>
+    <row r="6" spans="1:10" s="222" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A6" s="221" t="s">
+        <v>410</v>
       </c>
       <c r="B6" s="159">
         <v>2009</v>
       </c>
       <c r="C6" s="159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="159" t="s">
         <v>26</v>
@@ -3452,8 +3540,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="124.8">
-      <c r="A7" s="221" t="s">
-        <v>415</v>
+      <c r="A7" s="219" t="s">
+        <v>414</v>
       </c>
       <c r="B7" s="163" t="s">
         <v>22</v>
@@ -3483,8 +3571,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="224" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="223" t="s">
+    <row r="8" spans="1:10" s="222" customFormat="1" ht="51" customHeight="1">
+      <c r="A8" s="221" t="s">
         <v>407</v>
       </c>
       <c r="B8" s="167" t="s">
@@ -3516,9 +3604,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="224" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A9" s="223" t="s">
-        <v>412</v>
+    <row r="9" spans="1:10" s="222" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A9" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B9" s="159" t="s">
         <v>288</v>
@@ -3545,44 +3633,44 @@
       <c r="I9" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="210" t="s">
+      <c r="J9" s="208" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="224" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A10" s="223"/>
-      <c r="B10" s="283">
+    <row r="10" spans="1:10" s="222" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A10" s="221"/>
+      <c r="B10" s="280">
         <v>400011857257</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="209" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="211" t="s">
+      <c r="D10" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="212">
+      <c r="E10" s="210">
         <v>67</v>
       </c>
-      <c r="F10" s="212" t="s">
+      <c r="F10" s="210" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="211">
+      <c r="G10" s="209">
         <v>8.19</v>
       </c>
-      <c r="H10" s="211">
+      <c r="H10" s="209">
         <f>SUM(E10*G10)</f>
         <v>548.73</v>
       </c>
-      <c r="I10" s="213" t="s">
+      <c r="I10" s="211" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="284" t="s">
+      <c r="J10" s="281" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="224" customFormat="1" ht="102.6" customHeight="1">
-      <c r="A11" s="223" t="s">
-        <v>428</v>
+    <row r="11" spans="1:10" s="222" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A11" s="313" t="s">
+        <v>427</v>
       </c>
       <c r="B11" s="159" t="s">
         <v>120</v>
@@ -3591,7 +3679,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="160">
         <v>11</v>
@@ -3602,7 +3690,7 @@
       <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="297">
+      <c r="H11" s="294">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
@@ -3613,71 +3701,73 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="224" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A12" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="211" t="s">
+    <row r="12" spans="1:10" s="222" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A12" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="209" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="211" t="s">
+      <c r="D12" s="209" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="212">
+      <c r="E12" s="210">
         <v>10</v>
       </c>
-      <c r="F12" s="211" t="s">
+      <c r="F12" s="209" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="211">
         <v>4.99</v>
       </c>
-      <c r="H12" s="213">
+      <c r="H12" s="211">
         <f>E12*G12</f>
         <v>49.900000000000006</v>
       </c>
-      <c r="I12" s="213" t="s">
+      <c r="I12" s="211" t="s">
         <v>298</v>
       </c>
-      <c r="J12" s="214" t="s">
+      <c r="J12" s="212" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="224" customFormat="1" ht="226.8" customHeight="1">
-      <c r="A13" s="223"/>
-      <c r="B13" s="283">
+    <row r="13" spans="1:10" s="222" customFormat="1" ht="137.4" customHeight="1">
+      <c r="A13" s="221"/>
+      <c r="B13" s="280">
         <v>10074506116197</v>
       </c>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="211" t="s">
+      <c r="D13" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="212">
+      <c r="E13" s="210">
         <v>0</v>
       </c>
-      <c r="F13" s="212" t="s">
+      <c r="F13" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="211">
+      <c r="G13" s="209">
         <v>0</v>
       </c>
-      <c r="H13" s="285">
+      <c r="H13" s="282">
         <v>0</v>
       </c>
       <c r="I13" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="J13" s="214" t="s">
+      <c r="J13" s="212" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="224" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A14" s="223"/>
+    <row r="14" spans="1:10" s="222" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A14" s="221" t="s">
+        <v>434</v>
+      </c>
       <c r="B14" s="159" t="s">
         <v>133</v>
       </c>
@@ -3707,8 +3797,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="224" customFormat="1" ht="74.400000000000006" customHeight="1">
-      <c r="A15" s="223"/>
+    <row r="15" spans="1:10" s="222" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="221"/>
       <c r="B15" s="159" t="s">
         <v>305</v>
       </c>
@@ -3738,9 +3828,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="224" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A16" s="223" t="s">
-        <v>418</v>
+    <row r="16" spans="1:10" s="222" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A16" s="221" t="s">
+        <v>417</v>
       </c>
       <c r="B16" s="159" t="s">
         <v>310</v>
@@ -3771,8 +3861,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="224" customFormat="1" ht="77.400000000000006" customHeight="1">
-      <c r="A17" s="223"/>
+    <row r="17" spans="1:10" s="222" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A17" s="221" t="s">
+        <v>411</v>
+      </c>
       <c r="B17" s="159" t="s">
         <v>314</v>
       </c>
@@ -3802,40 +3894,42 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="224" customFormat="1" ht="90">
-      <c r="A18" s="223"/>
-      <c r="B18" s="211" t="s">
+    <row r="18" spans="1:10" s="222" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A18" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="209" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="211" t="s">
+      <c r="D18" s="209" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="211">
+      <c r="E18" s="209">
         <v>810</v>
       </c>
-      <c r="F18" s="211" t="s">
+      <c r="F18" s="209" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="212">
+      <c r="G18" s="210">
         <v>0.33</v>
       </c>
-      <c r="H18" s="211">
+      <c r="H18" s="209">
         <f t="shared" si="0"/>
         <v>267.3</v>
       </c>
-      <c r="I18" s="211" t="s">
+      <c r="I18" s="209" t="s">
         <v>322</v>
       </c>
-      <c r="J18" s="243" t="s">
+      <c r="J18" s="240" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="224" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A19" s="223" t="s">
-        <v>434</v>
+    <row r="19" spans="1:10" s="222" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A19" s="221" t="s">
+        <v>432</v>
       </c>
       <c r="B19" s="159" t="s">
         <v>324</v>
@@ -3866,19 +3960,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="224" customFormat="1" ht="88.8" customHeight="1">
-      <c r="A20" s="223" t="s">
-        <v>412</v>
+    <row r="20" spans="1:10" s="222" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A20" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B20" s="159"/>
       <c r="C20" s="159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="296" t="s">
-        <v>424</v>
+      <c r="E20" s="293" t="s">
+        <v>423</v>
       </c>
       <c r="F20" s="160" t="s">
         <v>329</v>
@@ -3897,46 +3991,46 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="224" customFormat="1" ht="59.4" customHeight="1">
-      <c r="A21" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B21" s="244" t="s">
+    <row r="21" spans="1:10" s="222" customFormat="1" ht="59.4" customHeight="1">
+      <c r="A21" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="241" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="245" t="s">
+      <c r="C21" s="242" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="245" t="s">
+      <c r="D21" s="242" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="246">
+      <c r="E21" s="243">
         <v>15</v>
       </c>
-      <c r="F21" s="246" t="s">
+      <c r="F21" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="247">
+      <c r="G21" s="244">
         <v>51</v>
       </c>
-      <c r="H21" s="247">
+      <c r="H21" s="244">
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="I21" s="248" t="s">
+      <c r="I21" s="245" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="249" t="s">
+      <c r="J21" s="246" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="220" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="221" t="s">
         <v>405</v>
       </c>
       <c r="B23" s="175" t="s">
@@ -3967,9 +4061,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="224" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="223" t="s">
-        <v>412</v>
+    <row r="24" spans="1:10" s="222" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B24" s="183" t="s">
         <v>185</v>
@@ -3998,15 +4092,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="224" customFormat="1" ht="150" customHeight="1" thickBot="1">
-      <c r="A25" s="223" t="s">
-        <v>412</v>
+    <row r="25" spans="1:10" s="222" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
+      <c r="A25" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B25" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="74" t="s">
-        <v>267</v>
+      <c r="C25" s="314" t="s">
+        <v>435</v>
       </c>
       <c r="D25" s="74" t="s">
         <v>190</v>
@@ -4031,8 +4125,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="224" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
-      <c r="A26" s="223"/>
+    <row r="26" spans="1:10" s="222" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
+      <c r="A26" s="221"/>
       <c r="B26" s="183" t="s">
         <v>196</v>
       </c>
@@ -4059,8 +4153,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="142.19999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="223" t="s">
-        <v>435</v>
+      <c r="A27" s="313" t="s">
+        <v>433</v>
       </c>
       <c r="B27" s="178"/>
       <c r="C27" s="150" t="s">
@@ -4085,13 +4179,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="224" customFormat="1" ht="90.6" thickBot="1">
-      <c r="A28" s="223" t="s">
-        <v>412</v>
+    <row r="28" spans="1:10" s="222" customFormat="1" ht="63" thickBot="1">
+      <c r="A28" s="221" t="s">
+        <v>434</v>
       </c>
       <c r="B28" s="183"/>
       <c r="C28" s="74" t="s">
-        <v>200</v>
+        <v>436</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>135</v>
@@ -4116,35 +4210,37 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="224" customFormat="1" ht="94.2" thickBot="1">
-      <c r="A29" s="223"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="216" t="s">
+    <row r="29" spans="1:10" s="222" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
+      <c r="A29" s="221" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="213"/>
+      <c r="C29" s="214" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="216" t="s">
+      <c r="D29" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="217">
-        <v>2</v>
-      </c>
-      <c r="F29" s="216"/>
-      <c r="G29" s="218">
+      <c r="E29" s="215">
+        <v>2</v>
+      </c>
+      <c r="F29" s="214"/>
+      <c r="G29" s="216">
         <v>3.99</v>
       </c>
-      <c r="H29" s="219">
+      <c r="H29" s="217">
         <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="I29" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="220" t="s">
+      <c r="I29" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="218" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A30" s="223"/>
+      <c r="A30" s="221"/>
       <c r="B30" s="188"/>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
@@ -4162,99 +4258,101 @@
       </c>
       <c r="J30" s="193"/>
     </row>
-    <row r="31" spans="1:10" s="224" customFormat="1" ht="125.4" thickBot="1">
-      <c r="A31" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="215" t="s">
+    <row r="31" spans="1:10" s="222" customFormat="1" ht="75" customHeight="1" thickBot="1">
+      <c r="A31" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="216" t="s">
+      <c r="C31" s="214" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="216" t="s">
+      <c r="D31" s="214" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="217">
+      <c r="E31" s="215">
         <v>3</v>
       </c>
-      <c r="F31" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="218">
+      <c r="F31" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="216">
         <v>27</v>
       </c>
-      <c r="H31" s="219">
+      <c r="H31" s="217">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I31" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="220" t="s">
+      <c r="I31" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="218" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="187.8" thickBot="1">
-      <c r="A32" s="223"/>
-      <c r="B32" s="188" t="s">
+    <row r="32" spans="1:10" s="222" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
+      <c r="A32" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" s="213" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="151" t="s">
+      <c r="C32" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="189">
+      <c r="E32" s="215">
         <v>3</v>
       </c>
-      <c r="F32" s="151"/>
-      <c r="G32" s="190">
+      <c r="F32" s="214"/>
+      <c r="G32" s="216">
         <v>154.37</v>
       </c>
-      <c r="H32" s="191">
+      <c r="H32" s="217">
         <f t="shared" si="1"/>
         <v>463.11</v>
       </c>
-      <c r="I32" s="191"/>
-      <c r="J32" s="192" t="s">
+      <c r="I32" s="217"/>
+      <c r="J32" s="218" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="224" customFormat="1" ht="109.8" thickBot="1">
-      <c r="A33" s="223"/>
-      <c r="B33" s="215" t="s">
+    <row r="33" spans="1:10" s="222" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A33" s="221"/>
+      <c r="B33" s="213" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="216" t="s">
+      <c r="C33" s="214" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="216" t="s">
+      <c r="D33" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="217">
+      <c r="E33" s="215">
         <v>4</v>
       </c>
-      <c r="F33" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="218">
+      <c r="F33" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="216">
         <v>13.51</v>
       </c>
-      <c r="H33" s="219">
+      <c r="H33" s="217">
         <f t="shared" si="1"/>
         <v>54.04</v>
       </c>
-      <c r="I33" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="220" t="s">
+      <c r="I33" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="218" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A34" s="223"/>
+      <c r="A34" s="221"/>
       <c r="B34" s="188"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
@@ -4270,75 +4368,75 @@
       <c r="I34" s="191"/>
       <c r="J34" s="192"/>
     </row>
-    <row r="35" spans="1:10" s="224" customFormat="1" ht="66" customHeight="1" thickBot="1">
-      <c r="A35" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B35" s="215" t="s">
+    <row r="35" spans="1:10" s="222" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A35" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B35" s="213" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="216" t="s">
+      <c r="C35" s="214" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="216" t="s">
+      <c r="D35" s="214" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="217">
+      <c r="E35" s="215">
         <v>220</v>
       </c>
-      <c r="F35" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="218">
+      <c r="F35" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="216">
         <v>1.49</v>
       </c>
-      <c r="H35" s="219">
+      <c r="H35" s="217">
         <f t="shared" si="1"/>
         <v>327.8</v>
       </c>
-      <c r="I35" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="220" t="s">
+      <c r="I35" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="218" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="224" customFormat="1" ht="78.599999999999994" thickBot="1">
-      <c r="A36" s="223" t="s">
+    <row r="36" spans="1:10" s="222" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A36" s="221" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" s="213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="214" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="214" t="s">
         <v>416</v>
       </c>
-      <c r="B36" s="215" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="216" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="216" t="s">
-        <v>417</v>
-      </c>
-      <c r="E36" s="217">
+      <c r="E36" s="215">
         <v>19</v>
       </c>
-      <c r="F36" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="218">
+      <c r="F36" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="216">
         <v>4.99</v>
       </c>
-      <c r="H36" s="219">
+      <c r="H36" s="217">
         <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
-      <c r="I36" s="219" t="s">
+      <c r="I36" s="217" t="s">
         <v>214</v>
       </c>
-      <c r="J36" s="220" t="s">
+      <c r="J36" s="218" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A37" s="223" t="s">
-        <v>412</v>
+    <row r="37" spans="1:10" s="222" customFormat="1" ht="87" thickBot="1">
+      <c r="A37" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B37" s="183" t="s">
         <v>271</v>
@@ -4363,13 +4461,13 @@
         <v>238.29000000000002</v>
       </c>
       <c r="I37" s="186"/>
-      <c r="J37" s="209" t="s">
+      <c r="J37" s="207" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="224" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A38" s="223" t="s">
-        <v>419</v>
+    <row r="38" spans="1:10" s="222" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A38" s="221" t="s">
+        <v>418</v>
       </c>
       <c r="B38" s="183" t="s">
         <v>219</v>
@@ -4377,11 +4475,11 @@
       <c r="C38" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="294" t="s">
+      <c r="D38" s="291" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="292" t="s">
         <v>421</v>
-      </c>
-      <c r="E38" s="295" t="s">
-        <v>422</v>
       </c>
       <c r="F38" s="74" t="s">
         <v>2</v>
@@ -4400,35 +4498,37 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="85.2" customHeight="1" thickBot="1">
-      <c r="A39" s="223"/>
-      <c r="B39" s="188" t="s">
+    <row r="39" spans="1:10" s="222" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A39" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B39" s="213" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="151" t="s">
+      <c r="C39" s="214" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="E39" s="189">
+      <c r="D39" s="214" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="215">
         <v>440</v>
       </c>
-      <c r="F39" s="151"/>
-      <c r="G39" s="190">
+      <c r="F39" s="214"/>
+      <c r="G39" s="216">
         <v>1.55</v>
       </c>
-      <c r="H39" s="191">
+      <c r="H39" s="217">
         <f t="shared" si="1"/>
         <v>682</v>
       </c>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192" t="s">
+      <c r="I39" s="217"/>
+      <c r="J39" s="218" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="73.2" customHeight="1" thickBot="1">
-      <c r="A40" s="223" t="s">
+    <row r="40" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A40" s="221" t="s">
         <v>406</v>
       </c>
       <c r="B40" s="195" t="s">
@@ -4456,38 +4556,40 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="224" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
-      <c r="A41" s="223"/>
-      <c r="B41" s="215"/>
-      <c r="C41" s="216" t="s">
+    <row r="41" spans="1:10" s="222" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
+      <c r="A41" s="221" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" s="213"/>
+      <c r="C41" s="214" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="216" t="s">
+      <c r="D41" s="214" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="217">
-        <v>2</v>
-      </c>
-      <c r="F41" s="216"/>
-      <c r="G41" s="218">
+      <c r="E41" s="215">
+        <v>2</v>
+      </c>
+      <c r="F41" s="214"/>
+      <c r="G41" s="216">
         <v>28.08</v>
       </c>
-      <c r="H41" s="219">
+      <c r="H41" s="217">
         <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="I41" s="219"/>
-      <c r="J41" s="250" t="s">
+      <c r="I41" s="217"/>
+      <c r="J41" s="247" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="222" t="s">
+      <c r="B43" s="220" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A44" s="225" t="s">
+      <c r="A44" s="223" t="s">
         <v>401</v>
       </c>
       <c r="B44" s="175" t="s">
@@ -4518,38 +4620,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="224" customFormat="1" ht="61.2" thickTop="1" thickBot="1">
-      <c r="A45" s="225"/>
-      <c r="B45" s="215" t="s">
+    <row r="45" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="223"/>
+      <c r="B45" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="216" t="s">
+      <c r="C45" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="216" t="s">
+      <c r="D45" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="217">
+      <c r="E45" s="215">
         <v>7</v>
       </c>
-      <c r="F45" s="216" t="s">
+      <c r="F45" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="218">
+      <c r="G45" s="216">
         <v>12.85</v>
       </c>
-      <c r="H45" s="219">
+      <c r="H45" s="217">
         <v>89.95</v>
       </c>
-      <c r="I45" s="219" t="s">
+      <c r="I45" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="250" t="s">
+      <c r="J45" s="247" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A46" s="225"/>
+      <c r="A46" s="223"/>
       <c r="B46" s="188" t="s">
         <v>63</v>
       </c>
@@ -4562,134 +4664,136 @@
       <c r="I46" s="191"/>
       <c r="J46" s="193"/>
     </row>
-    <row r="47" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A47" s="225"/>
-      <c r="B47" s="215">
+    <row r="47" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A47" s="223"/>
+      <c r="B47" s="213">
         <v>11029200</v>
       </c>
-      <c r="C47" s="216" t="s">
+      <c r="C47" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="216" t="s">
+      <c r="D47" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="217">
+      <c r="E47" s="215">
         <v>6</v>
       </c>
-      <c r="F47" s="216" t="s">
+      <c r="F47" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="218">
+      <c r="G47" s="216">
         <v>29.51</v>
       </c>
-      <c r="H47" s="219">
+      <c r="H47" s="217">
         <v>177.06</v>
       </c>
-      <c r="I47" s="219" t="s">
+      <c r="I47" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="250" t="s">
+      <c r="J47" s="247" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="47.4" thickBot="1">
-      <c r="A48" s="225"/>
-      <c r="B48" s="188" t="s">
+    <row r="48" spans="1:10" s="222" customFormat="1" ht="63" thickBot="1">
+      <c r="A48" s="223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="151" t="s">
+      <c r="C48" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="189">
+      <c r="D48" s="320" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="215">
         <v>115</v>
       </c>
-      <c r="F48" s="151" t="s">
+      <c r="F48" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="190">
-        <v>0.69</v>
-      </c>
-      <c r="H48" s="191">
+      <c r="G48" s="321">
+        <v>2.27</v>
+      </c>
+      <c r="H48" s="217">
         <f t="shared" ref="H48:H65" si="2">E48*G48</f>
-        <v>79.349999999999994</v>
-      </c>
-      <c r="I48" s="191" t="s">
+        <v>261.05</v>
+      </c>
+      <c r="I48" s="217" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="193" t="s">
+      <c r="J48" s="247" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A49" s="225"/>
-      <c r="B49" s="215">
+    <row r="49" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A49" s="223"/>
+      <c r="B49" s="213">
         <v>22584104</v>
       </c>
-      <c r="C49" s="216" t="s">
+      <c r="C49" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="216" t="s">
+      <c r="D49" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="217">
+      <c r="E49" s="215">
         <v>6</v>
       </c>
-      <c r="F49" s="216" t="s">
+      <c r="F49" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="218">
+      <c r="G49" s="216">
         <v>18.239999999999998</v>
       </c>
-      <c r="H49" s="219">
+      <c r="H49" s="217">
         <f t="shared" si="2"/>
         <v>109.44</v>
       </c>
-      <c r="I49" s="219" t="s">
+      <c r="I49" s="217" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="250" t="s">
+      <c r="J49" s="247" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A50" s="225"/>
-      <c r="B50" s="215">
+    <row r="50" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A50" s="223"/>
+      <c r="B50" s="213">
         <v>10400921</v>
       </c>
-      <c r="C50" s="216" t="s">
+      <c r="C50" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="216" t="s">
+      <c r="D50" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="217">
+      <c r="E50" s="215">
         <v>6</v>
       </c>
-      <c r="F50" s="216" t="s">
+      <c r="F50" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="218">
+      <c r="G50" s="216">
         <v>17.649999999999999</v>
       </c>
-      <c r="H50" s="219">
+      <c r="H50" s="217">
         <f t="shared" si="2"/>
         <v>105.89999999999999</v>
       </c>
-      <c r="I50" s="219" t="s">
+      <c r="I50" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="250" t="s">
+      <c r="J50" s="247" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="224" customFormat="1" ht="55.8" thickBot="1">
-      <c r="A51" s="226" t="s">
+    <row r="51" spans="1:10" s="222" customFormat="1" ht="55.8" thickBot="1">
+      <c r="A51" s="224" t="s">
         <v>404</v>
       </c>
-      <c r="B51" s="215">
+      <c r="B51" s="213">
         <v>556138647</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -4714,13 +4818,15 @@
       <c r="I51" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="209" t="s">
+      <c r="J51" s="207" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A52" s="225"/>
-      <c r="B52" s="215">
+    <row r="52" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A52" s="223" t="s">
+        <v>434</v>
+      </c>
+      <c r="B52" s="213">
         <v>15166</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -4745,15 +4851,15 @@
       <c r="I52" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="209" t="s">
+      <c r="J52" s="207" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="224" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A53" s="225" t="s">
+    <row r="53" spans="1:10" s="222" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A53" s="223" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="215">
+      <c r="B53" s="213">
         <v>564439325</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -4778,15 +4884,15 @@
       <c r="I53" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="209" t="s">
+      <c r="J53" s="207" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A54" s="225" t="s">
-        <v>429</v>
-      </c>
-      <c r="B54" s="215" t="s">
+    <row r="54" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A54" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="213" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="74" t="s">
@@ -4811,15 +4917,15 @@
       <c r="I54" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="298" t="s">
+      <c r="J54" s="295" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A55" s="225" t="s">
-        <v>429</v>
-      </c>
-      <c r="B55" s="215" t="s">
+    <row r="55" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A55" s="223" t="s">
+        <v>428</v>
+      </c>
+      <c r="B55" s="213" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="74" t="s">
@@ -4844,15 +4950,15 @@
       <c r="I55" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="209" t="s">
+      <c r="J55" s="207" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A56" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B56" s="228">
+    <row r="56" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A56" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B56" s="226">
         <v>625277</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -4877,110 +4983,110 @@
       <c r="I56" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="209" t="s">
+      <c r="J56" s="207" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A57" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B57" s="215" t="s">
+    <row r="57" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A57" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B57" s="213" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="216" t="s">
+      <c r="C57" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="216" t="s">
+      <c r="D57" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="217">
+      <c r="E57" s="215">
         <v>6</v>
       </c>
-      <c r="F57" s="216" t="s">
+      <c r="F57" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="218">
+      <c r="G57" s="216">
         <v>21.15</v>
       </c>
-      <c r="H57" s="219">
+      <c r="H57" s="217">
         <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="I57" s="219"/>
-      <c r="J57" s="250" t="s">
+      <c r="I57" s="217"/>
+      <c r="J57" s="247" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A58" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B58" s="215" t="s">
+    <row r="58" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A58" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" s="213" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="216" t="s">
+      <c r="C58" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="216" t="s">
+      <c r="D58" s="214" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="217">
+      <c r="E58" s="215">
         <v>3</v>
       </c>
-      <c r="F58" s="216" t="s">
+      <c r="F58" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="218">
+      <c r="G58" s="216">
         <v>81.27</v>
       </c>
-      <c r="H58" s="219">
+      <c r="H58" s="217">
         <f t="shared" si="2"/>
         <v>243.81</v>
       </c>
-      <c r="I58" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="250" t="s">
+      <c r="I58" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="247" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A59" s="225"/>
-      <c r="B59" s="215">
+    <row r="59" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A59" s="223"/>
+      <c r="B59" s="213">
         <v>9171119</v>
       </c>
-      <c r="C59" s="216" t="s">
+      <c r="C59" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="216" t="s">
+      <c r="D59" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="217">
-        <v>2</v>
-      </c>
-      <c r="F59" s="216" t="s">
+      <c r="E59" s="215">
+        <v>2</v>
+      </c>
+      <c r="F59" s="214" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="218">
+      <c r="G59" s="216">
         <v>32.49</v>
       </c>
-      <c r="H59" s="219">
+      <c r="H59" s="217">
         <f t="shared" si="2"/>
         <v>64.98</v>
       </c>
-      <c r="I59" s="219" t="s">
+      <c r="I59" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="250" t="s">
+      <c r="J59" s="247" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="224" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A60" s="225" t="s">
+    <row r="60" spans="1:10" s="222" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A60" s="223" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="215">
+      <c r="B60" s="213">
         <v>565320669</v>
       </c>
       <c r="C60" s="74" t="s">
@@ -5005,12 +5111,12 @@
       <c r="I60" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="209" t="s">
+      <c r="J60" s="207" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="47.4" thickBot="1">
-      <c r="A61" s="225"/>
+      <c r="A61" s="223"/>
       <c r="B61" s="188" t="s">
         <v>369</v>
       </c>
@@ -5040,41 +5146,41 @@
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="236" customFormat="1" ht="31.8" thickBot="1">
-      <c r="A62" s="229" t="s">
+    <row r="62" spans="1:10" s="234" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A62" s="315" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="230">
+      <c r="B62" s="228">
         <v>178257</v>
       </c>
-      <c r="C62" s="231" t="s">
+      <c r="C62" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="231" t="s">
+      <c r="D62" s="229" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="232">
+      <c r="E62" s="230">
         <v>9</v>
       </c>
-      <c r="F62" s="231" t="s">
+      <c r="F62" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="233">
+      <c r="G62" s="231">
         <v>24</v>
       </c>
-      <c r="H62" s="234">
+      <c r="H62" s="232">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="I62" s="234" t="s">
+      <c r="I62" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="235" t="s">
+      <c r="J62" s="233" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A63" s="225"/>
+      <c r="A63" s="223"/>
       <c r="B63" s="188" t="s">
         <v>375</v>
       </c>
@@ -5100,46 +5206,48 @@
       <c r="I63" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="237" t="s">
+      <c r="J63" s="235" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="224" customFormat="1" ht="60.6" thickBot="1">
-      <c r="A64" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B64" s="215" t="s">
+    <row r="64" spans="1:10" s="222" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A64" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" s="213" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="216" t="s">
+      <c r="C64" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="216" t="s">
+      <c r="D64" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="217">
+      <c r="E64" s="215">
         <v>3</v>
       </c>
-      <c r="F64" s="216" t="s">
+      <c r="F64" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="218">
+      <c r="G64" s="216">
         <v>33.49</v>
       </c>
-      <c r="H64" s="219">
+      <c r="H64" s="217">
         <f t="shared" si="2"/>
         <v>100.47</v>
       </c>
-      <c r="I64" s="219" t="s">
+      <c r="I64" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="J64" s="250" t="s">
+      <c r="J64" s="247" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="224" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A65" s="225"/>
-      <c r="B65" s="215">
+    <row r="65" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A65" s="223" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="213">
         <v>843342</v>
       </c>
       <c r="C65" s="74" t="s">
@@ -5164,16 +5272,16 @@
       <c r="I65" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="209" t="s">
+      <c r="J65" s="207" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6">
-      <c r="A66" s="225"/>
+    <row r="66" spans="1:10" ht="15.6" hidden="1">
+      <c r="A66" s="223"/>
     </row>
     <row r="67" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A67" s="225"/>
-      <c r="B67" s="222" t="s">
+      <c r="A67" s="223"/>
+      <c r="B67" s="220" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5235,34 +5343,37 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="B70" s="188" t="s">
+    <row r="70" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A70" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="213" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="151" t="s">
+      <c r="C70" s="214" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="188" t="s">
+      <c r="D70" s="213" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="189">
+      <c r="E70" s="215">
         <v>115</v>
       </c>
-      <c r="F70" s="151" t="s">
+      <c r="F70" s="214" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="190">
+      <c r="G70" s="216">
         <v>1.27</v>
       </c>
-      <c r="H70" s="191">
+      <c r="H70" s="217">
         <v>142.24</v>
       </c>
-      <c r="I70" s="191"/>
-      <c r="J70" s="193" t="s">
+      <c r="I70" s="217"/>
+      <c r="J70" s="247" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="72.599999999999994" thickBot="1">
+    <row r="71" spans="1:10" ht="38.4" customHeight="1" thickBot="1">
       <c r="B71" s="188" t="s">
         <v>145</v>
       </c>
@@ -5290,9 +5401,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="224" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
-      <c r="A72" s="223" t="s">
-        <v>412</v>
+    <row r="72" spans="1:10" s="222" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A72" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B72" s="183" t="s">
         <v>151</v>
@@ -5319,7 +5430,7 @@
       <c r="I72" s="186" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="209" t="s">
+      <c r="J72" s="207" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5353,11 +5464,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="224" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A74" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B74" s="251" t="s">
+    <row r="74" spans="1:10" s="222" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
+      <c r="A74" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" s="248" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -5373,133 +5484,142 @@
       <c r="G74" s="185">
         <v>5.98</v>
       </c>
-      <c r="H74" s="252">
+      <c r="H74" s="249">
         <f t="shared" si="3"/>
         <v>687.7</v>
       </c>
-      <c r="I74" s="252"/>
-      <c r="J74" s="253" t="s">
+      <c r="I74" s="249"/>
+      <c r="J74" s="250" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.8" thickBot="1">
-      <c r="B75" s="188" t="s">
+    <row r="75" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A75" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="151" t="s">
+      <c r="C75" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="151" t="s">
+      <c r="D75" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="189">
+      <c r="E75" s="215">
         <v>550</v>
       </c>
-      <c r="F75" s="151" t="s">
+      <c r="F75" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="190"/>
-      <c r="H75" s="191">
+      <c r="G75" s="216"/>
+      <c r="H75" s="217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="206" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="207"/>
-    </row>
-    <row r="76" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="B76" s="188" t="s">
+      <c r="I75" s="318" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="319"/>
+    </row>
+    <row r="76" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A76" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B76" s="213" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="151" t="s">
+      <c r="C76" s="214" t="s">
         <v>352</v>
       </c>
-      <c r="D76" s="151" t="s">
+      <c r="D76" s="214" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="189">
+      <c r="E76" s="215">
         <v>63</v>
       </c>
-      <c r="F76" s="151" t="s">
+      <c r="F76" s="214" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="190">
+      <c r="G76" s="216">
         <v>0.24</v>
       </c>
-      <c r="H76" s="191">
+      <c r="H76" s="217">
         <f t="shared" si="3"/>
         <v>15.12</v>
       </c>
-      <c r="I76" s="206" t="s">
+      <c r="I76" s="318" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="207" t="s">
+      <c r="J76" s="319" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="306" customFormat="1" ht="63" thickBot="1">
-      <c r="A77" s="299"/>
-      <c r="B77" s="300" t="s">
+    <row r="77" spans="1:10" s="303" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A77" s="296"/>
+      <c r="B77" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="301" t="s">
+      <c r="C77" s="298" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="301" t="s">
+      <c r="D77" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="302">
+      <c r="E77" s="299">
         <v>115</v>
       </c>
-      <c r="F77" s="301" t="s">
+      <c r="F77" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="303"/>
-      <c r="H77" s="304">
+      <c r="G77" s="300"/>
+      <c r="H77" s="301">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="304" t="s">
+      <c r="I77" s="301" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="305" t="s">
+      <c r="J77" s="302" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="53.4" customHeight="1" thickBot="1">
-      <c r="B78" s="188" t="s">
+    <row r="78" spans="1:10" s="222" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A78" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B78" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="151" t="s">
+      <c r="C78" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="151" t="s">
+      <c r="D78" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="189">
+      <c r="E78" s="215">
         <v>3</v>
       </c>
-      <c r="F78" s="151" t="s">
+      <c r="F78" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="190">
+      <c r="G78" s="216">
         <v>6.5</v>
       </c>
-      <c r="H78" s="191">
+      <c r="H78" s="217">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="I78" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="193" t="s">
+      <c r="I78" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="247" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="224" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A79" s="223" t="s">
-        <v>430</v>
+    <row r="79" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A79" s="221" t="s">
+        <v>429</v>
       </c>
       <c r="B79" s="183" t="s">
         <v>161</v>
@@ -5524,92 +5644,98 @@
         <v>220.21</v>
       </c>
       <c r="I79" s="186"/>
-      <c r="J79" s="209" t="s">
+      <c r="J79" s="207" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="224" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A80" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B80" s="215" t="s">
+    <row r="80" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A80" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B80" s="213" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="216" t="s">
+      <c r="C80" s="214" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="216" t="s">
+      <c r="D80" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="217">
+      <c r="E80" s="215">
         <v>14</v>
       </c>
-      <c r="F80" s="216">
+      <c r="F80" s="214">
         <v>1</v>
       </c>
-      <c r="G80" s="218">
+      <c r="G80" s="216">
         <v>2.52</v>
       </c>
-      <c r="H80" s="219">
+      <c r="H80" s="217">
         <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
-      <c r="I80" s="219"/>
-      <c r="J80" s="250" t="s">
+      <c r="I80" s="217"/>
+      <c r="J80" s="247" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="B81" s="188"/>
-      <c r="C81" s="151" t="s">
+    <row r="81" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A81" s="219" t="s">
+        <v>440</v>
+      </c>
+      <c r="B81" s="228"/>
+      <c r="C81" s="229" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="151" t="s">
+      <c r="D81" s="229" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="189"/>
-      <c r="F81" s="151"/>
-      <c r="G81" s="190"/>
-      <c r="H81" s="191">
+      <c r="E81" s="230"/>
+      <c r="F81" s="229"/>
+      <c r="G81" s="231"/>
+      <c r="H81" s="232">
         <f>E81*G81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="191" t="s">
+      <c r="I81" s="232" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="193"/>
-    </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="B82" s="188" t="s">
+      <c r="J81" s="317"/>
+    </row>
+    <row r="82" spans="1:10" s="222" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A82" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B82" s="213" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="151" t="s">
+      <c r="C82" s="214" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="151" t="s">
+      <c r="D82" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="189">
+      <c r="E82" s="215">
         <v>3</v>
       </c>
-      <c r="F82" s="151" t="s">
+      <c r="F82" s="214" t="s">
         <v>366</v>
       </c>
-      <c r="G82" s="190">
+      <c r="G82" s="216">
         <v>1.49</v>
       </c>
-      <c r="H82" s="191">
+      <c r="H82" s="217">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
-      <c r="I82" s="191"/>
-      <c r="J82" s="193" t="s">
+      <c r="I82" s="217"/>
+      <c r="J82" s="247" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="224" customFormat="1" ht="67.2" customHeight="1" thickBot="1">
-      <c r="A83" s="223" t="s">
-        <v>426</v>
+    <row r="83" spans="1:10" s="222" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A83" s="219" t="s">
+        <v>425</v>
       </c>
       <c r="B83" s="183" t="s">
         <v>361</v>
@@ -5636,11 +5762,14 @@
       <c r="I83" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="J83" s="209" t="s">
+      <c r="J83" s="207" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="31.8" thickBot="1">
+      <c r="A84" s="316" t="s">
+        <v>442</v>
+      </c>
       <c r="B84" s="188" t="s">
         <v>392</v>
       </c>
@@ -5669,7 +5798,7 @@
       <c r="J84" s="193"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="B86" s="208" t="s">
+      <c r="B86" s="206" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5702,9 +5831,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="87.6" thickTop="1" thickBot="1">
-      <c r="A88" s="221" t="s">
-        <v>431</v>
+    <row r="88" spans="1:10" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A88" s="219" t="s">
+        <v>430</v>
       </c>
       <c r="B88" s="188"/>
       <c r="C88" s="150" t="s">
@@ -5724,11 +5853,11 @@
         <v>780</v>
       </c>
       <c r="I88" s="181"/>
-      <c r="J88" s="227" t="s">
+      <c r="J88" s="225" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="87" thickBot="1">
+    <row r="89" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="B89" s="188"/>
       <c r="C89" s="150" t="s">
         <v>176</v>
@@ -5747,11 +5876,11 @@
         <v>780</v>
       </c>
       <c r="I89" s="181"/>
-      <c r="J89" s="227" t="s">
+      <c r="J89" s="225" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="87" thickBot="1">
+    <row r="90" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
       <c r="B90" s="188"/>
       <c r="C90" s="150" t="s">
         <v>177</v>
@@ -5774,37 +5903,37 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="224" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A91" s="225" t="s">
-        <v>433</v>
-      </c>
-      <c r="B91" s="215" t="s">
+    <row r="91" spans="1:10" s="222" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A91" s="227" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" s="213" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="216" t="s">
+      <c r="C91" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="216" t="s">
+      <c r="D91" s="214" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="217">
+      <c r="E91" s="215">
         <v>600</v>
       </c>
-      <c r="F91" s="216"/>
-      <c r="G91" s="218">
+      <c r="F91" s="214"/>
+      <c r="G91" s="216">
         <v>0.59</v>
       </c>
-      <c r="H91" s="219">
+      <c r="H91" s="217">
         <v>354</v>
       </c>
-      <c r="I91" s="219"/>
-      <c r="J91" s="250" t="s">
+      <c r="I91" s="217"/>
+      <c r="J91" s="247" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A92" s="223" t="s">
-        <v>412</v>
+    <row r="92" spans="1:10" s="222" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A92" s="221" t="s">
+        <v>434</v>
       </c>
       <c r="B92" s="183"/>
       <c r="C92" s="74" t="s">
@@ -5829,13 +5958,13 @@
       <c r="I92" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J92" s="209" t="s">
+      <c r="J92" s="207" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="224" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A93" s="223" t="s">
-        <v>427</v>
+    <row r="93" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A93" s="221" t="s">
+        <v>426</v>
       </c>
       <c r="B93" s="183" t="s">
         <v>244</v>
@@ -5862,74 +5991,76 @@
       <c r="I93" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J93" s="209" t="s">
+      <c r="J93" s="207" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="224" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A94" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B94" s="215">
+    <row r="94" spans="1:10" s="222" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A94" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B94" s="213">
         <v>1601</v>
       </c>
-      <c r="C94" s="216" t="s">
+      <c r="C94" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="216" t="s">
+      <c r="D94" s="214" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="217">
+      <c r="E94" s="215">
         <v>2800</v>
       </c>
-      <c r="F94" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="218">
+      <c r="F94" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="216">
         <v>0.2</v>
       </c>
-      <c r="H94" s="219">
+      <c r="H94" s="217">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="I94" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="250" t="s">
+      <c r="I94" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="247" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="224" customFormat="1" ht="101.4" thickBot="1">
-      <c r="A95" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B95" s="215" t="s">
+    <row r="95" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A95" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B95" s="213" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="216" t="s">
+      <c r="C95" s="214" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="216" t="s">
+      <c r="D95" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="217">
+      <c r="E95" s="215">
         <v>600</v>
       </c>
-      <c r="F95" s="216"/>
-      <c r="G95" s="218">
+      <c r="F95" s="214"/>
+      <c r="G95" s="216">
         <v>0.64</v>
       </c>
-      <c r="H95" s="219">
+      <c r="H95" s="217">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="I95" s="219"/>
-      <c r="J95" s="250" t="s">
+      <c r="I95" s="217"/>
+      <c r="J95" s="247" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A96" s="223"/>
+    <row r="96" spans="1:10" s="222" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A96" s="221" t="s">
+        <v>434</v>
+      </c>
       <c r="B96" s="183">
         <v>154953</v>
       </c>
@@ -5951,106 +6082,106 @@
         <v>150</v>
       </c>
       <c r="I96" s="186"/>
-      <c r="J96" s="209" t="s">
+      <c r="J96" s="207" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="87" thickBot="1">
-      <c r="A97" s="221" t="s">
-        <v>409</v>
-      </c>
-      <c r="B97" s="178">
+    <row r="97" spans="1:11" s="222" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A97" s="316" t="s">
+        <v>439</v>
+      </c>
+      <c r="B97" s="183">
         <v>659250</v>
       </c>
-      <c r="C97" s="150" t="s">
+      <c r="C97" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="150" t="s">
+      <c r="D97" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="179">
+      <c r="E97" s="184">
         <v>300</v>
       </c>
-      <c r="F97" s="150" t="s">
+      <c r="F97" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="G97" s="180">
+      <c r="G97" s="185">
         <v>1</v>
       </c>
-      <c r="H97" s="181">
+      <c r="H97" s="186">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="I97" s="181"/>
-      <c r="J97" s="238" t="s">
+      <c r="I97" s="186"/>
+      <c r="J97" s="207" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="224" customFormat="1" ht="115.8" thickBot="1">
-      <c r="A98" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B98" s="215" t="s">
+    <row r="98" spans="1:11" s="222" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A98" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="213" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="216" t="s">
+      <c r="C98" s="214" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="216" t="s">
+      <c r="D98" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="217">
+      <c r="E98" s="215">
         <v>1200</v>
       </c>
-      <c r="F98" s="216"/>
-      <c r="G98" s="218">
+      <c r="F98" s="214"/>
+      <c r="G98" s="216">
         <v>0.3</v>
       </c>
-      <c r="H98" s="219">
+      <c r="H98" s="217">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="I98" s="219"/>
-      <c r="J98" s="250" t="s">
+      <c r="I98" s="217"/>
+      <c r="J98" s="247" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A99" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B99" s="215" t="s">
+    <row r="99" spans="1:11" s="222" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A99" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="B99" s="213" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="216" t="s">
+      <c r="C99" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="216" t="s">
+      <c r="D99" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="217">
+      <c r="E99" s="215">
         <v>600</v>
       </c>
-      <c r="F99" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="218">
+      <c r="F99" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="216">
         <v>0.59</v>
       </c>
-      <c r="H99" s="219">
+      <c r="H99" s="217">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I99" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="250" t="s">
+      <c r="I99" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="247" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A100" s="223" t="s">
-        <v>412</v>
+    <row r="100" spans="1:11" s="222" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A100" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B100" s="183">
         <v>106619</v>
@@ -6077,13 +6208,13 @@
       <c r="I100" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J100" s="209" t="s">
+      <c r="J100" s="207" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="224" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
-      <c r="A101" s="223" t="s">
-        <v>412</v>
+    <row r="101" spans="1:11" s="222" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
+      <c r="A101" s="221" t="s">
+        <v>411</v>
       </c>
       <c r="B101" s="183" t="s">
         <v>2</v>
@@ -6110,12 +6241,12 @@
       <c r="I101" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J101" s="209" t="s">
+      <c r="J101" s="207" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="222" t="s">
+      <c r="B103" s="220" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6147,105 +6278,105 @@
       <c r="J104" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="239" t="s">
+      <c r="K104" s="236" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="224" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
-      <c r="A105" s="223"/>
-      <c r="B105" s="215" t="s">
+    <row r="105" spans="1:11" s="222" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
+      <c r="A105" s="221"/>
+      <c r="B105" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="216" t="s">
+      <c r="C105" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="216" t="s">
+      <c r="D105" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="217">
-        <v>2</v>
-      </c>
-      <c r="F105" s="216" t="s">
+      <c r="E105" s="215">
+        <v>2</v>
+      </c>
+      <c r="F105" s="214" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="218">
+      <c r="G105" s="216">
         <v>169.99</v>
       </c>
-      <c r="H105" s="219">
+      <c r="H105" s="217">
         <f t="shared" ref="H105:H110" si="5">E105*G105</f>
         <v>339.98</v>
       </c>
-      <c r="I105" s="293"/>
-      <c r="J105" s="291"/>
-      <c r="K105" s="292"/>
-    </row>
-    <row r="106" spans="1:11" s="224" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A106" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B106" s="215" t="s">
+      <c r="I105" s="290"/>
+      <c r="J105" s="288"/>
+      <c r="K105" s="289"/>
+    </row>
+    <row r="106" spans="1:11" s="222" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A106" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="216" t="s">
+      <c r="C106" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="216" t="s">
+      <c r="D106" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="217">
+      <c r="E106" s="215">
         <v>6</v>
       </c>
-      <c r="F106" s="216" t="s">
+      <c r="F106" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="218">
+      <c r="G106" s="216">
         <v>11</v>
       </c>
-      <c r="H106" s="219">
+      <c r="H106" s="217">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I106" s="219"/>
-      <c r="J106" s="291"/>
-      <c r="K106" s="292"/>
-    </row>
-    <row r="107" spans="1:11" s="290" customFormat="1" ht="125.4" thickBot="1">
-      <c r="A107" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B107" s="286">
+      <c r="I106" s="217"/>
+      <c r="J106" s="288"/>
+      <c r="K106" s="289"/>
+    </row>
+    <row r="107" spans="1:11" s="287" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
+      <c r="A107" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B107" s="283">
         <v>803920103314</v>
       </c>
-      <c r="C107" s="287" t="s">
+      <c r="C107" s="284" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="211" t="s">
+      <c r="D107" s="209" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="212">
+      <c r="E107" s="210">
         <v>3</v>
       </c>
-      <c r="F107" s="212" t="s">
+      <c r="F107" s="210" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="285">
+      <c r="G107" s="282">
         <v>16.47</v>
       </c>
-      <c r="H107" s="285">
+      <c r="H107" s="282">
         <f>SUM(E107*G107)</f>
         <v>49.41</v>
       </c>
-      <c r="I107" s="213" t="s">
+      <c r="I107" s="211" t="s">
         <v>333</v>
       </c>
-      <c r="J107" s="288" t="s">
+      <c r="J107" s="285" t="s">
         <v>334</v>
       </c>
-      <c r="K107" s="289"/>
+      <c r="K107" s="286"/>
     </row>
     <row r="108" spans="1:11" ht="63" thickBot="1">
-      <c r="A108" s="221" t="s">
-        <v>432</v>
+      <c r="A108" s="219" t="s">
+        <v>441</v>
       </c>
       <c r="B108" s="188"/>
       <c r="C108" s="151" t="s">
@@ -6270,80 +6401,80 @@
       <c r="I108" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="J108" s="240" t="s">
+      <c r="J108" s="237" t="s">
         <v>345</v>
       </c>
-      <c r="K108" s="241" t="s">
+      <c r="K108" s="238" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="224" customFormat="1" ht="87" thickBot="1">
-      <c r="A109" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B109" s="215" t="s">
+    <row r="109" spans="1:11" s="222" customFormat="1" ht="87" thickBot="1">
+      <c r="A109" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B109" s="213" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="216" t="s">
+      <c r="C109" s="214" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="216" t="s">
+      <c r="D109" s="214" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="217">
+      <c r="E109" s="215">
         <v>11</v>
       </c>
-      <c r="F109" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="218">
+      <c r="F109" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="216">
         <v>3.79</v>
       </c>
-      <c r="H109" s="219">
+      <c r="H109" s="217">
         <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
-      <c r="I109" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="291" t="s">
+      <c r="I109" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="288" t="s">
         <v>201</v>
       </c>
-      <c r="K109" s="292"/>
-    </row>
-    <row r="110" spans="1:11" s="224" customFormat="1" ht="58.2" thickBot="1">
-      <c r="A110" s="223" t="s">
-        <v>412</v>
-      </c>
-      <c r="B110" s="215" t="s">
+      <c r="K109" s="289"/>
+    </row>
+    <row r="110" spans="1:11" s="222" customFormat="1" ht="58.2" thickBot="1">
+      <c r="A110" s="221" t="s">
+        <v>411</v>
+      </c>
+      <c r="B110" s="213" t="s">
         <v>379</v>
       </c>
-      <c r="C110" s="216" t="s">
+      <c r="C110" s="214" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="216" t="s">
+      <c r="D110" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="217">
+      <c r="E110" s="215">
         <v>550</v>
       </c>
-      <c r="F110" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="218">
+      <c r="F110" s="214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="216">
         <v>0.54</v>
       </c>
-      <c r="H110" s="219">
+      <c r="H110" s="217">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
-      <c r="I110" s="219" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="291" t="s">
+      <c r="I110" s="217" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="288" t="s">
         <v>378</v>
       </c>
-      <c r="K110" s="292"/>
+      <c r="K110" s="289"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6428,17 +6559,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
@@ -7098,10 +7229,10 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="308" t="s">
+      <c r="F25" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="309"/>
+      <c r="G25" s="306"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7175,17 +7306,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -7869,10 +8000,10 @@
     <row r="27" spans="1:56" ht="21.6" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="311" t="s">
+      <c r="F27" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="312"/>
+      <c r="G27" s="309"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -7936,17 +8067,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
@@ -8741,10 +8872,10 @@
     <row r="30" spans="1:10" ht="21.6" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="311" t="s">
+      <c r="F30" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="312"/>
+      <c r="G30" s="309"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -8819,17 +8950,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="24.6">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:90" ht="24.6">
@@ -9842,10 +9973,10 @@
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="314" t="s">
+      <c r="F28" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="315"/>
+      <c r="G28" s="312"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -9897,17 +10028,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -10461,10 +10592,10 @@
     <row r="23" spans="1:10" ht="21.6" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="311" t="s">
+      <c r="F23" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="312"/>
+      <c r="G23" s="309"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10514,101 +10645,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="310" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="255"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="252"/>
     </row>
     <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="253" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="257"/>
+      <c r="C2" s="254"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="252"/>
     </row>
     <row r="3" spans="1:11" ht="24.6">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="253" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="257"/>
+      <c r="C3" s="254"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="239"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="252"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="253" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="257"/>
+      <c r="C4" s="254"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="255"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="252"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="262" t="s">
+      <c r="B5" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="262" t="s">
+      <c r="D5" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="E5" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="261" t="s">
+      <c r="F5" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="261" t="s">
+      <c r="G5" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="263" t="s">
+      <c r="H5" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="261" t="s">
+      <c r="I5" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="263" t="s">
+      <c r="J5" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="264" t="s">
+      <c r="K5" s="261" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10636,9 +10767,9 @@
         <f t="shared" ref="H6:H16" si="0">E6*G6</f>
         <v>339.98</v>
       </c>
-      <c r="I6" s="282"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="278"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="275"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
@@ -10665,10 +10796,10 @@
         <v>66</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="278"/>
-    </row>
-    <row r="8" spans="1:11" s="280" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="J7" s="274"/>
+      <c r="K7" s="275"/>
+    </row>
+    <row r="8" spans="1:11" s="277" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A8" s="79">
         <v>803920103314</v>
       </c>
@@ -10698,37 +10829,37 @@
       <c r="J8" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="279"/>
+      <c r="K8" s="276"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A9" s="265"/>
-      <c r="B9" s="272" t="s">
+      <c r="A9" s="262"/>
+      <c r="B9" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="270">
+      <c r="D9" s="267"/>
+      <c r="E9" s="267">
         <v>550</v>
       </c>
-      <c r="F9" s="272" t="s">
+      <c r="F9" s="269" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="266">
+      <c r="G9" s="263">
         <v>12.11</v>
       </c>
-      <c r="H9" s="267">
+      <c r="H9" s="264">
         <f t="shared" si="0"/>
         <v>6660.5</v>
       </c>
-      <c r="I9" s="271" t="s">
+      <c r="I9" s="268" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="268" t="s">
+      <c r="J9" s="265" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="269" t="s">
+      <c r="K9" s="266" t="s">
         <v>346</v>
       </c>
     </row>
@@ -10759,190 +10890,190 @@
       <c r="I10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="281" t="s">
+      <c r="J10" s="278" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="278"/>
+      <c r="K10" s="275"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="262" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="269" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="272" t="s">
+      <c r="C11" s="269" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270">
+      <c r="D11" s="267"/>
+      <c r="E11" s="267">
         <v>550</v>
       </c>
-      <c r="F11" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="266">
+      <c r="F11" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="263">
         <v>0.54</v>
       </c>
-      <c r="H11" s="267">
+      <c r="H11" s="264">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="I11" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="273" t="s">
+      <c r="I11" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="270" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="269"/>
+      <c r="K11" s="266"/>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A12" s="265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="270"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="266"/>
-      <c r="H12" s="267">
+      <c r="A12" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="263"/>
+      <c r="H12" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="273"/>
-      <c r="K12" s="269"/>
+      <c r="I12" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="270"/>
+      <c r="K12" s="266"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A13" s="265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="266"/>
-      <c r="H13" s="267">
+      <c r="A13" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="267"/>
+      <c r="E13" s="267"/>
+      <c r="F13" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="263"/>
+      <c r="H13" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="273"/>
-      <c r="K13" s="269"/>
+      <c r="I13" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="270"/>
+      <c r="K13" s="266"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A14" s="265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="270"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="266"/>
-      <c r="H14" s="267">
+      <c r="A14" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="267"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="263"/>
+      <c r="H14" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="273"/>
-      <c r="K14" s="269"/>
+      <c r="I14" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="270"/>
+      <c r="K14" s="266"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A15" s="265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="266"/>
-      <c r="H15" s="267">
+      <c r="A15" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="263"/>
+      <c r="H15" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="273"/>
-      <c r="K15" s="269"/>
+      <c r="I15" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="270"/>
+      <c r="K15" s="266"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A16" s="265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="272" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="266"/>
-      <c r="H16" s="267">
+      <c r="A16" s="262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="263"/>
+      <c r="H16" s="264">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="271" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="273"/>
-      <c r="K16" s="269"/>
+      <c r="I16" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="270"/>
+      <c r="K16" s="266"/>
     </row>
     <row r="17" spans="1:11" ht="21.6" thickBot="1">
-      <c r="A17" s="274"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="255"/>
-      <c r="D17" s="255"/>
-      <c r="E17" s="275"/>
-      <c r="F17" s="311" t="s">
+      <c r="A17" s="271"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="312"/>
+      <c r="G17" s="309"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="276"/>
-      <c r="K17" s="255"/>
+      <c r="J17" s="273"/>
+      <c r="K17" s="252"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">

--- a/SMC order 8-14-18.xlsx
+++ b/SMC order 8-14-18.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="449">
   <si>
     <t>PURCHASING ORDER FORM</t>
   </si>
@@ -1450,7 +1450,39 @@
     </r>
   </si>
   <si>
-    <t>ordered from webst. Targ only sold 20 @ a time.</t>
+    <t>ordered from OS and DT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ordered from webst. Targ only sold 20 @ a time.</t>
+    </r>
+  </si>
+  <si>
+    <t>200 from Jet.com, 20 from Tgt</t>
+  </si>
+  <si>
+    <t>ordered?</t>
+  </si>
+  <si>
+    <t>cheapbatteries</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2735,9 +2767,6 @@
     <xf numFmtId="164" fontId="14" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3021,6 +3050,57 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3047,33 +3127,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3387,30 +3440,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="219"/>
-    <col min="2" max="2" width="19.88671875" style="220" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" style="220"/>
-    <col min="5" max="8" width="17" style="220" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" style="220" customWidth="1"/>
-    <col min="10" max="16384" width="17" style="220"/>
+    <col min="1" max="1" width="17" style="218"/>
+    <col min="2" max="2" width="19.88671875" style="219" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="219"/>
+    <col min="5" max="8" width="17" style="219" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="219" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="219"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="218" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="219" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="219" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3473,8 +3526,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="222" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A5" s="221" t="s">
+    <row r="5" spans="1:10" s="221" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A5" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B5" s="159" t="s">
@@ -3506,8 +3559,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="222" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A6" s="221" t="s">
+    <row r="6" spans="1:10" s="221" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A6" s="220" t="s">
         <v>410</v>
       </c>
       <c r="B6" s="159">
@@ -3539,8 +3592,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="124.8">
-      <c r="A7" s="219" t="s">
+    <row r="7" spans="1:10" ht="62.4">
+      <c r="A7" s="218" t="s">
         <v>414</v>
       </c>
       <c r="B7" s="163" t="s">
@@ -3571,8 +3624,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="222" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="221" t="s">
+    <row r="8" spans="1:10" s="221" customFormat="1" ht="51" customHeight="1">
+      <c r="A8" s="220" t="s">
         <v>407</v>
       </c>
       <c r="B8" s="167" t="s">
@@ -3604,8 +3657,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="222" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A9" s="221" t="s">
+    <row r="9" spans="1:10" s="221" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A9" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B9" s="159" t="s">
@@ -3633,43 +3686,43 @@
       <c r="I9" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="208" t="s">
+      <c r="J9" s="207" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="222" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A10" s="221"/>
-      <c r="B10" s="280">
+    <row r="10" spans="1:10" s="221" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A10" s="220"/>
+      <c r="B10" s="279">
         <v>400011857257</v>
       </c>
-      <c r="C10" s="209" t="s">
+      <c r="C10" s="208" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="209" t="s">
+      <c r="D10" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="210">
+      <c r="E10" s="209">
         <v>67</v>
       </c>
-      <c r="F10" s="210" t="s">
+      <c r="F10" s="209" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="209">
+      <c r="G10" s="208">
         <v>8.19</v>
       </c>
-      <c r="H10" s="209">
+      <c r="H10" s="208">
         <f>SUM(E10*G10)</f>
         <v>548.73</v>
       </c>
-      <c r="I10" s="211" t="s">
+      <c r="I10" s="210" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="281" t="s">
+      <c r="J10" s="280" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="222" customFormat="1" ht="102.6" customHeight="1">
-      <c r="A11" s="313" t="s">
+    <row r="11" spans="1:10" s="221" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A11" s="303" t="s">
         <v>427</v>
       </c>
       <c r="B11" s="159" t="s">
@@ -3690,7 +3743,7 @@
       <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="294">
+      <c r="H11" s="293">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
@@ -3701,71 +3754,71 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="222" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A12" s="221" t="s">
+    <row r="12" spans="1:10" s="221" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A12" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="209" t="s">
+      <c r="D12" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="210">
+      <c r="E12" s="209">
         <v>10</v>
       </c>
-      <c r="F12" s="209" t="s">
+      <c r="F12" s="208" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="211">
+      <c r="G12" s="210">
         <v>4.99</v>
       </c>
-      <c r="H12" s="211">
+      <c r="H12" s="210">
         <f>E12*G12</f>
         <v>49.900000000000006</v>
       </c>
-      <c r="I12" s="211" t="s">
+      <c r="I12" s="210" t="s">
         <v>298</v>
       </c>
-      <c r="J12" s="212" t="s">
+      <c r="J12" s="211" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="222" customFormat="1" ht="137.4" customHeight="1">
-      <c r="A13" s="221"/>
-      <c r="B13" s="280">
+    <row r="13" spans="1:10" s="221" customFormat="1" ht="137.4" customHeight="1">
+      <c r="A13" s="220"/>
+      <c r="B13" s="279">
         <v>10074506116197</v>
       </c>
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="209" t="s">
+      <c r="D13" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="210">
+      <c r="E13" s="209">
         <v>0</v>
       </c>
-      <c r="F13" s="210" t="s">
+      <c r="F13" s="209" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="209">
+      <c r="G13" s="208">
         <v>0</v>
       </c>
-      <c r="H13" s="282">
+      <c r="H13" s="281">
         <v>0</v>
       </c>
       <c r="I13" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="J13" s="212" t="s">
+      <c r="J13" s="211" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="222" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A14" s="221" t="s">
+    <row r="14" spans="1:10" s="221" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A14" s="220" t="s">
         <v>434</v>
       </c>
       <c r="B14" s="159" t="s">
@@ -3797,8 +3850,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="222" customFormat="1" ht="74.400000000000006" customHeight="1">
-      <c r="A15" s="221"/>
+    <row r="15" spans="1:10" s="221" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="220"/>
       <c r="B15" s="159" t="s">
         <v>305</v>
       </c>
@@ -3828,8 +3881,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="222" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A16" s="221" t="s">
+    <row r="16" spans="1:10" s="221" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A16" s="220" t="s">
         <v>417</v>
       </c>
       <c r="B16" s="159" t="s">
@@ -3861,8 +3914,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="222" customFormat="1" ht="77.400000000000006" customHeight="1">
-      <c r="A17" s="221" t="s">
+    <row r="17" spans="1:10" s="221" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A17" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B17" s="159" t="s">
@@ -3894,41 +3947,41 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="222" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A18" s="221" t="s">
+    <row r="18" spans="1:10" s="221" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A18" s="220" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="208" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="208" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="209" t="s">
+      <c r="D18" s="208" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="209">
+      <c r="E18" s="208">
         <v>810</v>
       </c>
-      <c r="F18" s="209" t="s">
+      <c r="F18" s="208" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="210">
+      <c r="G18" s="209">
         <v>0.33</v>
       </c>
-      <c r="H18" s="209">
+      <c r="H18" s="208">
         <f t="shared" si="0"/>
         <v>267.3</v>
       </c>
-      <c r="I18" s="209" t="s">
+      <c r="I18" s="208" t="s">
         <v>322</v>
       </c>
-      <c r="J18" s="240" t="s">
+      <c r="J18" s="239" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="222" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A19" s="221" t="s">
+    <row r="19" spans="1:10" s="221" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A19" s="220" t="s">
         <v>432</v>
       </c>
       <c r="B19" s="159" t="s">
@@ -3960,8 +4013,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="222" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A20" s="221" t="s">
+    <row r="20" spans="1:10" s="221" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A20" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B20" s="159"/>
@@ -3971,7 +4024,7 @@
       <c r="D20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="293" t="s">
+      <c r="E20" s="292" t="s">
         <v>423</v>
       </c>
       <c r="F20" s="160" t="s">
@@ -3991,46 +4044,46 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="222" customFormat="1" ht="59.4" customHeight="1">
-      <c r="A21" s="221" t="s">
+    <row r="21" spans="1:10" s="221" customFormat="1" ht="59.4" customHeight="1">
+      <c r="A21" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="240" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="242" t="s">
+      <c r="C21" s="241" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="242" t="s">
+      <c r="D21" s="241" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="243">
+      <c r="E21" s="242">
         <v>15</v>
       </c>
-      <c r="F21" s="243" t="s">
+      <c r="F21" s="242" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="244">
+      <c r="G21" s="243">
         <v>51</v>
       </c>
-      <c r="H21" s="244">
+      <c r="H21" s="243">
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="I21" s="245" t="s">
+      <c r="I21" s="244" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="246" t="s">
+      <c r="J21" s="245" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="220" t="s">
+      <c r="B22" s="219" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A23" s="221" t="s">
+      <c r="A23" s="220" t="s">
         <v>405</v>
       </c>
       <c r="B23" s="175" t="s">
@@ -4061,8 +4114,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="222" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="221" t="s">
+    <row r="24" spans="1:10" s="221" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B24" s="183" t="s">
@@ -4092,14 +4145,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="222" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
-      <c r="A25" s="221" t="s">
+    <row r="25" spans="1:10" s="221" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
+      <c r="A25" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B25" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="314" t="s">
+      <c r="C25" s="304" t="s">
         <v>435</v>
       </c>
       <c r="D25" s="74" t="s">
@@ -4125,8 +4178,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="222" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
-      <c r="A26" s="221"/>
+    <row r="26" spans="1:10" s="221" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
+      <c r="A26" s="220"/>
       <c r="B26" s="183" t="s">
         <v>196</v>
       </c>
@@ -4153,7 +4206,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="142.19999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="313" t="s">
+      <c r="A27" s="303" t="s">
         <v>433</v>
       </c>
       <c r="B27" s="178"/>
@@ -4179,8 +4232,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="222" customFormat="1" ht="63" thickBot="1">
-      <c r="A28" s="221" t="s">
+    <row r="28" spans="1:10" s="221" customFormat="1" ht="63" thickBot="1">
+      <c r="A28" s="220" t="s">
         <v>434</v>
       </c>
       <c r="B28" s="183"/>
@@ -4210,37 +4263,37 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="222" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
-      <c r="A29" s="221" t="s">
+    <row r="29" spans="1:10" s="221" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
+      <c r="A29" s="220" t="s">
         <v>437</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="214" t="s">
+      <c r="B29" s="212"/>
+      <c r="C29" s="213" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="214" t="s">
+      <c r="D29" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="215">
-        <v>2</v>
-      </c>
-      <c r="F29" s="214"/>
-      <c r="G29" s="216">
+      <c r="E29" s="214">
+        <v>2</v>
+      </c>
+      <c r="F29" s="213"/>
+      <c r="G29" s="215">
         <v>3.99</v>
       </c>
-      <c r="H29" s="217">
+      <c r="H29" s="216">
         <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="I29" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="218" t="s">
+      <c r="I29" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="217" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A30" s="221"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="188"/>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
@@ -4258,101 +4311,101 @@
       </c>
       <c r="J30" s="193"/>
     </row>
-    <row r="31" spans="1:10" s="222" customFormat="1" ht="75" customHeight="1" thickBot="1">
-      <c r="A31" s="221" t="s">
+    <row r="31" spans="1:10" s="221" customFormat="1" ht="75" customHeight="1" thickBot="1">
+      <c r="A31" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="213" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="214" t="s">
+      <c r="D31" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="215">
+      <c r="E31" s="214">
         <v>3</v>
       </c>
-      <c r="F31" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="216">
+      <c r="F31" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="215">
         <v>27</v>
       </c>
-      <c r="H31" s="217">
+      <c r="H31" s="216">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I31" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="218" t="s">
+      <c r="I31" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="217" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="222" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
-      <c r="A32" s="221" t="s">
+    <row r="32" spans="1:10" s="221" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
+      <c r="A32" s="220" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="212" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="214" t="s">
+      <c r="C32" s="213" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="215">
+      <c r="E32" s="214">
         <v>3</v>
       </c>
-      <c r="F32" s="214"/>
-      <c r="G32" s="216">
+      <c r="F32" s="213"/>
+      <c r="G32" s="215">
         <v>154.37</v>
       </c>
-      <c r="H32" s="217">
+      <c r="H32" s="216">
         <f t="shared" si="1"/>
         <v>463.11</v>
       </c>
-      <c r="I32" s="217"/>
-      <c r="J32" s="218" t="s">
+      <c r="I32" s="216"/>
+      <c r="J32" s="217" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="222" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A33" s="221"/>
-      <c r="B33" s="213" t="s">
+    <row r="33" spans="1:10" s="221" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A33" s="220"/>
+      <c r="B33" s="212" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="214" t="s">
+      <c r="C33" s="213" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="214" t="s">
+      <c r="D33" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="215">
+      <c r="E33" s="214">
         <v>4</v>
       </c>
-      <c r="F33" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="216">
+      <c r="F33" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="215">
         <v>13.51</v>
       </c>
-      <c r="H33" s="217">
+      <c r="H33" s="216">
         <f t="shared" si="1"/>
         <v>54.04</v>
       </c>
-      <c r="I33" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="218" t="s">
+      <c r="I33" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="217" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A34" s="221"/>
+      <c r="A34" s="220"/>
       <c r="B34" s="188"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
@@ -4368,74 +4421,74 @@
       <c r="I34" s="191"/>
       <c r="J34" s="192"/>
     </row>
-    <row r="35" spans="1:10" s="222" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A35" s="221" t="s">
+    <row r="35" spans="1:10" s="221" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A35" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="212" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="214" t="s">
+      <c r="C35" s="213" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="214" t="s">
+      <c r="D35" s="213" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="215">
+      <c r="E35" s="214">
         <v>220</v>
       </c>
-      <c r="F35" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="216">
+      <c r="F35" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="215">
         <v>1.49</v>
       </c>
-      <c r="H35" s="217">
+      <c r="H35" s="216">
         <f t="shared" si="1"/>
         <v>327.8</v>
       </c>
-      <c r="I35" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="218" t="s">
+      <c r="I35" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="217" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="222" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A36" s="221" t="s">
+    <row r="36" spans="1:10" s="221" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A36" s="220" t="s">
         <v>415</v>
       </c>
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="212" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="214" t="s">
+      <c r="C36" s="213" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="214" t="s">
+      <c r="D36" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="E36" s="215">
+      <c r="E36" s="214">
         <v>19</v>
       </c>
-      <c r="F36" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="216">
+      <c r="F36" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="215">
         <v>4.99</v>
       </c>
-      <c r="H36" s="217">
+      <c r="H36" s="216">
         <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
-      <c r="I36" s="217" t="s">
+      <c r="I36" s="216" t="s">
         <v>214</v>
       </c>
-      <c r="J36" s="218" t="s">
+      <c r="J36" s="217" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="222" customFormat="1" ht="87" thickBot="1">
-      <c r="A37" s="221" t="s">
+    <row r="37" spans="1:10" s="221" customFormat="1" ht="87" thickBot="1">
+      <c r="A37" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B37" s="183" t="s">
@@ -4461,12 +4514,12 @@
         <v>238.29000000000002</v>
       </c>
       <c r="I37" s="186"/>
-      <c r="J37" s="207" t="s">
+      <c r="J37" s="206" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="222" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A38" s="221" t="s">
+    <row r="38" spans="1:10" s="221" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A38" s="220" t="s">
         <v>418</v>
       </c>
       <c r="B38" s="183" t="s">
@@ -4475,10 +4528,10 @@
       <c r="C38" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>420</v>
       </c>
-      <c r="E38" s="292" t="s">
+      <c r="E38" s="291" t="s">
         <v>421</v>
       </c>
       <c r="F38" s="74" t="s">
@@ -4498,37 +4551,37 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="222" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
-      <c r="A39" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="B39" s="213" t="s">
+    <row r="39" spans="1:10" s="221" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A39" s="220" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39" s="212" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="214" t="s">
+      <c r="C39" s="213" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="214" t="s">
+      <c r="D39" s="213" t="s">
         <v>419</v>
       </c>
-      <c r="E39" s="215">
+      <c r="E39" s="214">
         <v>440</v>
       </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="216">
+      <c r="F39" s="213"/>
+      <c r="G39" s="215">
         <v>1.55</v>
       </c>
-      <c r="H39" s="217">
+      <c r="H39" s="216">
         <f t="shared" si="1"/>
         <v>682</v>
       </c>
-      <c r="I39" s="217"/>
-      <c r="J39" s="218" t="s">
+      <c r="I39" s="216"/>
+      <c r="J39" s="217" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A40" s="221" t="s">
+      <c r="A40" s="220" t="s">
         <v>406</v>
       </c>
       <c r="B40" s="195" t="s">
@@ -4556,40 +4609,40 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="222" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
-      <c r="A41" s="221" t="s">
+    <row r="41" spans="1:10" s="221" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
+      <c r="A41" s="220" t="s">
         <v>438</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="214" t="s">
+      <c r="B41" s="212"/>
+      <c r="C41" s="213" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="214" t="s">
+      <c r="D41" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="215">
-        <v>2</v>
-      </c>
-      <c r="F41" s="214"/>
-      <c r="G41" s="216">
+      <c r="E41" s="214">
+        <v>2</v>
+      </c>
+      <c r="F41" s="213"/>
+      <c r="G41" s="215">
         <v>28.08</v>
       </c>
-      <c r="H41" s="217">
+      <c r="H41" s="216">
         <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="I41" s="217"/>
-      <c r="J41" s="247" t="s">
+      <c r="I41" s="216"/>
+      <c r="J41" s="246" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="219" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A44" s="223" t="s">
+      <c r="A44" s="222" t="s">
         <v>401</v>
       </c>
       <c r="B44" s="175" t="s">
@@ -4620,38 +4673,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="223"/>
-      <c r="B45" s="213" t="s">
+    <row r="45" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="222"/>
+      <c r="B45" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="214" t="s">
+      <c r="C45" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="214" t="s">
+      <c r="D45" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="215">
+      <c r="E45" s="214">
         <v>7</v>
       </c>
-      <c r="F45" s="214" t="s">
+      <c r="F45" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="216">
+      <c r="G45" s="215">
         <v>12.85</v>
       </c>
-      <c r="H45" s="217">
+      <c r="H45" s="216">
         <v>89.95</v>
       </c>
-      <c r="I45" s="217" t="s">
+      <c r="I45" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="247" t="s">
+      <c r="J45" s="246" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A46" s="223"/>
+      <c r="A46" s="222"/>
       <c r="B46" s="188" t="s">
         <v>63</v>
       </c>
@@ -4664,136 +4717,136 @@
       <c r="I46" s="191"/>
       <c r="J46" s="193"/>
     </row>
-    <row r="47" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A47" s="223"/>
-      <c r="B47" s="213">
+    <row r="47" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A47" s="222"/>
+      <c r="B47" s="212">
         <v>11029200</v>
       </c>
-      <c r="C47" s="214" t="s">
+      <c r="C47" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="214" t="s">
+      <c r="D47" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="215">
+      <c r="E47" s="214">
         <v>6</v>
       </c>
-      <c r="F47" s="214" t="s">
+      <c r="F47" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="216">
+      <c r="G47" s="215">
         <v>29.51</v>
       </c>
-      <c r="H47" s="217">
+      <c r="H47" s="216">
         <v>177.06</v>
       </c>
-      <c r="I47" s="217" t="s">
+      <c r="I47" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="247" t="s">
+      <c r="J47" s="246" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="222" customFormat="1" ht="63" thickBot="1">
-      <c r="A48" s="223" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="213" t="s">
+    <row r="48" spans="1:10" s="221" customFormat="1" ht="63" thickBot="1">
+      <c r="A48" s="226" t="s">
+        <v>445</v>
+      </c>
+      <c r="B48" s="212" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="214" t="s">
+      <c r="C48" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="320" t="s">
+      <c r="D48" s="309" t="s">
         <v>443</v>
       </c>
-      <c r="E48" s="215">
+      <c r="E48" s="214">
         <v>115</v>
       </c>
-      <c r="F48" s="214" t="s">
+      <c r="F48" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="321">
+      <c r="G48" s="310">
         <v>2.27</v>
       </c>
-      <c r="H48" s="217">
+      <c r="H48" s="216">
         <f t="shared" ref="H48:H65" si="2">E48*G48</f>
         <v>261.05</v>
       </c>
-      <c r="I48" s="217" t="s">
+      <c r="I48" s="216" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="247" t="s">
+      <c r="J48" s="246" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A49" s="223"/>
-      <c r="B49" s="213">
+    <row r="49" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A49" s="222"/>
+      <c r="B49" s="212">
         <v>22584104</v>
       </c>
-      <c r="C49" s="214" t="s">
+      <c r="C49" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="214" t="s">
+      <c r="D49" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="215">
+      <c r="E49" s="214">
         <v>6</v>
       </c>
-      <c r="F49" s="214" t="s">
+      <c r="F49" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="216">
+      <c r="G49" s="215">
         <v>18.239999999999998</v>
       </c>
-      <c r="H49" s="217">
+      <c r="H49" s="216">
         <f t="shared" si="2"/>
         <v>109.44</v>
       </c>
-      <c r="I49" s="217" t="s">
+      <c r="I49" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="247" t="s">
+      <c r="J49" s="246" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A50" s="223"/>
-      <c r="B50" s="213">
+    <row r="50" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A50" s="222"/>
+      <c r="B50" s="212">
         <v>10400921</v>
       </c>
-      <c r="C50" s="214" t="s">
+      <c r="C50" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="214" t="s">
+      <c r="D50" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="215">
+      <c r="E50" s="214">
         <v>6</v>
       </c>
-      <c r="F50" s="214" t="s">
+      <c r="F50" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="216">
+      <c r="G50" s="215">
         <v>17.649999999999999</v>
       </c>
-      <c r="H50" s="217">
+      <c r="H50" s="216">
         <f t="shared" si="2"/>
         <v>105.89999999999999</v>
       </c>
-      <c r="I50" s="217" t="s">
+      <c r="I50" s="216" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="247" t="s">
+      <c r="J50" s="246" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="222" customFormat="1" ht="55.8" thickBot="1">
-      <c r="A51" s="224" t="s">
+    <row r="51" spans="1:10" s="221" customFormat="1" ht="55.8" thickBot="1">
+      <c r="A51" s="223" t="s">
         <v>404</v>
       </c>
-      <c r="B51" s="213">
+      <c r="B51" s="212">
         <v>556138647</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -4818,15 +4871,15 @@
       <c r="I51" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="207" t="s">
+      <c r="J51" s="206" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A52" s="223" t="s">
+    <row r="52" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A52" s="222" t="s">
         <v>434</v>
       </c>
-      <c r="B52" s="213">
+      <c r="B52" s="212">
         <v>15166</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -4851,15 +4904,15 @@
       <c r="I52" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="207" t="s">
+      <c r="J52" s="206" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="222" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A53" s="223" t="s">
+    <row r="53" spans="1:10" s="221" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A53" s="222" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="213">
+      <c r="B53" s="212">
         <v>564439325</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -4884,15 +4937,15 @@
       <c r="I53" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="207" t="s">
+      <c r="J53" s="206" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A54" s="223" t="s">
+    <row r="54" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A54" s="222" t="s">
         <v>428</v>
       </c>
-      <c r="B54" s="213" t="s">
+      <c r="B54" s="212" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="74" t="s">
@@ -4917,15 +4970,15 @@
       <c r="I54" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="295" t="s">
+      <c r="J54" s="294" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A55" s="223" t="s">
+    <row r="55" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A55" s="222" t="s">
         <v>428</v>
       </c>
-      <c r="B55" s="213" t="s">
+      <c r="B55" s="212" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="74" t="s">
@@ -4950,15 +5003,15 @@
       <c r="I55" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="207" t="s">
+      <c r="J55" s="206" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A56" s="221" t="s">
+    <row r="56" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A56" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="226">
+      <c r="B56" s="225">
         <v>625277</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -4983,110 +5036,110 @@
       <c r="I56" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="207" t="s">
+      <c r="J56" s="206" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A57" s="221" t="s">
+    <row r="57" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A57" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B57" s="213" t="s">
+      <c r="B57" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="214" t="s">
+      <c r="C57" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="214" t="s">
+      <c r="D57" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="215">
+      <c r="E57" s="214">
         <v>6</v>
       </c>
-      <c r="F57" s="214" t="s">
+      <c r="F57" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="216">
+      <c r="G57" s="215">
         <v>21.15</v>
       </c>
-      <c r="H57" s="217">
+      <c r="H57" s="216">
         <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="I57" s="217"/>
-      <c r="J57" s="247" t="s">
+      <c r="I57" s="216"/>
+      <c r="J57" s="246" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A58" s="221" t="s">
+    <row r="58" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A58" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B58" s="213" t="s">
+      <c r="B58" s="212" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="214" t="s">
+      <c r="C58" s="213" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="214" t="s">
+      <c r="D58" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="215">
+      <c r="E58" s="214">
         <v>3</v>
       </c>
-      <c r="F58" s="214" t="s">
+      <c r="F58" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="216">
+      <c r="G58" s="215">
         <v>81.27</v>
       </c>
-      <c r="H58" s="217">
+      <c r="H58" s="216">
         <f t="shared" si="2"/>
         <v>243.81</v>
       </c>
-      <c r="I58" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="247" t="s">
+      <c r="I58" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="246" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A59" s="223"/>
-      <c r="B59" s="213">
+    <row r="59" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A59" s="222"/>
+      <c r="B59" s="212">
         <v>9171119</v>
       </c>
-      <c r="C59" s="214" t="s">
+      <c r="C59" s="213" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="214" t="s">
+      <c r="D59" s="213" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="215">
-        <v>2</v>
-      </c>
-      <c r="F59" s="214" t="s">
+      <c r="E59" s="214">
+        <v>2</v>
+      </c>
+      <c r="F59" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="216">
+      <c r="G59" s="215">
         <v>32.49</v>
       </c>
-      <c r="H59" s="217">
+      <c r="H59" s="216">
         <f t="shared" si="2"/>
         <v>64.98</v>
       </c>
-      <c r="I59" s="217" t="s">
+      <c r="I59" s="216" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="247" t="s">
+      <c r="J59" s="246" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="222" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A60" s="223" t="s">
+    <row r="60" spans="1:10" s="221" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A60" s="222" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="213">
+      <c r="B60" s="212">
         <v>565320669</v>
       </c>
       <c r="C60" s="74" t="s">
@@ -5111,76 +5164,78 @@
       <c r="I60" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="207" t="s">
+      <c r="J60" s="206" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="47.4" thickBot="1">
-      <c r="A61" s="223"/>
-      <c r="B61" s="188" t="s">
+    <row r="61" spans="1:10" s="221" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A61" s="222" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" s="212" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="151" t="s">
+      <c r="C61" s="213" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="151" t="s">
+      <c r="D61" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="189">
+      <c r="E61" s="214">
         <v>220</v>
       </c>
-      <c r="F61" s="151" t="s">
+      <c r="F61" s="213" t="s">
         <v>371</v>
       </c>
-      <c r="G61" s="190">
+      <c r="G61" s="215">
         <v>1.39</v>
       </c>
-      <c r="H61" s="191">
+      <c r="H61" s="216">
         <f t="shared" si="2"/>
         <v>305.79999999999995</v>
       </c>
-      <c r="I61" s="191" t="s">
+      <c r="I61" s="216" t="s">
         <v>373</v>
       </c>
-      <c r="J61" s="193" t="s">
+      <c r="J61" s="246" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="234" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A62" s="315" t="s">
+    <row r="62" spans="1:10" s="233" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A62" s="305" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="228">
+      <c r="B62" s="227">
         <v>178257</v>
       </c>
-      <c r="C62" s="229" t="s">
+      <c r="C62" s="228" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="229" t="s">
+      <c r="D62" s="319" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="230">
+      <c r="E62" s="229">
         <v>9</v>
       </c>
-      <c r="F62" s="229" t="s">
+      <c r="F62" s="228" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="231">
+      <c r="G62" s="230">
         <v>24</v>
       </c>
-      <c r="H62" s="232">
+      <c r="H62" s="231">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="I62" s="232" t="s">
+      <c r="I62" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="233" t="s">
+      <c r="J62" s="232" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A63" s="223"/>
+      <c r="A63" s="222"/>
       <c r="B63" s="188" t="s">
         <v>375</v>
       </c>
@@ -5206,48 +5261,48 @@
       <c r="I63" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="235" t="s">
+      <c r="J63" s="234" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="222" customFormat="1" ht="60.6" thickBot="1">
-      <c r="A64" s="221" t="s">
+    <row r="64" spans="1:10" s="221" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A64" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B64" s="213" t="s">
+      <c r="B64" s="212" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="214" t="s">
+      <c r="C64" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="214" t="s">
+      <c r="D64" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="215">
+      <c r="E64" s="214">
         <v>3</v>
       </c>
-      <c r="F64" s="214" t="s">
+      <c r="F64" s="213" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="216">
+      <c r="G64" s="215">
         <v>33.49</v>
       </c>
-      <c r="H64" s="217">
+      <c r="H64" s="216">
         <f t="shared" si="2"/>
         <v>100.47</v>
       </c>
-      <c r="I64" s="217" t="s">
+      <c r="I64" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="J64" s="247" t="s">
+      <c r="J64" s="246" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="222" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A65" s="223" t="s">
+    <row r="65" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A65" s="222" t="s">
         <v>434</v>
       </c>
-      <c r="B65" s="213">
+      <c r="B65" s="212">
         <v>843342</v>
       </c>
       <c r="C65" s="74" t="s">
@@ -5272,46 +5327,49 @@
       <c r="I65" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="207" t="s">
+      <c r="J65" s="206" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" hidden="1">
-      <c r="A66" s="223"/>
+      <c r="A66" s="222"/>
     </row>
     <row r="67" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A67" s="223"/>
-      <c r="B67" s="220" t="s">
+      <c r="A67" s="222"/>
+      <c r="B67" s="219" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="63" thickBot="1">
-      <c r="B68" s="188" t="s">
+    <row r="68" spans="1:10" s="221" customFormat="1" ht="43.8" thickBot="1">
+      <c r="A68" s="220" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="151" t="s">
+      <c r="C68" s="213" t="s">
         <v>363</v>
       </c>
-      <c r="D68" s="151" t="s">
+      <c r="D68" s="213" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="189">
+      <c r="E68" s="214">
         <v>2750</v>
       </c>
-      <c r="F68" s="151" t="s">
+      <c r="F68" s="213" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="190">
+      <c r="G68" s="215">
         <v>0.47</v>
       </c>
-      <c r="H68" s="191">
+      <c r="H68" s="216">
         <f t="shared" ref="H68:H84" si="3">E68*G68</f>
         <v>1292.5</v>
       </c>
-      <c r="I68" s="200" t="s">
+      <c r="I68" s="289" t="s">
         <v>141</v>
       </c>
-      <c r="J68" s="193" t="s">
+      <c r="J68" s="246" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5343,66 +5401,67 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A70" s="221" t="s">
+    <row r="70" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A70" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B70" s="213" t="s">
+      <c r="B70" s="212" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="214" t="s">
+      <c r="C70" s="213" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="213" t="s">
+      <c r="D70" s="212" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="215">
+      <c r="E70" s="214">
         <v>115</v>
       </c>
-      <c r="F70" s="214" t="s">
+      <c r="F70" s="213" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="216">
+      <c r="G70" s="215">
         <v>1.27</v>
       </c>
-      <c r="H70" s="217">
+      <c r="H70" s="216">
         <v>142.24</v>
       </c>
-      <c r="I70" s="217"/>
-      <c r="J70" s="247" t="s">
+      <c r="I70" s="216"/>
+      <c r="J70" s="246" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B71" s="188" t="s">
+    <row r="71" spans="1:10" s="221" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="A71" s="220"/>
+      <c r="B71" s="212" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="151" t="s">
+      <c r="C71" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="151" t="s">
+      <c r="D71" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="189">
+      <c r="E71" s="214">
         <v>115</v>
       </c>
-      <c r="F71" s="151" t="s">
+      <c r="F71" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="190">
+      <c r="G71" s="215">
         <v>7.95</v>
       </c>
-      <c r="H71" s="191">
+      <c r="H71" s="216">
         <f t="shared" si="3"/>
         <v>914.25</v>
       </c>
-      <c r="I71" s="191"/>
-      <c r="J71" s="193" t="s">
+      <c r="I71" s="216"/>
+      <c r="J71" s="246" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="222" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
-      <c r="A72" s="221" t="s">
+    <row r="72" spans="1:10" s="221" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A72" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B72" s="183" t="s">
@@ -5430,45 +5489,46 @@
       <c r="I72" s="186" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="207" t="s">
+      <c r="J72" s="206" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B73" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="202" t="s">
+      <c r="A73" s="218" t="s">
+        <v>447</v>
+      </c>
+      <c r="B73" s="200"/>
+      <c r="C73" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="202" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="203">
+      <c r="D73" s="201" t="s">
+        <v>448</v>
+      </c>
+      <c r="E73" s="202">
         <v>2709</v>
       </c>
-      <c r="F73" s="202" t="s">
+      <c r="F73" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="G73" s="204">
-        <v>0.65</v>
+      <c r="G73" s="203">
+        <v>0.3</v>
       </c>
       <c r="H73" s="191">
         <f t="shared" si="3"/>
-        <v>1760.8500000000001</v>
-      </c>
-      <c r="I73" s="205" t="s">
+        <v>812.69999999999993</v>
+      </c>
+      <c r="I73" s="204" t="s">
         <v>2</v>
       </c>
       <c r="J73" s="193" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="222" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A74" s="221" t="s">
+    <row r="74" spans="1:10" s="221" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
+      <c r="A74" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B74" s="248" t="s">
+      <c r="B74" s="247" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -5484,141 +5544,141 @@
       <c r="G74" s="185">
         <v>5.98</v>
       </c>
-      <c r="H74" s="249">
+      <c r="H74" s="248">
         <f t="shared" si="3"/>
         <v>687.7</v>
       </c>
-      <c r="I74" s="249"/>
-      <c r="J74" s="250" t="s">
+      <c r="I74" s="248"/>
+      <c r="J74" s="249" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A75" s="221" t="s">
+    <row r="75" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A75" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B75" s="213" t="s">
+      <c r="B75" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="214" t="s">
+      <c r="C75" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="214" t="s">
+      <c r="D75" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="215">
+      <c r="E75" s="214">
         <v>550</v>
       </c>
-      <c r="F75" s="214" t="s">
+      <c r="F75" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="216"/>
-      <c r="H75" s="217">
+      <c r="G75" s="215"/>
+      <c r="H75" s="216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="318" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="319"/>
-    </row>
-    <row r="76" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A76" s="221" t="s">
+      <c r="I75" s="307" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="308"/>
+    </row>
+    <row r="76" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A76" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B76" s="213" t="s">
+      <c r="B76" s="212" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="214" t="s">
+      <c r="C76" s="213" t="s">
         <v>352</v>
       </c>
-      <c r="D76" s="214" t="s">
+      <c r="D76" s="213" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="215">
+      <c r="E76" s="214">
         <v>63</v>
       </c>
-      <c r="F76" s="214" t="s">
+      <c r="F76" s="213" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="216">
+      <c r="G76" s="215">
         <v>0.24</v>
       </c>
-      <c r="H76" s="217">
+      <c r="H76" s="216">
         <f t="shared" si="3"/>
         <v>15.12</v>
       </c>
-      <c r="I76" s="318" t="s">
+      <c r="I76" s="307" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="319" t="s">
+      <c r="J76" s="308" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="303" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A77" s="296"/>
-      <c r="B77" s="297" t="s">
+    <row r="77" spans="1:10" s="302" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A77" s="295"/>
+      <c r="B77" s="296" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="298" t="s">
+      <c r="C77" s="297" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="298" t="s">
+      <c r="D77" s="297" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="299">
+      <c r="E77" s="298">
         <v>115</v>
       </c>
-      <c r="F77" s="298" t="s">
+      <c r="F77" s="297" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="300"/>
-      <c r="H77" s="301">
+      <c r="G77" s="299"/>
+      <c r="H77" s="300">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="301" t="s">
+      <c r="I77" s="300" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="302" t="s">
+      <c r="J77" s="301" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="222" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A78" s="221" t="s">
+    <row r="78" spans="1:10" s="221" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A78" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B78" s="213" t="s">
+      <c r="B78" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="214" t="s">
+      <c r="C78" s="213" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="214" t="s">
+      <c r="D78" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="215">
+      <c r="E78" s="214">
         <v>3</v>
       </c>
-      <c r="F78" s="214" t="s">
+      <c r="F78" s="213" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="216">
+      <c r="G78" s="215">
         <v>6.5</v>
       </c>
-      <c r="H78" s="217">
+      <c r="H78" s="216">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="I78" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="247" t="s">
+      <c r="I78" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="246" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="222" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A79" s="221" t="s">
+    <row r="79" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A79" s="220" t="s">
         <v>429</v>
       </c>
       <c r="B79" s="183" t="s">
@@ -5644,97 +5704,97 @@
         <v>220.21</v>
       </c>
       <c r="I79" s="186"/>
-      <c r="J79" s="207" t="s">
+      <c r="J79" s="206" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A80" s="221" t="s">
+    <row r="80" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A80" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B80" s="213" t="s">
+      <c r="B80" s="212" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="214" t="s">
+      <c r="C80" s="213" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="214" t="s">
+      <c r="D80" s="213" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="215">
+      <c r="E80" s="214">
         <v>14</v>
       </c>
-      <c r="F80" s="214">
+      <c r="F80" s="213">
         <v>1</v>
       </c>
-      <c r="G80" s="216">
+      <c r="G80" s="215">
         <v>2.52</v>
       </c>
-      <c r="H80" s="217">
+      <c r="H80" s="216">
         <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
-      <c r="I80" s="217"/>
-      <c r="J80" s="247" t="s">
+      <c r="I80" s="216"/>
+      <c r="J80" s="246" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A81" s="219" t="s">
+    <row r="81" spans="1:10" s="318" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A81" s="311" t="s">
         <v>440</v>
       </c>
-      <c r="B81" s="228"/>
-      <c r="C81" s="229" t="s">
+      <c r="B81" s="312"/>
+      <c r="C81" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="229" t="s">
+      <c r="D81" s="313" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="230"/>
-      <c r="F81" s="229"/>
-      <c r="G81" s="231"/>
-      <c r="H81" s="232">
+      <c r="E81" s="314"/>
+      <c r="F81" s="313"/>
+      <c r="G81" s="315"/>
+      <c r="H81" s="316">
         <f>E81*G81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="232" t="s">
+      <c r="I81" s="316" t="s">
         <v>351</v>
       </c>
       <c r="J81" s="317"/>
     </row>
-    <row r="82" spans="1:10" s="222" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A82" s="221" t="s">
+    <row r="82" spans="1:10" s="221" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A82" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B82" s="213" t="s">
+      <c r="B82" s="212" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="214" t="s">
+      <c r="C82" s="213" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="214" t="s">
+      <c r="D82" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="215">
+      <c r="E82" s="214">
         <v>3</v>
       </c>
-      <c r="F82" s="214" t="s">
+      <c r="F82" s="213" t="s">
         <v>366</v>
       </c>
-      <c r="G82" s="216">
+      <c r="G82" s="215">
         <v>1.49</v>
       </c>
-      <c r="H82" s="217">
+      <c r="H82" s="216">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
-      <c r="I82" s="217"/>
-      <c r="J82" s="247" t="s">
+      <c r="I82" s="216"/>
+      <c r="J82" s="246" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="222" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A83" s="219" t="s">
+    <row r="83" spans="1:10" s="221" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A83" s="218" t="s">
         <v>425</v>
       </c>
       <c r="B83" s="183" t="s">
@@ -5762,12 +5822,12 @@
       <c r="I83" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="J83" s="207" t="s">
+      <c r="J83" s="206" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A84" s="316" t="s">
+      <c r="A84" s="306" t="s">
         <v>442</v>
       </c>
       <c r="B84" s="188" t="s">
@@ -5798,7 +5858,7 @@
       <c r="J84" s="193"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="B86" s="206" t="s">
+      <c r="B86" s="205" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5832,7 +5892,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A88" s="219" t="s">
+      <c r="A88" s="218" t="s">
         <v>430</v>
       </c>
       <c r="B88" s="188"/>
@@ -5853,7 +5913,7 @@
         <v>780</v>
       </c>
       <c r="I88" s="181"/>
-      <c r="J88" s="225" t="s">
+      <c r="J88" s="224" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5876,7 +5936,7 @@
         <v>780</v>
       </c>
       <c r="I89" s="181"/>
-      <c r="J89" s="225" t="s">
+      <c r="J89" s="224" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5903,36 +5963,36 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="222" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A91" s="227" t="s">
+    <row r="91" spans="1:10" s="221" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A91" s="226" t="s">
         <v>431</v>
       </c>
-      <c r="B91" s="213" t="s">
+      <c r="B91" s="212" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="214" t="s">
+      <c r="C91" s="213" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="214" t="s">
+      <c r="D91" s="213" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="215">
+      <c r="E91" s="214">
         <v>600</v>
       </c>
-      <c r="F91" s="214"/>
-      <c r="G91" s="216">
+      <c r="F91" s="213"/>
+      <c r="G91" s="215">
         <v>0.59</v>
       </c>
-      <c r="H91" s="217">
+      <c r="H91" s="216">
         <v>354</v>
       </c>
-      <c r="I91" s="217"/>
-      <c r="J91" s="247" t="s">
+      <c r="I91" s="216"/>
+      <c r="J91" s="246" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="222" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A92" s="221" t="s">
+    <row r="92" spans="1:10" s="221" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A92" s="220" t="s">
         <v>434</v>
       </c>
       <c r="B92" s="183"/>
@@ -5958,12 +6018,12 @@
       <c r="I92" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J92" s="207" t="s">
+      <c r="J92" s="206" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A93" s="221" t="s">
+    <row r="93" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A93" s="220" t="s">
         <v>426</v>
       </c>
       <c r="B93" s="183" t="s">
@@ -5991,74 +6051,74 @@
       <c r="I93" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J93" s="207" t="s">
+      <c r="J93" s="206" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="222" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A94" s="221" t="s">
+    <row r="94" spans="1:10" s="221" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A94" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B94" s="213">
+      <c r="B94" s="212">
         <v>1601</v>
       </c>
-      <c r="C94" s="214" t="s">
+      <c r="C94" s="213" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="214" t="s">
+      <c r="D94" s="213" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="215">
+      <c r="E94" s="214">
         <v>2800</v>
       </c>
-      <c r="F94" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="216">
+      <c r="F94" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="215">
         <v>0.2</v>
       </c>
-      <c r="H94" s="217">
+      <c r="H94" s="216">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="I94" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="247" t="s">
+      <c r="I94" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="246" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="222" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A95" s="221" t="s">
+    <row r="95" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A95" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="213" t="s">
+      <c r="B95" s="212" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="214" t="s">
+      <c r="C95" s="213" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="214" t="s">
+      <c r="D95" s="213" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="215">
+      <c r="E95" s="214">
         <v>600</v>
       </c>
-      <c r="F95" s="214"/>
-      <c r="G95" s="216">
+      <c r="F95" s="213"/>
+      <c r="G95" s="215">
         <v>0.64</v>
       </c>
-      <c r="H95" s="217">
+      <c r="H95" s="216">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="I95" s="217"/>
-      <c r="J95" s="247" t="s">
+      <c r="I95" s="216"/>
+      <c r="J95" s="246" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="222" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A96" s="221" t="s">
+    <row r="96" spans="1:10" s="221" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A96" s="220" t="s">
         <v>434</v>
       </c>
       <c r="B96" s="183">
@@ -6082,12 +6142,12 @@
         <v>150</v>
       </c>
       <c r="I96" s="186"/>
-      <c r="J96" s="207" t="s">
+      <c r="J96" s="206" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="222" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A97" s="316" t="s">
+    <row r="97" spans="1:11" s="221" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A97" s="306" t="s">
         <v>439</v>
       </c>
       <c r="B97" s="183">
@@ -6113,74 +6173,74 @@
         <v>300</v>
       </c>
       <c r="I97" s="186"/>
-      <c r="J97" s="207" t="s">
+      <c r="J97" s="206" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="222" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A98" s="221" t="s">
+    <row r="98" spans="1:11" s="221" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A98" s="220" t="s">
         <v>434</v>
       </c>
-      <c r="B98" s="213" t="s">
+      <c r="B98" s="212" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="214" t="s">
+      <c r="C98" s="213" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="214" t="s">
+      <c r="D98" s="213" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="215">
+      <c r="E98" s="214">
         <v>1200</v>
       </c>
-      <c r="F98" s="214"/>
-      <c r="G98" s="216">
+      <c r="F98" s="213"/>
+      <c r="G98" s="215">
         <v>0.3</v>
       </c>
-      <c r="H98" s="217">
+      <c r="H98" s="216">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="I98" s="217"/>
-      <c r="J98" s="247" t="s">
+      <c r="I98" s="216"/>
+      <c r="J98" s="246" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="222" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A99" s="221" t="s">
+    <row r="99" spans="1:11" s="221" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A99" s="220" t="s">
         <v>434</v>
       </c>
-      <c r="B99" s="213" t="s">
+      <c r="B99" s="212" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="214" t="s">
+      <c r="C99" s="213" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="214" t="s">
+      <c r="D99" s="213" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="215">
+      <c r="E99" s="214">
         <v>600</v>
       </c>
-      <c r="F99" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="216">
+      <c r="F99" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="215">
         <v>0.59</v>
       </c>
-      <c r="H99" s="217">
+      <c r="H99" s="216">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I99" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="247" t="s">
+      <c r="I99" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="246" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="222" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A100" s="221" t="s">
+    <row r="100" spans="1:11" s="221" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A100" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B100" s="183">
@@ -6208,12 +6268,12 @@
       <c r="I100" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J100" s="207" t="s">
+      <c r="J100" s="206" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="222" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
-      <c r="A101" s="221" t="s">
+    <row r="101" spans="1:11" s="221" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
+      <c r="A101" s="220" t="s">
         <v>411</v>
       </c>
       <c r="B101" s="183" t="s">
@@ -6241,12 +6301,12 @@
       <c r="I101" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J101" s="207" t="s">
+      <c r="J101" s="206" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="220" t="s">
+      <c r="B103" s="219" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6278,104 +6338,104 @@
       <c r="J104" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="236" t="s">
+      <c r="K104" s="235" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="222" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
-      <c r="A105" s="221"/>
-      <c r="B105" s="213" t="s">
+    <row r="105" spans="1:11" s="221" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
+      <c r="A105" s="220"/>
+      <c r="B105" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="214" t="s">
+      <c r="C105" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="214" t="s">
+      <c r="D105" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="215">
-        <v>2</v>
-      </c>
-      <c r="F105" s="214" t="s">
+      <c r="E105" s="214">
+        <v>2</v>
+      </c>
+      <c r="F105" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="216">
+      <c r="G105" s="215">
         <v>169.99</v>
       </c>
-      <c r="H105" s="217">
+      <c r="H105" s="216">
         <f t="shared" ref="H105:H110" si="5">E105*G105</f>
         <v>339.98</v>
       </c>
-      <c r="I105" s="290"/>
-      <c r="J105" s="288"/>
-      <c r="K105" s="289"/>
-    </row>
-    <row r="106" spans="1:11" s="222" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A106" s="221" t="s">
+      <c r="I105" s="289"/>
+      <c r="J105" s="287"/>
+      <c r="K105" s="288"/>
+    </row>
+    <row r="106" spans="1:11" s="221" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A106" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B106" s="213" t="s">
+      <c r="B106" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="214" t="s">
+      <c r="C106" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="214" t="s">
+      <c r="D106" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="215">
+      <c r="E106" s="214">
         <v>6</v>
       </c>
-      <c r="F106" s="214" t="s">
+      <c r="F106" s="213" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="216">
+      <c r="G106" s="215">
         <v>11</v>
       </c>
-      <c r="H106" s="217">
+      <c r="H106" s="216">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I106" s="217"/>
-      <c r="J106" s="288"/>
-      <c r="K106" s="289"/>
-    </row>
-    <row r="107" spans="1:11" s="287" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
-      <c r="A107" s="221" t="s">
+      <c r="I106" s="216"/>
+      <c r="J106" s="287"/>
+      <c r="K106" s="288"/>
+    </row>
+    <row r="107" spans="1:11" s="286" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
+      <c r="A107" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B107" s="283">
+      <c r="B107" s="282">
         <v>803920103314</v>
       </c>
-      <c r="C107" s="284" t="s">
+      <c r="C107" s="283" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="209" t="s">
+      <c r="D107" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="210">
+      <c r="E107" s="209">
         <v>3</v>
       </c>
-      <c r="F107" s="210" t="s">
+      <c r="F107" s="209" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="282">
+      <c r="G107" s="281">
         <v>16.47</v>
       </c>
-      <c r="H107" s="282">
+      <c r="H107" s="281">
         <f>SUM(E107*G107)</f>
         <v>49.41</v>
       </c>
-      <c r="I107" s="211" t="s">
+      <c r="I107" s="210" t="s">
         <v>333</v>
       </c>
-      <c r="J107" s="285" t="s">
+      <c r="J107" s="284" t="s">
         <v>334</v>
       </c>
-      <c r="K107" s="286"/>
+      <c r="K107" s="285"/>
     </row>
     <row r="108" spans="1:11" ht="63" thickBot="1">
-      <c r="A108" s="219" t="s">
+      <c r="A108" s="218" t="s">
         <v>441</v>
       </c>
       <c r="B108" s="188"/>
@@ -6401,80 +6461,80 @@
       <c r="I108" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="J108" s="237" t="s">
+      <c r="J108" s="236" t="s">
         <v>345</v>
       </c>
-      <c r="K108" s="238" t="s">
+      <c r="K108" s="237" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="222" customFormat="1" ht="87" thickBot="1">
-      <c r="A109" s="221" t="s">
+    <row r="109" spans="1:11" s="221" customFormat="1" ht="87" thickBot="1">
+      <c r="A109" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B109" s="213" t="s">
+      <c r="B109" s="212" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="214" t="s">
+      <c r="C109" s="213" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="214" t="s">
+      <c r="D109" s="213" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="215">
+      <c r="E109" s="214">
         <v>11</v>
       </c>
-      <c r="F109" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="216">
+      <c r="F109" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="215">
         <v>3.79</v>
       </c>
-      <c r="H109" s="217">
+      <c r="H109" s="216">
         <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
-      <c r="I109" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="288" t="s">
+      <c r="I109" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="287" t="s">
         <v>201</v>
       </c>
-      <c r="K109" s="289"/>
-    </row>
-    <row r="110" spans="1:11" s="222" customFormat="1" ht="58.2" thickBot="1">
-      <c r="A110" s="221" t="s">
+      <c r="K109" s="288"/>
+    </row>
+    <row r="110" spans="1:11" s="221" customFormat="1" ht="58.2" thickBot="1">
+      <c r="A110" s="220" t="s">
         <v>411</v>
       </c>
-      <c r="B110" s="213" t="s">
+      <c r="B110" s="212" t="s">
         <v>379</v>
       </c>
-      <c r="C110" s="214" t="s">
+      <c r="C110" s="213" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="214" t="s">
+      <c r="D110" s="213" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="215">
+      <c r="E110" s="214">
         <v>550</v>
       </c>
-      <c r="F110" s="214" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="216">
+      <c r="F110" s="213" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="215">
         <v>0.54</v>
       </c>
-      <c r="H110" s="217">
+      <c r="H110" s="216">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
-      <c r="I110" s="217" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="288" t="s">
+      <c r="I110" s="216" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="287" t="s">
         <v>378</v>
       </c>
-      <c r="K110" s="289"/>
+      <c r="K110" s="288"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6559,17 +6619,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="320" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
+      <c r="I1" s="320"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
@@ -7229,10 +7289,10 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="305" t="s">
+      <c r="F25" s="321" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="306"/>
+      <c r="G25" s="322"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7306,17 +7366,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -8000,10 +8060,10 @@
     <row r="27" spans="1:56" ht="21.6" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="308" t="s">
+      <c r="F27" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="309"/>
+      <c r="G27" s="325"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -8067,17 +8127,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
@@ -8872,10 +8932,10 @@
     <row r="30" spans="1:10" ht="21.6" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="308" t="s">
+      <c r="F30" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="309"/>
+      <c r="G30" s="325"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -8950,17 +9010,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="24.6">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:90" ht="24.6">
@@ -9973,10 +10033,10 @@
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="311" t="s">
+      <c r="F28" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="312"/>
+      <c r="G28" s="328"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -10028,17 +10088,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -10592,10 +10652,10 @@
     <row r="23" spans="1:10" ht="21.6" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="308" t="s">
+      <c r="F23" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="309"/>
+      <c r="G23" s="325"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10645,101 +10705,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="252"/>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="251"/>
     </row>
     <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="252" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="254"/>
+      <c r="C2" s="253"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="252"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="251"/>
     </row>
     <row r="3" spans="1:11" ht="24.6">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="252" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="254"/>
+      <c r="C3" s="253"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="252"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="251"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="252" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="254"/>
+      <c r="C4" s="253"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="255"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="252"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="251"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="259" t="s">
+      <c r="D5" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="258" t="s">
+      <c r="F5" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="258" t="s">
+      <c r="G5" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="258" t="s">
+      <c r="I5" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="260" t="s">
+      <c r="J5" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="261" t="s">
+      <c r="K5" s="260" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10767,9 +10827,9 @@
         <f t="shared" ref="H6:H16" si="0">E6*G6</f>
         <v>339.98</v>
       </c>
-      <c r="I6" s="279"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="275"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="274"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
@@ -10796,10 +10856,10 @@
         <v>66</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="275"/>
-    </row>
-    <row r="8" spans="1:11" s="277" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="J7" s="273"/>
+      <c r="K7" s="274"/>
+    </row>
+    <row r="8" spans="1:11" s="276" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A8" s="79">
         <v>803920103314</v>
       </c>
@@ -10829,37 +10889,37 @@
       <c r="J8" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="276"/>
+      <c r="K8" s="275"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A9" s="262"/>
-      <c r="B9" s="269" t="s">
+      <c r="A9" s="261"/>
+      <c r="B9" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267">
+      <c r="D9" s="266"/>
+      <c r="E9" s="266">
         <v>550</v>
       </c>
-      <c r="F9" s="269" t="s">
+      <c r="F9" s="268" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="263">
+      <c r="G9" s="262">
         <v>12.11</v>
       </c>
-      <c r="H9" s="264">
+      <c r="H9" s="263">
         <f t="shared" si="0"/>
         <v>6660.5</v>
       </c>
-      <c r="I9" s="268" t="s">
+      <c r="I9" s="267" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="265" t="s">
+      <c r="J9" s="264" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="266" t="s">
+      <c r="K9" s="265" t="s">
         <v>346</v>
       </c>
     </row>
@@ -10890,190 +10950,190 @@
       <c r="I10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="278" t="s">
+      <c r="J10" s="277" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="275"/>
+      <c r="K10" s="274"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A11" s="262" t="s">
+      <c r="A11" s="261" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="268" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="C11" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267">
+      <c r="D11" s="266"/>
+      <c r="E11" s="266">
         <v>550</v>
       </c>
-      <c r="F11" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="263">
+      <c r="F11" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="262">
         <v>0.54</v>
       </c>
-      <c r="H11" s="264">
+      <c r="H11" s="263">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="I11" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="270" t="s">
+      <c r="I11" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="269" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="266"/>
+      <c r="K11" s="265"/>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A12" s="262" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="263"/>
-      <c r="H12" s="264">
+      <c r="A12" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="262"/>
+      <c r="H12" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="270"/>
-      <c r="K12" s="266"/>
+      <c r="I12" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="269"/>
+      <c r="K12" s="265"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A13" s="262" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
-      <c r="F13" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="263"/>
-      <c r="H13" s="264">
+      <c r="A13" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="262"/>
+      <c r="H13" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="270"/>
-      <c r="K13" s="266"/>
+      <c r="I13" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="269"/>
+      <c r="K13" s="265"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A14" s="262" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="267"/>
-      <c r="E14" s="267"/>
-      <c r="F14" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="263"/>
-      <c r="H14" s="264">
+      <c r="A14" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="262"/>
+      <c r="H14" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="270"/>
-      <c r="K14" s="266"/>
+      <c r="I14" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="269"/>
+      <c r="K14" s="265"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A15" s="262" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="263"/>
-      <c r="H15" s="264">
+      <c r="A15" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="262"/>
+      <c r="H15" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="270"/>
-      <c r="K15" s="266"/>
+      <c r="I15" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="269"/>
+      <c r="K15" s="265"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A16" s="262" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="267"/>
-      <c r="E16" s="267"/>
-      <c r="F16" s="269" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="263"/>
-      <c r="H16" s="264">
+      <c r="A16" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="262"/>
+      <c r="H16" s="263">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="270"/>
-      <c r="K16" s="266"/>
+      <c r="I16" s="267" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="269"/>
+      <c r="K16" s="265"/>
     </row>
     <row r="17" spans="1:11" ht="21.6" thickBot="1">
-      <c r="A17" s="271"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="308" t="s">
+      <c r="A17" s="270"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="309"/>
+      <c r="G17" s="325"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="273"/>
-      <c r="K17" s="252"/>
+      <c r="J17" s="272"/>
+      <c r="K17" s="251"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">

--- a/SMC order 8-14-18.xlsx
+++ b/SMC order 8-14-18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDATED FOR MARK" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="448">
   <si>
     <t>PURCHASING ORDER FORM</t>
   </si>
@@ -1265,9 +1265,6 @@
     <t>ord 100 wmt 15 amz 7/11</t>
   </si>
   <si>
-    <t>ord 16oz size</t>
-  </si>
-  <si>
     <t>Ordered 36 from Amz &amp; 20 from Walmart.  ORD 100 from Amz 7/23</t>
   </si>
   <si>
@@ -1432,12 +1429,6 @@
     <t>HOW TO GET?</t>
   </si>
   <si>
-    <t>in contact w rep</t>
-  </si>
-  <si>
-    <t>DO WE NEED?</t>
-  </si>
-  <si>
     <r>
       <t>target</t>
     </r>
@@ -1479,10 +1470,16 @@
     <t>200 from Jet.com, 20 from Tgt</t>
   </si>
   <si>
-    <t>ordered?</t>
-  </si>
-  <si>
     <t>cheapbatteries</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>DOUBLE THIS ORDER! ord 16oz size</t>
+  </si>
+  <si>
+    <t>WHERE WAS THIS DELIVERED? GET MORE</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1493,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,6 +1865,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2208,7 +2213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2767,21 +2772,6 @@
     <xf numFmtId="164" fontId="14" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2873,12 +2863,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3127,6 +3111,75 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3440,30 +3493,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="218"/>
-    <col min="2" max="2" width="19.88671875" style="219" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" style="219"/>
-    <col min="5" max="8" width="17" style="219" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" style="219" customWidth="1"/>
-    <col min="10" max="16384" width="17" style="219"/>
+    <col min="1" max="1" width="17" style="213"/>
+    <col min="2" max="2" width="19.88671875" style="214" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="214"/>
+    <col min="5" max="8" width="17" style="214" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="214" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="214"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="213" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="214" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="214" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3478,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F3" s="152" t="s">
         <v>10</v>
@@ -3526,15 +3579,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="221" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A5" s="220" t="s">
-        <v>411</v>
+    <row r="5" spans="1:10" s="216" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A5" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" s="159" t="s">
         <v>121</v>
@@ -3559,15 +3612,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="221" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A6" s="220" t="s">
-        <v>410</v>
+    <row r="6" spans="1:10" s="216" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A6" s="215" t="s">
+        <v>409</v>
       </c>
       <c r="B6" s="159">
         <v>2009</v>
       </c>
       <c r="C6" s="159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D6" s="159" t="s">
         <v>26</v>
@@ -3593,8 +3646,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.4">
-      <c r="A7" s="218" t="s">
-        <v>414</v>
+      <c r="A7" s="213" t="s">
+        <v>413</v>
       </c>
       <c r="B7" s="163" t="s">
         <v>22</v>
@@ -3624,9 +3677,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="221" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="220" t="s">
-        <v>407</v>
+    <row r="8" spans="1:10" s="216" customFormat="1" ht="51" customHeight="1">
+      <c r="A8" s="215" t="s">
+        <v>406</v>
       </c>
       <c r="B8" s="167" t="s">
         <v>283</v>
@@ -3657,9 +3710,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="221" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A9" s="220" t="s">
-        <v>411</v>
+    <row r="9" spans="1:10" s="216" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A9" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B9" s="159" t="s">
         <v>288</v>
@@ -3686,44 +3739,44 @@
       <c r="I9" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="207" t="s">
+      <c r="J9" s="202" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="221" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A10" s="220"/>
-      <c r="B10" s="279">
+    <row r="10" spans="1:10" s="216" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A10" s="215"/>
+      <c r="B10" s="272">
         <v>400011857257</v>
       </c>
-      <c r="C10" s="208" t="s">
+      <c r="C10" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="208" t="s">
+      <c r="D10" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="209">
+      <c r="E10" s="204">
         <v>67</v>
       </c>
-      <c r="F10" s="209" t="s">
+      <c r="F10" s="204" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="208">
+      <c r="G10" s="203">
         <v>8.19</v>
       </c>
-      <c r="H10" s="208">
+      <c r="H10" s="203">
         <f>SUM(E10*G10)</f>
         <v>548.73</v>
       </c>
-      <c r="I10" s="210" t="s">
+      <c r="I10" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="280" t="s">
+      <c r="J10" s="273" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="221" customFormat="1" ht="102.6" customHeight="1">
-      <c r="A11" s="303" t="s">
-        <v>427</v>
+    <row r="11" spans="1:10" s="216" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A11" s="296" t="s">
+        <v>426</v>
       </c>
       <c r="B11" s="159" t="s">
         <v>120</v>
@@ -3732,7 +3785,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E11" s="160">
         <v>11</v>
@@ -3743,7 +3796,7 @@
       <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="293">
+      <c r="H11" s="286">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
@@ -3754,72 +3807,72 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="221" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A12" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="208" t="s">
+    <row r="12" spans="1:10" s="216" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A12" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="203" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="208" t="s">
+      <c r="D12" s="203" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="209">
+      <c r="E12" s="204">
         <v>10</v>
       </c>
-      <c r="F12" s="208" t="s">
+      <c r="F12" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="210">
+      <c r="G12" s="205">
         <v>4.99</v>
       </c>
-      <c r="H12" s="210">
+      <c r="H12" s="205">
         <f>E12*G12</f>
         <v>49.900000000000006</v>
       </c>
-      <c r="I12" s="210" t="s">
+      <c r="I12" s="205" t="s">
         <v>298</v>
       </c>
-      <c r="J12" s="211" t="s">
+      <c r="J12" s="206" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="221" customFormat="1" ht="137.4" customHeight="1">
-      <c r="A13" s="220"/>
-      <c r="B13" s="279">
+    <row r="13" spans="1:10" s="216" customFormat="1" ht="137.4" customHeight="1">
+      <c r="A13" s="215"/>
+      <c r="B13" s="272">
         <v>10074506116197</v>
       </c>
-      <c r="C13" s="208" t="s">
+      <c r="C13" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="208" t="s">
+      <c r="D13" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="209">
+      <c r="E13" s="204">
         <v>0</v>
       </c>
-      <c r="F13" s="209" t="s">
+      <c r="F13" s="204" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="208">
+      <c r="G13" s="203">
         <v>0</v>
       </c>
-      <c r="H13" s="281">
+      <c r="H13" s="274">
         <v>0</v>
       </c>
       <c r="I13" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="J13" s="211" t="s">
+      <c r="J13" s="206" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="221" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A14" s="220" t="s">
-        <v>434</v>
+    <row r="14" spans="1:10" s="216" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A14" s="215" t="s">
+        <v>433</v>
       </c>
       <c r="B14" s="159" t="s">
         <v>133</v>
@@ -3850,8 +3903,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="221" customFormat="1" ht="74.400000000000006" customHeight="1">
-      <c r="A15" s="220"/>
+    <row r="15" spans="1:10" s="216" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="215"/>
       <c r="B15" s="159" t="s">
         <v>305</v>
       </c>
@@ -3881,9 +3934,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="221" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A16" s="220" t="s">
-        <v>417</v>
+    <row r="16" spans="1:10" s="216" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A16" s="215" t="s">
+        <v>416</v>
       </c>
       <c r="B16" s="159" t="s">
         <v>310</v>
@@ -3914,9 +3967,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="221" customFormat="1" ht="77.400000000000006" customHeight="1">
-      <c r="A17" s="220" t="s">
-        <v>411</v>
+    <row r="17" spans="1:10" s="216" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A17" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B17" s="159" t="s">
         <v>314</v>
@@ -3947,42 +4000,42 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="221" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A18" s="220" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="208" t="s">
+    <row r="18" spans="1:10" s="216" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A18" s="215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" s="203" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="208" t="s">
+      <c r="C18" s="203" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="208" t="s">
+      <c r="D18" s="203" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="208">
+      <c r="E18" s="203">
         <v>810</v>
       </c>
-      <c r="F18" s="208" t="s">
+      <c r="F18" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="209">
+      <c r="G18" s="204">
         <v>0.33</v>
       </c>
-      <c r="H18" s="208">
+      <c r="H18" s="203">
         <f t="shared" si="0"/>
         <v>267.3</v>
       </c>
-      <c r="I18" s="208" t="s">
+      <c r="I18" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="232" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="221" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A19" s="220" t="s">
-        <v>432</v>
+    <row r="19" spans="1:10" s="216" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A19" s="215" t="s">
+        <v>431</v>
       </c>
       <c r="B19" s="159" t="s">
         <v>324</v>
@@ -4013,19 +4066,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="221" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A20" s="220" t="s">
-        <v>411</v>
+    <row r="20" spans="1:10" s="216" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A20" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B20" s="159"/>
       <c r="C20" s="159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="292" t="s">
-        <v>423</v>
+      <c r="E20" s="285" t="s">
+        <v>422</v>
       </c>
       <c r="F20" s="160" t="s">
         <v>329</v>
@@ -4044,47 +4097,47 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="221" customFormat="1" ht="59.4" customHeight="1">
-      <c r="A21" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B21" s="240" t="s">
+    <row r="21" spans="1:10" s="216" customFormat="1" ht="59.4" customHeight="1">
+      <c r="A21" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="233" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="241" t="s">
+      <c r="C21" s="234" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="241" t="s">
+      <c r="D21" s="234" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="242">
+      <c r="E21" s="235">
         <v>15</v>
       </c>
-      <c r="F21" s="242" t="s">
+      <c r="F21" s="235" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="243">
+      <c r="G21" s="236">
         <v>51</v>
       </c>
-      <c r="H21" s="243">
+      <c r="H21" s="236">
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="I21" s="244" t="s">
+      <c r="I21" s="237" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="245" t="s">
+      <c r="J21" s="238" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="219" t="s">
+      <c r="B22" s="214" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A23" s="220" t="s">
-        <v>405</v>
+      <c r="A23" s="215" t="s">
+        <v>404</v>
       </c>
       <c r="B23" s="175" t="s">
         <v>5</v>
@@ -4114,9 +4167,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="221" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="220" t="s">
-        <v>411</v>
+    <row r="24" spans="1:10" s="216" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B24" s="183" t="s">
         <v>185</v>
@@ -4145,15 +4198,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="221" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
-      <c r="A25" s="220" t="s">
-        <v>411</v>
+    <row r="25" spans="1:10" s="216" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
+      <c r="A25" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B25" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="304" t="s">
-        <v>435</v>
+      <c r="C25" s="297" t="s">
+        <v>434</v>
       </c>
       <c r="D25" s="74" t="s">
         <v>190</v>
@@ -4178,8 +4231,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="221" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
-      <c r="A26" s="220"/>
+    <row r="26" spans="1:10" s="216" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
+      <c r="A26" s="215"/>
       <c r="B26" s="183" t="s">
         <v>196</v>
       </c>
@@ -4206,8 +4259,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="142.19999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="303" t="s">
-        <v>433</v>
+      <c r="A27" s="296" t="s">
+        <v>432</v>
       </c>
       <c r="B27" s="178"/>
       <c r="C27" s="150" t="s">
@@ -4232,13 +4285,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="221" customFormat="1" ht="63" thickBot="1">
-      <c r="A28" s="220" t="s">
-        <v>434</v>
+    <row r="28" spans="1:10" s="216" customFormat="1" ht="63" thickBot="1">
+      <c r="A28" s="215" t="s">
+        <v>433</v>
       </c>
       <c r="B28" s="183"/>
       <c r="C28" s="74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>135</v>
@@ -4263,37 +4316,37 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="221" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
-      <c r="A29" s="220" t="s">
-        <v>437</v>
-      </c>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213" t="s">
+    <row r="29" spans="1:10" s="216" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
+      <c r="A29" s="215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="213" t="s">
+      <c r="D29" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="214">
-        <v>2</v>
-      </c>
-      <c r="F29" s="213"/>
-      <c r="G29" s="215">
+      <c r="E29" s="209">
+        <v>2</v>
+      </c>
+      <c r="F29" s="208"/>
+      <c r="G29" s="210">
         <v>3.99</v>
       </c>
-      <c r="H29" s="216">
+      <c r="H29" s="211">
         <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="I29" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="217" t="s">
+      <c r="I29" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="212" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A30" s="220"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="188"/>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
@@ -4311,101 +4364,101 @@
       </c>
       <c r="J30" s="193"/>
     </row>
-    <row r="31" spans="1:10" s="221" customFormat="1" ht="75" customHeight="1" thickBot="1">
-      <c r="A31" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" s="212" t="s">
+    <row r="31" spans="1:10" s="216" customFormat="1" ht="75" customHeight="1" thickBot="1">
+      <c r="A31" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B31" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="213" t="s">
+      <c r="C31" s="208" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="213" t="s">
+      <c r="D31" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="214">
+      <c r="E31" s="209">
         <v>3</v>
       </c>
-      <c r="F31" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="215">
+      <c r="F31" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="210">
         <v>27</v>
       </c>
-      <c r="H31" s="216">
+      <c r="H31" s="211">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I31" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="217" t="s">
+      <c r="I31" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="212" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="221" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
-      <c r="A32" s="220" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" s="212" t="s">
+    <row r="32" spans="1:10" s="216" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
+      <c r="A32" s="215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" s="207" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="213" t="s">
+      <c r="C32" s="208" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="213" t="s">
+      <c r="D32" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="214">
+      <c r="E32" s="209">
         <v>3</v>
       </c>
-      <c r="F32" s="213"/>
-      <c r="G32" s="215">
+      <c r="F32" s="208"/>
+      <c r="G32" s="210">
         <v>154.37</v>
       </c>
-      <c r="H32" s="216">
+      <c r="H32" s="211">
         <f t="shared" si="1"/>
         <v>463.11</v>
       </c>
-      <c r="I32" s="216"/>
-      <c r="J32" s="217" t="s">
+      <c r="I32" s="211"/>
+      <c r="J32" s="212" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="221" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A33" s="220"/>
-      <c r="B33" s="212" t="s">
+    <row r="33" spans="1:10" s="216" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A33" s="215"/>
+      <c r="B33" s="207" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="213" t="s">
+      <c r="C33" s="208" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="214">
+      <c r="E33" s="209">
         <v>4</v>
       </c>
-      <c r="F33" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="215">
+      <c r="F33" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="210">
         <v>13.51</v>
       </c>
-      <c r="H33" s="216">
+      <c r="H33" s="211">
         <f t="shared" si="1"/>
         <v>54.04</v>
       </c>
-      <c r="I33" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="217" t="s">
+      <c r="I33" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="212" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A34" s="220"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="188"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
@@ -4421,75 +4474,75 @@
       <c r="I34" s="191"/>
       <c r="J34" s="192"/>
     </row>
-    <row r="35" spans="1:10" s="221" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A35" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B35" s="212" t="s">
+    <row r="35" spans="1:10" s="216" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A35" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" s="207" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="213" t="s">
+      <c r="C35" s="208" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="213" t="s">
+      <c r="D35" s="208" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="214">
+      <c r="E35" s="209">
         <v>220</v>
       </c>
-      <c r="F35" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="215">
+      <c r="F35" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="210">
         <v>1.49</v>
       </c>
-      <c r="H35" s="216">
+      <c r="H35" s="211">
         <f t="shared" si="1"/>
         <v>327.8</v>
       </c>
-      <c r="I35" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="217" t="s">
+      <c r="I35" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="212" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="221" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A36" s="220" t="s">
+    <row r="36" spans="1:10" s="216" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A36" s="215" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="207" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="208" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="208" t="s">
         <v>415</v>
       </c>
-      <c r="B36" s="212" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="213" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="213" t="s">
-        <v>416</v>
-      </c>
-      <c r="E36" s="214">
+      <c r="E36" s="209">
         <v>19</v>
       </c>
-      <c r="F36" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="215">
+      <c r="F36" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="210">
         <v>4.99</v>
       </c>
-      <c r="H36" s="216">
+      <c r="H36" s="211">
         <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
-      <c r="I36" s="216" t="s">
+      <c r="I36" s="211" t="s">
         <v>214</v>
       </c>
-      <c r="J36" s="217" t="s">
+      <c r="J36" s="212" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="221" customFormat="1" ht="87" thickBot="1">
-      <c r="A37" s="220" t="s">
-        <v>411</v>
+    <row r="37" spans="1:10" s="216" customFormat="1" ht="87" thickBot="1">
+      <c r="A37" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B37" s="183" t="s">
         <v>271</v>
@@ -4514,13 +4567,13 @@
         <v>238.29000000000002</v>
       </c>
       <c r="I37" s="186"/>
-      <c r="J37" s="206" t="s">
+      <c r="J37" s="201" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="221" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A38" s="220" t="s">
-        <v>418</v>
+    <row r="38" spans="1:10" s="216" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A38" s="215" t="s">
+        <v>417</v>
       </c>
       <c r="B38" s="183" t="s">
         <v>219</v>
@@ -4528,11 +4581,11 @@
       <c r="C38" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="283" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" s="284" t="s">
         <v>420</v>
-      </c>
-      <c r="E38" s="291" t="s">
-        <v>421</v>
       </c>
       <c r="F38" s="74" t="s">
         <v>2</v>
@@ -4551,38 +4604,38 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="221" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
-      <c r="A39" s="220" t="s">
-        <v>444</v>
-      </c>
-      <c r="B39" s="212" t="s">
+    <row r="39" spans="1:10" s="216" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A39" s="215" t="s">
+        <v>441</v>
+      </c>
+      <c r="B39" s="207" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="213" t="s">
+      <c r="C39" s="208" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="213" t="s">
-        <v>419</v>
-      </c>
-      <c r="E39" s="214">
+      <c r="D39" s="208" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="209">
         <v>440</v>
       </c>
-      <c r="F39" s="213"/>
-      <c r="G39" s="215">
+      <c r="F39" s="208"/>
+      <c r="G39" s="210">
         <v>1.55</v>
       </c>
-      <c r="H39" s="216">
+      <c r="H39" s="211">
         <f t="shared" si="1"/>
         <v>682</v>
       </c>
-      <c r="I39" s="216"/>
-      <c r="J39" s="217" t="s">
+      <c r="I39" s="211"/>
+      <c r="J39" s="212" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A40" s="220" t="s">
-        <v>406</v>
+      <c r="A40" s="215" t="s">
+        <v>405</v>
       </c>
       <c r="B40" s="195" t="s">
         <v>229</v>
@@ -4609,40 +4662,40 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="221" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
-      <c r="A41" s="220" t="s">
-        <v>438</v>
-      </c>
-      <c r="B41" s="212"/>
-      <c r="C41" s="213" t="s">
+    <row r="41" spans="1:10" s="216" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
+      <c r="A41" s="215" t="s">
+        <v>437</v>
+      </c>
+      <c r="B41" s="207"/>
+      <c r="C41" s="208" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="213" t="s">
+      <c r="D41" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="214">
-        <v>2</v>
-      </c>
-      <c r="F41" s="213"/>
-      <c r="G41" s="215">
+      <c r="E41" s="209">
+        <v>2</v>
+      </c>
+      <c r="F41" s="208"/>
+      <c r="G41" s="210">
         <v>28.08</v>
       </c>
-      <c r="H41" s="216">
+      <c r="H41" s="211">
         <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="I41" s="216"/>
-      <c r="J41" s="246" t="s">
+      <c r="I41" s="211"/>
+      <c r="J41" s="239" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="219" t="s">
+      <c r="B43" s="214" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A44" s="222" t="s">
+      <c r="A44" s="217" t="s">
         <v>401</v>
       </c>
       <c r="B44" s="175" t="s">
@@ -4673,38 +4726,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="222"/>
-      <c r="B45" s="212" t="s">
+    <row r="45" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="217"/>
+      <c r="B45" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="213" t="s">
+      <c r="C45" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="213" t="s">
+      <c r="D45" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="214">
+      <c r="E45" s="209">
         <v>7</v>
       </c>
-      <c r="F45" s="213" t="s">
+      <c r="F45" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="215">
+      <c r="G45" s="210">
         <v>12.85</v>
       </c>
-      <c r="H45" s="216">
+      <c r="H45" s="211">
         <v>89.95</v>
       </c>
-      <c r="I45" s="216" t="s">
+      <c r="I45" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="246" t="s">
+      <c r="J45" s="239" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A46" s="222"/>
+      <c r="A46" s="217"/>
       <c r="B46" s="188" t="s">
         <v>63</v>
       </c>
@@ -4717,136 +4770,138 @@
       <c r="I46" s="191"/>
       <c r="J46" s="193"/>
     </row>
-    <row r="47" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A47" s="222"/>
-      <c r="B47" s="212">
+    <row r="47" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A47" s="217"/>
+      <c r="B47" s="207">
         <v>11029200</v>
       </c>
-      <c r="C47" s="213" t="s">
+      <c r="C47" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="213" t="s">
+      <c r="D47" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="214">
+      <c r="E47" s="209">
         <v>6</v>
       </c>
-      <c r="F47" s="213" t="s">
+      <c r="F47" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="215">
+      <c r="G47" s="210">
         <v>29.51</v>
       </c>
-      <c r="H47" s="216">
+      <c r="H47" s="211">
         <v>177.06</v>
       </c>
-      <c r="I47" s="216" t="s">
+      <c r="I47" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="246" t="s">
+      <c r="J47" s="239" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="221" customFormat="1" ht="63" thickBot="1">
-      <c r="A48" s="226" t="s">
-        <v>445</v>
-      </c>
-      <c r="B48" s="212" t="s">
+    <row r="48" spans="1:10" s="216" customFormat="1" ht="63" thickBot="1">
+      <c r="A48" s="221" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="213" t="s">
+      <c r="C48" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="309" t="s">
-        <v>443</v>
-      </c>
-      <c r="E48" s="214">
+      <c r="D48" s="302" t="s">
+        <v>440</v>
+      </c>
+      <c r="E48" s="209">
         <v>115</v>
       </c>
-      <c r="F48" s="213" t="s">
+      <c r="F48" s="208" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="310">
+      <c r="G48" s="303">
         <v>2.27</v>
       </c>
-      <c r="H48" s="216">
+      <c r="H48" s="211">
         <f t="shared" ref="H48:H65" si="2">E48*G48</f>
         <v>261.05</v>
       </c>
-      <c r="I48" s="216" t="s">
+      <c r="I48" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="246" t="s">
+      <c r="J48" s="239" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A49" s="222"/>
-      <c r="B49" s="212">
+    <row r="49" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A49" s="217"/>
+      <c r="B49" s="207">
         <v>22584104</v>
       </c>
-      <c r="C49" s="213" t="s">
+      <c r="C49" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="213" t="s">
+      <c r="D49" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="214">
+      <c r="E49" s="209">
         <v>6</v>
       </c>
-      <c r="F49" s="213" t="s">
+      <c r="F49" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="215">
+      <c r="G49" s="210">
         <v>18.239999999999998</v>
       </c>
-      <c r="H49" s="216">
+      <c r="H49" s="211">
         <f t="shared" si="2"/>
         <v>109.44</v>
       </c>
-      <c r="I49" s="216" t="s">
+      <c r="I49" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="246" t="s">
+      <c r="J49" s="239" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A50" s="222"/>
-      <c r="B50" s="212">
+    <row r="50" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A50" s="217" t="s">
+        <v>410</v>
+      </c>
+      <c r="B50" s="207">
         <v>10400921</v>
       </c>
-      <c r="C50" s="213" t="s">
+      <c r="C50" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="213" t="s">
+      <c r="D50" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="214">
+      <c r="E50" s="209">
         <v>6</v>
       </c>
-      <c r="F50" s="213" t="s">
+      <c r="F50" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="215">
+      <c r="G50" s="210">
         <v>17.649999999999999</v>
       </c>
-      <c r="H50" s="216">
+      <c r="H50" s="211">
         <f t="shared" si="2"/>
         <v>105.89999999999999</v>
       </c>
-      <c r="I50" s="216" t="s">
+      <c r="I50" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="246" t="s">
+      <c r="J50" s="239" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="221" customFormat="1" ht="55.8" thickBot="1">
-      <c r="A51" s="223" t="s">
-        <v>404</v>
-      </c>
-      <c r="B51" s="212">
+    <row r="51" spans="1:10" s="216" customFormat="1" ht="55.8" thickBot="1">
+      <c r="A51" s="218" t="s">
+        <v>403</v>
+      </c>
+      <c r="B51" s="207">
         <v>556138647</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -4871,15 +4926,15 @@
       <c r="I51" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="206" t="s">
+      <c r="J51" s="201" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A52" s="222" t="s">
-        <v>434</v>
-      </c>
-      <c r="B52" s="212">
+    <row r="52" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A52" s="217" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52" s="207">
         <v>15166</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -4904,15 +4959,15 @@
       <c r="I52" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="206" t="s">
+      <c r="J52" s="201" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="221" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A53" s="222" t="s">
+    <row r="53" spans="1:10" s="216" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A53" s="217" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="212">
+      <c r="B53" s="207">
         <v>564439325</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -4937,15 +4992,15 @@
       <c r="I53" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="206" t="s">
+      <c r="J53" s="201" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A54" s="222" t="s">
-        <v>428</v>
-      </c>
-      <c r="B54" s="212" t="s">
+    <row r="54" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A54" s="217" t="s">
+        <v>427</v>
+      </c>
+      <c r="B54" s="207" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="74" t="s">
@@ -4970,15 +5025,15 @@
       <c r="I54" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="294" t="s">
+      <c r="J54" s="287" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A55" s="222" t="s">
-        <v>428</v>
-      </c>
-      <c r="B55" s="212" t="s">
+    <row r="55" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A55" s="217" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="74" t="s">
@@ -5003,15 +5058,15 @@
       <c r="I55" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="206" t="s">
+      <c r="J55" s="201" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A56" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B56" s="225">
+    <row r="56" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A56" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B56" s="220">
         <v>625277</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -5036,206 +5091,208 @@
       <c r="I56" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="206" t="s">
+      <c r="J56" s="201" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A57" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B57" s="212" t="s">
+    <row r="57" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A57" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="213" t="s">
+      <c r="C57" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="213" t="s">
+      <c r="D57" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="214">
+      <c r="E57" s="209">
         <v>6</v>
       </c>
-      <c r="F57" s="213" t="s">
+      <c r="F57" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="215">
+      <c r="G57" s="210">
         <v>21.15</v>
       </c>
-      <c r="H57" s="216">
+      <c r="H57" s="211">
         <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="I57" s="216"/>
-      <c r="J57" s="246" t="s">
+      <c r="I57" s="211"/>
+      <c r="J57" s="239" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A58" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B58" s="212" t="s">
+    <row r="58" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A58" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="207" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="213" t="s">
+      <c r="C58" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="213" t="s">
+      <c r="D58" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="214">
+      <c r="E58" s="209">
         <v>3</v>
       </c>
-      <c r="F58" s="213" t="s">
+      <c r="F58" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="215">
+      <c r="G58" s="210">
         <v>81.27</v>
       </c>
-      <c r="H58" s="216">
+      <c r="H58" s="211">
         <f t="shared" si="2"/>
         <v>243.81</v>
       </c>
-      <c r="I58" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="246" t="s">
+      <c r="I58" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="239" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A59" s="222"/>
-      <c r="B59" s="212">
+    <row r="59" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A59" s="221" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="207">
         <v>9171119</v>
       </c>
-      <c r="C59" s="213" t="s">
+      <c r="C59" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="213" t="s">
+      <c r="D59" s="208" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="214">
-        <v>2</v>
-      </c>
-      <c r="F59" s="213" t="s">
+      <c r="E59" s="209">
+        <v>2</v>
+      </c>
+      <c r="F59" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="215">
+      <c r="G59" s="210">
         <v>32.49</v>
       </c>
-      <c r="H59" s="216">
+      <c r="H59" s="211">
         <f t="shared" si="2"/>
         <v>64.98</v>
       </c>
-      <c r="I59" s="216" t="s">
+      <c r="I59" s="211" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="246" t="s">
+      <c r="J59" s="239" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="221" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A60" s="222" t="s">
-        <v>403</v>
-      </c>
-      <c r="B60" s="212">
+    <row r="60" spans="1:10" s="228" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A60" s="298" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="222">
         <v>565320669</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="223" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="184">
+      <c r="E60" s="224">
         <v>110</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="223" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="185">
+      <c r="G60" s="225">
         <v>0.88</v>
       </c>
-      <c r="H60" s="186">
+      <c r="H60" s="226">
         <f t="shared" si="2"/>
         <v>96.8</v>
       </c>
-      <c r="I60" s="186" t="s">
+      <c r="I60" s="226" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="206" t="s">
+      <c r="J60" s="337" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="221" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A61" s="222" t="s">
-        <v>446</v>
-      </c>
-      <c r="B61" s="212" t="s">
+    <row r="61" spans="1:10" s="216" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A61" s="217" t="s">
+        <v>443</v>
+      </c>
+      <c r="B61" s="207" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="213" t="s">
+      <c r="C61" s="208" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="213" t="s">
+      <c r="D61" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="214">
+      <c r="E61" s="209">
         <v>220</v>
       </c>
-      <c r="F61" s="213" t="s">
+      <c r="F61" s="208" t="s">
         <v>371</v>
       </c>
-      <c r="G61" s="215">
+      <c r="G61" s="210">
         <v>1.39</v>
       </c>
-      <c r="H61" s="216">
+      <c r="H61" s="211">
         <f t="shared" si="2"/>
         <v>305.79999999999995</v>
       </c>
-      <c r="I61" s="216" t="s">
+      <c r="I61" s="211" t="s">
         <v>373</v>
       </c>
-      <c r="J61" s="246" t="s">
+      <c r="J61" s="239" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="233" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A62" s="305" t="s">
-        <v>408</v>
-      </c>
-      <c r="B62" s="227">
+    <row r="62" spans="1:10" s="228" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A62" s="298" t="s">
+        <v>407</v>
+      </c>
+      <c r="B62" s="222">
         <v>178257</v>
       </c>
-      <c r="C62" s="228" t="s">
+      <c r="C62" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="319" t="s">
+      <c r="D62" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="229">
+      <c r="E62" s="224">
         <v>9</v>
       </c>
-      <c r="F62" s="228" t="s">
+      <c r="F62" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="230">
+      <c r="G62" s="225">
         <v>24</v>
       </c>
-      <c r="H62" s="231">
+      <c r="H62" s="226">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="I62" s="231" t="s">
+      <c r="I62" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="232" t="s">
+      <c r="J62" s="227" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A63" s="222"/>
+    <row r="63" spans="1:10" ht="32.4" customHeight="1" thickBot="1">
+      <c r="A63" s="217"/>
       <c r="B63" s="188" t="s">
         <v>375</v>
       </c>
@@ -5261,48 +5318,48 @@
       <c r="I63" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="234" t="s">
+      <c r="J63" s="229" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="221" customFormat="1" ht="60.6" thickBot="1">
-      <c r="A64" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" s="212" t="s">
+    <row r="64" spans="1:10" s="216" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A64" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B64" s="207" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="213" t="s">
+      <c r="C64" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="213" t="s">
+      <c r="D64" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="214">
+      <c r="E64" s="209">
         <v>3</v>
       </c>
-      <c r="F64" s="213" t="s">
+      <c r="F64" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="215">
+      <c r="G64" s="210">
         <v>33.49</v>
       </c>
-      <c r="H64" s="216">
+      <c r="H64" s="211">
         <f t="shared" si="2"/>
         <v>100.47</v>
       </c>
-      <c r="I64" s="216" t="s">
+      <c r="I64" s="211" t="s">
         <v>113</v>
       </c>
-      <c r="J64" s="246" t="s">
+      <c r="J64" s="239" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="221" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A65" s="222" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="212">
+    <row r="65" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A65" s="217" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65" s="207">
         <v>843342</v>
       </c>
       <c r="C65" s="74" t="s">
@@ -5327,53 +5384,54 @@
       <c r="I65" s="186" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="206" t="s">
+      <c r="J65" s="201" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" hidden="1">
-      <c r="A66" s="222"/>
+      <c r="A66" s="217"/>
     </row>
     <row r="67" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A67" s="222"/>
-      <c r="B67" s="219" t="s">
+      <c r="A67" s="217"/>
+      <c r="B67" s="214" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="221" customFormat="1" ht="43.8" thickBot="1">
-      <c r="A68" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B68" s="212" t="s">
+    <row r="68" spans="1:10" s="216" customFormat="1" ht="43.8" thickBot="1">
+      <c r="A68" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68" s="207" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="213" t="s">
+      <c r="C68" s="208" t="s">
         <v>363</v>
       </c>
-      <c r="D68" s="213" t="s">
+      <c r="D68" s="208" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="214">
+      <c r="E68" s="209">
         <v>2750</v>
       </c>
-      <c r="F68" s="213" t="s">
+      <c r="F68" s="208" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="215">
+      <c r="G68" s="210">
         <v>0.47</v>
       </c>
-      <c r="H68" s="216">
+      <c r="H68" s="211">
         <f t="shared" ref="H68:H84" si="3">E68*G68</f>
         <v>1292.5</v>
       </c>
-      <c r="I68" s="289" t="s">
+      <c r="I68" s="282" t="s">
         <v>141</v>
       </c>
-      <c r="J68" s="246" t="s">
+      <c r="J68" s="239" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="31.8" thickBot="1">
+    <row r="69" spans="1:10" s="336" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A69" s="335"/>
       <c r="B69" s="188">
         <v>1100113439</v>
       </c>
@@ -5397,72 +5455,72 @@
         <v>423.47</v>
       </c>
       <c r="I69" s="191"/>
-      <c r="J69" s="193" t="s">
+      <c r="J69" s="192" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A70" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B70" s="212" t="s">
+    <row r="70" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A70" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="207" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="213" t="s">
+      <c r="C70" s="208" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="212" t="s">
+      <c r="D70" s="207" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="214">
+      <c r="E70" s="209">
         <v>115</v>
       </c>
-      <c r="F70" s="213" t="s">
+      <c r="F70" s="208" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="215">
+      <c r="G70" s="210">
         <v>1.27</v>
       </c>
-      <c r="H70" s="216">
+      <c r="H70" s="211">
         <v>142.24</v>
       </c>
-      <c r="I70" s="216"/>
-      <c r="J70" s="246" t="s">
+      <c r="I70" s="211"/>
+      <c r="J70" s="239" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="221" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
-      <c r="A71" s="220"/>
-      <c r="B71" s="212" t="s">
+    <row r="71" spans="1:10" s="216" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="A71" s="215"/>
+      <c r="B71" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="213" t="s">
+      <c r="C71" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="213" t="s">
+      <c r="D71" s="208" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="214">
+      <c r="E71" s="209">
         <v>115</v>
       </c>
-      <c r="F71" s="213" t="s">
+      <c r="F71" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="215">
+      <c r="G71" s="210">
         <v>7.95</v>
       </c>
-      <c r="H71" s="216">
+      <c r="H71" s="211">
         <f t="shared" si="3"/>
         <v>914.25</v>
       </c>
-      <c r="I71" s="216"/>
-      <c r="J71" s="246" t="s">
+      <c r="I71" s="211"/>
+      <c r="J71" s="239" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="221" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
-      <c r="A72" s="220" t="s">
-        <v>411</v>
+    <row r="72" spans="1:10" s="216" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A72" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B72" s="183" t="s">
         <v>151</v>
@@ -5489,46 +5547,46 @@
       <c r="I72" s="186" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="206" t="s">
+      <c r="J72" s="201" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A73" s="218" t="s">
-        <v>447</v>
-      </c>
-      <c r="B73" s="200"/>
-      <c r="C73" s="201" t="s">
+    <row r="73" spans="1:10" s="216" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
+      <c r="A73" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B73" s="330"/>
+      <c r="C73" s="331" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="201" t="s">
-        <v>448</v>
-      </c>
-      <c r="E73" s="202">
+      <c r="D73" s="331" t="s">
+        <v>444</v>
+      </c>
+      <c r="E73" s="332">
         <v>2709</v>
       </c>
-      <c r="F73" s="201" t="s">
+      <c r="F73" s="331" t="s">
         <v>158</v>
       </c>
-      <c r="G73" s="203">
+      <c r="G73" s="333">
         <v>0.3</v>
       </c>
-      <c r="H73" s="191">
+      <c r="H73" s="211">
         <f t="shared" si="3"/>
         <v>812.69999999999993</v>
       </c>
-      <c r="I73" s="204" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="193" t="s">
+      <c r="I73" s="334" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="239" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="221" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A74" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B74" s="247" t="s">
+    <row r="74" spans="1:10" s="216" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
+      <c r="A74" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="240" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -5544,142 +5602,142 @@
       <c r="G74" s="185">
         <v>5.98</v>
       </c>
-      <c r="H74" s="248">
+      <c r="H74" s="241">
         <f t="shared" si="3"/>
         <v>687.7</v>
       </c>
-      <c r="I74" s="248"/>
-      <c r="J74" s="249" t="s">
+      <c r="I74" s="241"/>
+      <c r="J74" s="242" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A75" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B75" s="212" t="s">
+    <row r="75" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A75" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B75" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="213" t="s">
+      <c r="C75" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="213" t="s">
+      <c r="D75" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="214">
+      <c r="E75" s="209">
         <v>550</v>
       </c>
-      <c r="F75" s="213" t="s">
+      <c r="F75" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="215"/>
-      <c r="H75" s="216">
+      <c r="G75" s="210"/>
+      <c r="H75" s="211">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="307" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="308"/>
-    </row>
-    <row r="76" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A76" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B76" s="212" t="s">
+      <c r="I75" s="300" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="301"/>
+    </row>
+    <row r="76" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A76" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="207" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="213" t="s">
+      <c r="C76" s="208" t="s">
         <v>352</v>
       </c>
-      <c r="D76" s="213" t="s">
+      <c r="D76" s="208" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="214">
+      <c r="E76" s="209">
         <v>63</v>
       </c>
-      <c r="F76" s="213" t="s">
+      <c r="F76" s="208" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="215">
+      <c r="G76" s="210">
         <v>0.24</v>
       </c>
-      <c r="H76" s="216">
+      <c r="H76" s="211">
         <f t="shared" si="3"/>
         <v>15.12</v>
       </c>
-      <c r="I76" s="307" t="s">
+      <c r="I76" s="300" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="308" t="s">
+      <c r="J76" s="301" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="302" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A77" s="295"/>
-      <c r="B77" s="296" t="s">
+    <row r="77" spans="1:10" s="295" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A77" s="288"/>
+      <c r="B77" s="289" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="297" t="s">
+      <c r="C77" s="290" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="297" t="s">
+      <c r="D77" s="290" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="298">
+      <c r="E77" s="291">
         <v>115</v>
       </c>
-      <c r="F77" s="297" t="s">
+      <c r="F77" s="290" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="299"/>
-      <c r="H77" s="300">
+      <c r="G77" s="292"/>
+      <c r="H77" s="293">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="300" t="s">
+      <c r="I77" s="293" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="301" t="s">
+      <c r="J77" s="294" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="221" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A78" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B78" s="212" t="s">
+    <row r="78" spans="1:10" s="216" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A78" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B78" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="213" t="s">
+      <c r="C78" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="213" t="s">
+      <c r="D78" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="214">
+      <c r="E78" s="209">
         <v>3</v>
       </c>
-      <c r="F78" s="213" t="s">
+      <c r="F78" s="208" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="215">
+      <c r="G78" s="210">
         <v>6.5</v>
       </c>
-      <c r="H78" s="216">
+      <c r="H78" s="211">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="I78" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="246" t="s">
+      <c r="I78" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="239" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="221" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A79" s="220" t="s">
-        <v>429</v>
+    <row r="79" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A79" s="215" t="s">
+        <v>428</v>
       </c>
       <c r="B79" s="183" t="s">
         <v>161</v>
@@ -5704,98 +5762,98 @@
         <v>220.21</v>
       </c>
       <c r="I79" s="186"/>
-      <c r="J79" s="206" t="s">
+      <c r="J79" s="201" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A80" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B80" s="212" t="s">
+    <row r="80" spans="1:10" s="344" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A80" s="296" t="s">
+        <v>447</v>
+      </c>
+      <c r="B80" s="338" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="213" t="s">
+      <c r="C80" s="339" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="213" t="s">
+      <c r="D80" s="339" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="214">
+      <c r="E80" s="340">
         <v>14</v>
       </c>
-      <c r="F80" s="213">
+      <c r="F80" s="339">
         <v>1</v>
       </c>
-      <c r="G80" s="215">
+      <c r="G80" s="341">
         <v>2.52</v>
       </c>
-      <c r="H80" s="216">
+      <c r="H80" s="342">
         <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
-      <c r="I80" s="216"/>
-      <c r="J80" s="246" t="s">
+      <c r="I80" s="342"/>
+      <c r="J80" s="343" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="318" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A81" s="311" t="s">
-        <v>440</v>
-      </c>
-      <c r="B81" s="312"/>
-      <c r="C81" s="313" t="s">
+    <row r="81" spans="1:10" s="311" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A81" s="304" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" s="305"/>
+      <c r="C81" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="313" t="s">
+      <c r="D81" s="306" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="314"/>
-      <c r="F81" s="313"/>
-      <c r="G81" s="315"/>
-      <c r="H81" s="316">
+      <c r="E81" s="307"/>
+      <c r="F81" s="306"/>
+      <c r="G81" s="308"/>
+      <c r="H81" s="309">
         <f>E81*G81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="316" t="s">
+      <c r="I81" s="309" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="317"/>
-    </row>
-    <row r="82" spans="1:10" s="221" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A82" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B82" s="212" t="s">
+      <c r="J81" s="310"/>
+    </row>
+    <row r="82" spans="1:10" s="216" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A82" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B82" s="207" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="213" t="s">
+      <c r="C82" s="208" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="213" t="s">
+      <c r="D82" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="214">
+      <c r="E82" s="209">
         <v>3</v>
       </c>
-      <c r="F82" s="213" t="s">
+      <c r="F82" s="208" t="s">
         <v>366</v>
       </c>
-      <c r="G82" s="215">
+      <c r="G82" s="210">
         <v>1.49</v>
       </c>
-      <c r="H82" s="216">
+      <c r="H82" s="211">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
-      <c r="I82" s="216"/>
-      <c r="J82" s="246" t="s">
+      <c r="I82" s="211"/>
+      <c r="J82" s="239" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="221" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A83" s="218" t="s">
-        <v>425</v>
+    <row r="83" spans="1:10" s="216" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A83" s="213" t="s">
+        <v>424</v>
       </c>
       <c r="B83" s="183" t="s">
         <v>361</v>
@@ -5822,43 +5880,43 @@
       <c r="I83" s="186" t="s">
         <v>360</v>
       </c>
-      <c r="J83" s="206" t="s">
+      <c r="J83" s="201" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A84" s="306" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" s="188" t="s">
+    <row r="84" spans="1:10" s="329" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A84" s="322" t="s">
+        <v>410</v>
+      </c>
+      <c r="B84" s="323" t="s">
         <v>392</v>
       </c>
-      <c r="C84" s="151" t="s">
+      <c r="C84" s="324" t="s">
         <v>391</v>
       </c>
-      <c r="D84" s="151" t="s">
+      <c r="D84" s="324" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="189">
+      <c r="E84" s="325">
         <v>11</v>
       </c>
-      <c r="F84" s="151" t="s">
+      <c r="F84" s="324" t="s">
         <v>390</v>
       </c>
-      <c r="G84" s="190">
+      <c r="G84" s="326">
         <v>7.91</v>
       </c>
-      <c r="H84" s="191">
+      <c r="H84" s="327">
         <f t="shared" si="3"/>
         <v>87.01</v>
       </c>
-      <c r="I84" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="193"/>
+      <c r="I84" s="327" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="328"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="200" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5892,8 +5950,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A88" s="218" t="s">
-        <v>430</v>
+      <c r="A88" s="299" t="s">
+        <v>429</v>
       </c>
       <c r="B88" s="188"/>
       <c r="C88" s="150" t="s">
@@ -5913,11 +5971,12 @@
         <v>780</v>
       </c>
       <c r="I88" s="181"/>
-      <c r="J88" s="224" t="s">
+      <c r="J88" s="219" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A89" s="299"/>
       <c r="B89" s="188"/>
       <c r="C89" s="150" t="s">
         <v>176</v>
@@ -5936,11 +5995,12 @@
         <v>780</v>
       </c>
       <c r="I89" s="181"/>
-      <c r="J89" s="224" t="s">
+      <c r="J89" s="219" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A90" s="299"/>
       <c r="B90" s="188"/>
       <c r="C90" s="150" t="s">
         <v>177</v>
@@ -5963,37 +6023,37 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="221" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A91" s="226" t="s">
-        <v>431</v>
-      </c>
-      <c r="B91" s="212" t="s">
+    <row r="91" spans="1:10" s="216" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A91" s="221" t="s">
+        <v>430</v>
+      </c>
+      <c r="B91" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="213" t="s">
+      <c r="C91" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="213" t="s">
+      <c r="D91" s="208" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="214">
+      <c r="E91" s="209">
         <v>600</v>
       </c>
-      <c r="F91" s="213"/>
-      <c r="G91" s="215">
+      <c r="F91" s="208"/>
+      <c r="G91" s="210">
         <v>0.59</v>
       </c>
-      <c r="H91" s="216">
+      <c r="H91" s="211">
         <v>354</v>
       </c>
-      <c r="I91" s="216"/>
-      <c r="J91" s="246" t="s">
+      <c r="I91" s="211"/>
+      <c r="J91" s="239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="221" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A92" s="220" t="s">
-        <v>434</v>
+    <row r="92" spans="1:10" s="216" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A92" s="215" t="s">
+        <v>433</v>
       </c>
       <c r="B92" s="183"/>
       <c r="C92" s="74" t="s">
@@ -6018,13 +6078,13 @@
       <c r="I92" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J92" s="206" t="s">
+      <c r="J92" s="201" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A93" s="220" t="s">
-        <v>426</v>
+    <row r="93" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A93" s="215" t="s">
+        <v>425</v>
       </c>
       <c r="B93" s="183" t="s">
         <v>244</v>
@@ -6051,75 +6111,75 @@
       <c r="I93" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J93" s="206" t="s">
+      <c r="J93" s="201" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="221" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A94" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B94" s="212">
+    <row r="94" spans="1:10" s="216" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A94" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B94" s="207">
         <v>1601</v>
       </c>
-      <c r="C94" s="213" t="s">
+      <c r="C94" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="213" t="s">
+      <c r="D94" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="214">
+      <c r="E94" s="209">
         <v>2800</v>
       </c>
-      <c r="F94" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="215">
+      <c r="F94" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="210">
         <v>0.2</v>
       </c>
-      <c r="H94" s="216">
+      <c r="H94" s="211">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="I94" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="246" t="s">
+      <c r="I94" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="239" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="221" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A95" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B95" s="212" t="s">
+    <row r="95" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A95" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="207" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="213" t="s">
+      <c r="C95" s="208" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="213" t="s">
+      <c r="D95" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="214">
+      <c r="E95" s="209">
         <v>600</v>
       </c>
-      <c r="F95" s="213"/>
-      <c r="G95" s="215">
+      <c r="F95" s="208"/>
+      <c r="G95" s="210">
         <v>0.64</v>
       </c>
-      <c r="H95" s="216">
+      <c r="H95" s="211">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="I95" s="216"/>
-      <c r="J95" s="246" t="s">
+      <c r="I95" s="211"/>
+      <c r="J95" s="239" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="221" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A96" s="220" t="s">
-        <v>434</v>
+    <row r="96" spans="1:10" s="216" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A96" s="215" t="s">
+        <v>433</v>
       </c>
       <c r="B96" s="183">
         <v>154953</v>
@@ -6142,13 +6202,13 @@
         <v>150</v>
       </c>
       <c r="I96" s="186"/>
-      <c r="J96" s="206" t="s">
+      <c r="J96" s="201" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="221" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A97" s="306" t="s">
-        <v>439</v>
+    <row r="97" spans="1:11" s="216" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A97" s="299" t="s">
+        <v>438</v>
       </c>
       <c r="B97" s="183">
         <v>659250</v>
@@ -6173,75 +6233,75 @@
         <v>300</v>
       </c>
       <c r="I97" s="186"/>
-      <c r="J97" s="206" t="s">
+      <c r="J97" s="201" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="221" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A98" s="220" t="s">
-        <v>434</v>
-      </c>
-      <c r="B98" s="212" t="s">
+    <row r="98" spans="1:11" s="216" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A98" s="215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" s="207" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="213" t="s">
+      <c r="C98" s="208" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="213" t="s">
+      <c r="D98" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="214">
+      <c r="E98" s="209">
         <v>1200</v>
       </c>
-      <c r="F98" s="213"/>
-      <c r="G98" s="215">
+      <c r="F98" s="208"/>
+      <c r="G98" s="210">
         <v>0.3</v>
       </c>
-      <c r="H98" s="216">
+      <c r="H98" s="211">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="I98" s="216"/>
-      <c r="J98" s="246" t="s">
+      <c r="I98" s="211"/>
+      <c r="J98" s="239" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="221" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A99" s="220" t="s">
-        <v>434</v>
-      </c>
-      <c r="B99" s="212" t="s">
+    <row r="99" spans="1:11" s="216" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A99" s="215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" s="207" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="213" t="s">
+      <c r="C99" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="213" t="s">
+      <c r="D99" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="214">
+      <c r="E99" s="209">
         <v>600</v>
       </c>
-      <c r="F99" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="215">
+      <c r="F99" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="210">
         <v>0.59</v>
       </c>
-      <c r="H99" s="216">
+      <c r="H99" s="211">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I99" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="246" t="s">
+      <c r="I99" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="239" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="221" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A100" s="220" t="s">
-        <v>411</v>
+    <row r="100" spans="1:11" s="216" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A100" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B100" s="183">
         <v>106619</v>
@@ -6268,13 +6328,13 @@
       <c r="I100" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J100" s="206" t="s">
+      <c r="J100" s="201" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="221" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
-      <c r="A101" s="220" t="s">
-        <v>411</v>
+    <row r="101" spans="1:11" s="216" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
+      <c r="A101" s="215" t="s">
+        <v>410</v>
       </c>
       <c r="B101" s="183" t="s">
         <v>2</v>
@@ -6301,12 +6361,12 @@
       <c r="I101" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="J101" s="206" t="s">
+      <c r="J101" s="201" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="219" t="s">
+      <c r="B103" s="214" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6338,203 +6398,203 @@
       <c r="J104" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="235" t="s">
+      <c r="K104" s="230" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="221" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
-      <c r="A105" s="220"/>
-      <c r="B105" s="212" t="s">
+    <row r="105" spans="1:11" s="216" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
+      <c r="A105" s="215"/>
+      <c r="B105" s="207" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="213" t="s">
+      <c r="C105" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="213" t="s">
+      <c r="D105" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="214">
-        <v>2</v>
-      </c>
-      <c r="F105" s="213" t="s">
+      <c r="E105" s="209">
+        <v>2</v>
+      </c>
+      <c r="F105" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="215">
+      <c r="G105" s="210">
         <v>169.99</v>
       </c>
-      <c r="H105" s="216">
+      <c r="H105" s="211">
         <f t="shared" ref="H105:H110" si="5">E105*G105</f>
         <v>339.98</v>
       </c>
-      <c r="I105" s="289"/>
-      <c r="J105" s="287"/>
-      <c r="K105" s="288"/>
-    </row>
-    <row r="106" spans="1:11" s="221" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A106" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B106" s="212" t="s">
+      <c r="I105" s="282"/>
+      <c r="J105" s="280"/>
+      <c r="K105" s="281"/>
+    </row>
+    <row r="106" spans="1:11" s="216" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A106" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="213" t="s">
+      <c r="C106" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="213" t="s">
+      <c r="D106" s="208" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="214">
+      <c r="E106" s="209">
         <v>6</v>
       </c>
-      <c r="F106" s="213" t="s">
+      <c r="F106" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="215">
+      <c r="G106" s="210">
         <v>11</v>
       </c>
-      <c r="H106" s="216">
+      <c r="H106" s="211">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I106" s="216"/>
-      <c r="J106" s="287"/>
-      <c r="K106" s="288"/>
-    </row>
-    <row r="107" spans="1:11" s="286" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
-      <c r="A107" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B107" s="282">
+      <c r="I106" s="211"/>
+      <c r="J106" s="280"/>
+      <c r="K106" s="281"/>
+    </row>
+    <row r="107" spans="1:11" s="279" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
+      <c r="A107" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B107" s="275">
         <v>803920103314</v>
       </c>
-      <c r="C107" s="283" t="s">
+      <c r="C107" s="276" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="208" t="s">
+      <c r="D107" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="209">
+      <c r="E107" s="204">
         <v>3</v>
       </c>
-      <c r="F107" s="209" t="s">
+      <c r="F107" s="204" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="281">
+      <c r="G107" s="274">
         <v>16.47</v>
       </c>
-      <c r="H107" s="281">
+      <c r="H107" s="274">
         <f>SUM(E107*G107)</f>
         <v>49.41</v>
       </c>
-      <c r="I107" s="210" t="s">
+      <c r="I107" s="205" t="s">
         <v>333</v>
       </c>
-      <c r="J107" s="284" t="s">
+      <c r="J107" s="277" t="s">
         <v>334</v>
       </c>
-      <c r="K107" s="285"/>
-    </row>
-    <row r="108" spans="1:11" ht="63" thickBot="1">
-      <c r="A108" s="218" t="s">
-        <v>441</v>
-      </c>
-      <c r="B108" s="188"/>
-      <c r="C108" s="151" t="s">
+      <c r="K107" s="278"/>
+    </row>
+    <row r="108" spans="1:11" s="216" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A108" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="207"/>
+      <c r="C108" s="208" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="151" t="s">
+      <c r="D108" s="208" t="s">
         <v>342</v>
       </c>
-      <c r="E108" s="189">
+      <c r="E108" s="209">
         <v>550</v>
       </c>
-      <c r="F108" s="151" t="s">
+      <c r="F108" s="208" t="s">
         <v>343</v>
       </c>
-      <c r="G108" s="190">
+      <c r="G108" s="210">
         <v>12.11</v>
       </c>
-      <c r="H108" s="191">
+      <c r="H108" s="211">
         <f t="shared" si="5"/>
         <v>6660.5</v>
       </c>
-      <c r="I108" s="191" t="s">
+      <c r="I108" s="211" t="s">
         <v>344</v>
       </c>
-      <c r="J108" s="236" t="s">
+      <c r="J108" s="280" t="s">
         <v>345</v>
       </c>
-      <c r="K108" s="237" t="s">
+      <c r="K108" s="281" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="221" customFormat="1" ht="87" thickBot="1">
-      <c r="A109" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B109" s="212" t="s">
+    <row r="109" spans="1:11" s="216" customFormat="1" ht="87" thickBot="1">
+      <c r="A109" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B109" s="207" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="213" t="s">
+      <c r="C109" s="208" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="213" t="s">
+      <c r="D109" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="214">
+      <c r="E109" s="209">
         <v>11</v>
       </c>
-      <c r="F109" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="215">
+      <c r="F109" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="210">
         <v>3.79</v>
       </c>
-      <c r="H109" s="216">
+      <c r="H109" s="211">
         <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
-      <c r="I109" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="287" t="s">
+      <c r="I109" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="280" t="s">
         <v>201</v>
       </c>
-      <c r="K109" s="288"/>
-    </row>
-    <row r="110" spans="1:11" s="221" customFormat="1" ht="58.2" thickBot="1">
-      <c r="A110" s="220" t="s">
-        <v>411</v>
-      </c>
-      <c r="B110" s="212" t="s">
+      <c r="K109" s="281"/>
+    </row>
+    <row r="110" spans="1:11" s="216" customFormat="1" ht="58.2" thickBot="1">
+      <c r="A110" s="215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B110" s="207" t="s">
         <v>379</v>
       </c>
-      <c r="C110" s="213" t="s">
+      <c r="C110" s="208" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="213" t="s">
+      <c r="D110" s="208" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="214">
+      <c r="E110" s="209">
         <v>550</v>
       </c>
-      <c r="F110" s="213" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="215">
+      <c r="F110" s="208" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="210">
         <v>0.54</v>
       </c>
-      <c r="H110" s="216">
+      <c r="H110" s="211">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
-      <c r="I110" s="216" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="287" t="s">
+      <c r="I110" s="211" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="280" t="s">
         <v>378</v>
       </c>
-      <c r="K110" s="288"/>
+      <c r="K110" s="281"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6619,17 +6679,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
@@ -7289,10 +7349,10 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="321" t="s">
+      <c r="F25" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="322"/>
+      <c r="G25" s="315"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7366,17 +7426,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -8060,10 +8120,10 @@
     <row r="27" spans="1:56" ht="21.6" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="324" t="s">
+      <c r="F27" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="325"/>
+      <c r="G27" s="318"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -8127,17 +8187,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
@@ -8932,10 +8992,10 @@
     <row r="30" spans="1:10" ht="21.6" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="324" t="s">
+      <c r="F30" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="325"/>
+      <c r="G30" s="318"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -9010,17 +9070,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="24.6">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:90" ht="24.6">
@@ -10033,10 +10093,10 @@
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="327" t="s">
+      <c r="F28" s="320" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="328"/>
+      <c r="G28" s="321"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -10088,17 +10148,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -10652,10 +10712,10 @@
     <row r="23" spans="1:10" ht="21.6" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="324" t="s">
+      <c r="F23" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="325"/>
+      <c r="G23" s="318"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10705,101 +10765,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="319" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="244"/>
     </row>
     <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="245" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="253"/>
+      <c r="C2" s="246"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="251"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="244"/>
     </row>
     <row r="3" spans="1:11" ht="24.6">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="245" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="253"/>
+      <c r="C3" s="246"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="251"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="245" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="253"/>
+      <c r="C4" s="246"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="255"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="251"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="244"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="258" t="s">
+      <c r="C5" s="251" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="258" t="s">
+      <c r="D5" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="257" t="s">
+      <c r="E5" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="257" t="s">
+      <c r="F5" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="257" t="s">
+      <c r="G5" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="259" t="s">
+      <c r="H5" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="257" t="s">
+      <c r="I5" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="259" t="s">
+      <c r="J5" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="260" t="s">
+      <c r="K5" s="253" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10827,9 +10887,9 @@
         <f t="shared" ref="H6:H16" si="0">E6*G6</f>
         <v>339.98</v>
       </c>
-      <c r="I6" s="278"/>
-      <c r="J6" s="273"/>
-      <c r="K6" s="274"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="267"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
@@ -10856,10 +10916,10 @@
         <v>66</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="273"/>
-      <c r="K7" s="274"/>
-    </row>
-    <row r="8" spans="1:11" s="276" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="J7" s="266"/>
+      <c r="K7" s="267"/>
+    </row>
+    <row r="8" spans="1:11" s="269" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A8" s="79">
         <v>803920103314</v>
       </c>
@@ -10889,37 +10949,37 @@
       <c r="J8" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="275"/>
+      <c r="K8" s="268"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A9" s="261"/>
-      <c r="B9" s="268" t="s">
+      <c r="A9" s="254"/>
+      <c r="B9" s="261" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="261" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266">
+      <c r="D9" s="259"/>
+      <c r="E9" s="259">
         <v>550</v>
       </c>
-      <c r="F9" s="268" t="s">
+      <c r="F9" s="261" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="262">
+      <c r="G9" s="255">
         <v>12.11</v>
       </c>
-      <c r="H9" s="263">
+      <c r="H9" s="256">
         <f t="shared" si="0"/>
         <v>6660.5</v>
       </c>
-      <c r="I9" s="267" t="s">
+      <c r="I9" s="260" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="264" t="s">
+      <c r="J9" s="257" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="265" t="s">
+      <c r="K9" s="258" t="s">
         <v>346</v>
       </c>
     </row>
@@ -10950,190 +11010,190 @@
       <c r="I10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="277" t="s">
+      <c r="J10" s="270" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="274"/>
+      <c r="K10" s="267"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A11" s="261" t="s">
+      <c r="A11" s="254" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="268" t="s">
+      <c r="B11" s="261" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="261" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266">
+      <c r="D11" s="259"/>
+      <c r="E11" s="259">
         <v>550</v>
       </c>
-      <c r="F11" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="262">
+      <c r="F11" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="255">
         <v>0.54</v>
       </c>
-      <c r="H11" s="263">
+      <c r="H11" s="256">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="I11" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="269" t="s">
+      <c r="I11" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="262" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="265"/>
+      <c r="K11" s="258"/>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A12" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="262"/>
-      <c r="H12" s="263">
+      <c r="A12" s="254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="259"/>
+      <c r="E12" s="259"/>
+      <c r="F12" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="255"/>
+      <c r="H12" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="269"/>
-      <c r="K12" s="265"/>
+      <c r="I12" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="262"/>
+      <c r="K12" s="258"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A13" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="262"/>
-      <c r="H13" s="263">
+      <c r="A13" s="254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="255"/>
+      <c r="H13" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="269"/>
-      <c r="K13" s="265"/>
+      <c r="I13" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="262"/>
+      <c r="K13" s="258"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A14" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="262"/>
-      <c r="H14" s="263">
+      <c r="A14" s="254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="255"/>
+      <c r="H14" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="269"/>
-      <c r="K14" s="265"/>
+      <c r="I14" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="262"/>
+      <c r="K14" s="258"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A15" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="262"/>
-      <c r="H15" s="263">
+      <c r="A15" s="254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="259"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="255"/>
+      <c r="H15" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="269"/>
-      <c r="K15" s="265"/>
+      <c r="I15" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="262"/>
+      <c r="K15" s="258"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A16" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="268" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="262"/>
-      <c r="H16" s="263">
+      <c r="A16" s="254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="261" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="255"/>
+      <c r="H16" s="256">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="267" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="269"/>
-      <c r="K16" s="265"/>
+      <c r="I16" s="260" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="262"/>
+      <c r="K16" s="258"/>
     </row>
     <row r="17" spans="1:11" ht="21.6" thickBot="1">
-      <c r="A17" s="270"/>
-      <c r="B17" s="251"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="324" t="s">
+      <c r="A17" s="263"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="325"/>
+      <c r="G17" s="318"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="272"/>
-      <c r="K17" s="251"/>
+      <c r="J17" s="265"/>
+      <c r="K17" s="244"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">

--- a/SMC order 8-14-18.xlsx
+++ b/SMC order 8-14-18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15096" windowHeight="5796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="CONSOLIDATED FOR MARK" sheetId="10" r:id="rId1"/>
@@ -1277,9 +1277,6 @@
     <t>ord 104</t>
   </si>
   <si>
-    <t>OUT OF STOCK</t>
-  </si>
-  <si>
     <t># to Order</t>
   </si>
   <si>
@@ -1378,9 +1375,6 @@
   </si>
   <si>
     <t>arrived</t>
-  </si>
-  <si>
-    <t>69 ord, various vendors</t>
   </si>
   <si>
     <t>delivered</t>
@@ -1476,10 +1470,16 @@
     <t>?</t>
   </si>
   <si>
-    <t>DOUBLE THIS ORDER! ord 16oz size</t>
-  </si>
-  <si>
     <t>WHERE WAS THIS DELIVERED? GET MORE</t>
+  </si>
+  <si>
+    <t>BO 110 ord, various vendors</t>
+  </si>
+  <si>
+    <t>Ordered 220 from Amz &amp; Wmt</t>
+  </si>
+  <si>
+    <t>IN HOUSE</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1493,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,14 +1865,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2213,7 +2205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2706,9 +2698,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2851,9 +2840,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3040,9 +3026,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3058,31 +3041,67 @@
     <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3112,73 +3131,13 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3493,30 +3452,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K53:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17" style="213"/>
-    <col min="2" max="2" width="19.88671875" style="214" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17" style="214"/>
-    <col min="5" max="8" width="17" style="214" customWidth="1"/>
-    <col min="9" max="9" width="40.33203125" style="214" customWidth="1"/>
-    <col min="10" max="16384" width="17" style="214"/>
+    <col min="1" max="1" width="17" style="212"/>
+    <col min="2" max="2" width="19.88671875" style="213" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="213"/>
+    <col min="5" max="8" width="17" style="213" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" style="213" customWidth="1"/>
+    <col min="10" max="16384" width="17" style="213"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="212" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="214" t="s">
+      <c r="B1" s="213" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="213" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3531,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F3" s="152" t="s">
         <v>10</v>
@@ -3579,15 +3538,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="216" customFormat="1" ht="35.4" customHeight="1">
-      <c r="A5" s="215" t="s">
-        <v>410</v>
+    <row r="5" spans="1:10" s="215" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A5" s="214" t="s">
+        <v>409</v>
       </c>
       <c r="B5" s="159" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="159" t="s">
         <v>121</v>
@@ -3612,15 +3571,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="216" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A6" s="215" t="s">
-        <v>409</v>
+    <row r="6" spans="1:10" s="215" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A6" s="214" t="s">
+        <v>408</v>
       </c>
       <c r="B6" s="159">
         <v>2009</v>
       </c>
       <c r="C6" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D6" s="159" t="s">
         <v>26</v>
@@ -3646,8 +3605,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="62.4">
-      <c r="A7" s="213" t="s">
-        <v>413</v>
+      <c r="A7" s="212" t="s">
+        <v>412</v>
       </c>
       <c r="B7" s="163" t="s">
         <v>22</v>
@@ -3677,8 +3636,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="216" customFormat="1" ht="51" customHeight="1">
-      <c r="A8" s="215" t="s">
+    <row r="8" spans="1:10" s="215" customFormat="1" ht="51" customHeight="1">
+      <c r="A8" s="214" t="s">
         <v>406</v>
       </c>
       <c r="B8" s="167" t="s">
@@ -3710,9 +3669,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="216" customFormat="1" ht="67.2" customHeight="1">
-      <c r="A9" s="215" t="s">
-        <v>410</v>
+    <row r="9" spans="1:10" s="215" customFormat="1" ht="67.2" customHeight="1">
+      <c r="A9" s="214" t="s">
+        <v>409</v>
       </c>
       <c r="B9" s="159" t="s">
         <v>288</v>
@@ -3739,44 +3698,44 @@
       <c r="I9" s="161" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="202" t="s">
+      <c r="J9" s="201" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="216" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A10" s="215"/>
-      <c r="B10" s="272">
+    <row r="10" spans="1:10" s="215" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A10" s="214"/>
+      <c r="B10" s="270">
         <v>400011857257</v>
       </c>
-      <c r="C10" s="203" t="s">
+      <c r="C10" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="203" t="s">
+      <c r="D10" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="204">
+      <c r="E10" s="203">
         <v>67</v>
       </c>
-      <c r="F10" s="204" t="s">
+      <c r="F10" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="203">
+      <c r="G10" s="202">
         <v>8.19</v>
       </c>
-      <c r="H10" s="203">
+      <c r="H10" s="202">
         <f>SUM(E10*G10)</f>
         <v>548.73</v>
       </c>
-      <c r="I10" s="205" t="s">
+      <c r="I10" s="204" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="273" t="s">
+      <c r="J10" s="271" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="216" customFormat="1" ht="102.6" customHeight="1">
-      <c r="A11" s="296" t="s">
-        <v>426</v>
+    <row r="11" spans="1:10" s="215" customFormat="1" ht="102.6" customHeight="1">
+      <c r="A11" s="294" t="s">
+        <v>425</v>
       </c>
       <c r="B11" s="159" t="s">
         <v>120</v>
@@ -3785,7 +3744,7 @@
         <v>122</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E11" s="160">
         <v>11</v>
@@ -3796,7 +3755,7 @@
       <c r="G11" s="172">
         <v>10.99</v>
       </c>
-      <c r="H11" s="286">
+      <c r="H11" s="284">
         <f>SUM(E11*G11)</f>
         <v>120.89</v>
       </c>
@@ -3807,72 +3766,72 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="216" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A12" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B12" s="203" t="s">
+    <row r="12" spans="1:10" s="215" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A12" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="203" t="s">
+      <c r="C12" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="203" t="s">
+      <c r="D12" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="204">
+      <c r="E12" s="203">
         <v>10</v>
       </c>
-      <c r="F12" s="203" t="s">
+      <c r="F12" s="202" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="205">
+      <c r="G12" s="204">
         <v>4.99</v>
       </c>
-      <c r="H12" s="205">
+      <c r="H12" s="204">
         <f>E12*G12</f>
         <v>49.900000000000006</v>
       </c>
-      <c r="I12" s="205" t="s">
+      <c r="I12" s="204" t="s">
         <v>298</v>
       </c>
-      <c r="J12" s="206" t="s">
+      <c r="J12" s="205" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="216" customFormat="1" ht="137.4" customHeight="1">
-      <c r="A13" s="215"/>
-      <c r="B13" s="272">
+    <row r="13" spans="1:10" s="215" customFormat="1" ht="137.4" customHeight="1">
+      <c r="A13" s="214"/>
+      <c r="B13" s="270">
         <v>10074506116197</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="202" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="203" t="s">
+      <c r="D13" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="204">
+      <c r="E13" s="203">
         <v>0</v>
       </c>
-      <c r="F13" s="204" t="s">
+      <c r="F13" s="203" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="203">
+      <c r="G13" s="202">
         <v>0</v>
       </c>
-      <c r="H13" s="274">
+      <c r="H13" s="272">
         <v>0</v>
       </c>
       <c r="I13" s="165" t="s">
         <v>301</v>
       </c>
-      <c r="J13" s="206" t="s">
+      <c r="J13" s="205" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="216" customFormat="1" ht="45.6" customHeight="1">
-      <c r="A14" s="215" t="s">
-        <v>433</v>
+    <row r="14" spans="1:10" s="215" customFormat="1" ht="45.6" customHeight="1">
+      <c r="A14" s="214" t="s">
+        <v>431</v>
       </c>
       <c r="B14" s="159" t="s">
         <v>133</v>
@@ -3903,8 +3862,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="216" customFormat="1" ht="74.400000000000006" customHeight="1">
-      <c r="A15" s="215"/>
+    <row r="15" spans="1:10" s="215" customFormat="1" ht="74.400000000000006" customHeight="1">
+      <c r="A15" s="214"/>
       <c r="B15" s="159" t="s">
         <v>305</v>
       </c>
@@ -3934,9 +3893,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="216" customFormat="1" ht="81.599999999999994" customHeight="1">
-      <c r="A16" s="215" t="s">
-        <v>416</v>
+    <row r="16" spans="1:10" s="215" customFormat="1" ht="81.599999999999994" customHeight="1">
+      <c r="A16" s="214" t="s">
+        <v>415</v>
       </c>
       <c r="B16" s="159" t="s">
         <v>310</v>
@@ -3967,9 +3926,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="216" customFormat="1" ht="77.400000000000006" customHeight="1">
-      <c r="A17" s="215" t="s">
-        <v>410</v>
+    <row r="17" spans="1:10" s="215" customFormat="1" ht="77.400000000000006" customHeight="1">
+      <c r="A17" s="214" t="s">
+        <v>409</v>
       </c>
       <c r="B17" s="159" t="s">
         <v>314</v>
@@ -4000,42 +3959,42 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="216" customFormat="1" ht="56.4" customHeight="1">
-      <c r="A18" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B18" s="203" t="s">
+    <row r="18" spans="1:10" s="215" customFormat="1" ht="56.4" customHeight="1">
+      <c r="A18" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="202" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="202" t="s">
         <v>319</v>
       </c>
-      <c r="D18" s="203" t="s">
+      <c r="D18" s="202" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="203">
+      <c r="E18" s="202">
         <v>810</v>
       </c>
-      <c r="F18" s="203" t="s">
+      <c r="F18" s="202" t="s">
         <v>321</v>
       </c>
-      <c r="G18" s="204">
+      <c r="G18" s="203">
         <v>0.33</v>
       </c>
-      <c r="H18" s="203">
+      <c r="H18" s="202">
         <f t="shared" si="0"/>
         <v>267.3</v>
       </c>
-      <c r="I18" s="203" t="s">
+      <c r="I18" s="202" t="s">
         <v>322</v>
       </c>
-      <c r="J18" s="232" t="s">
+      <c r="J18" s="230" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="216" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A19" s="215" t="s">
-        <v>431</v>
+    <row r="19" spans="1:10" s="215" customFormat="1" ht="31.8" customHeight="1">
+      <c r="A19" s="214" t="s">
+        <v>430</v>
       </c>
       <c r="B19" s="159" t="s">
         <v>324</v>
@@ -4066,19 +4025,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="216" customFormat="1" ht="46.8" customHeight="1">
-      <c r="A20" s="215" t="s">
-        <v>410</v>
+    <row r="20" spans="1:10" s="215" customFormat="1" ht="46.8" customHeight="1">
+      <c r="A20" s="214" t="s">
+        <v>409</v>
       </c>
       <c r="B20" s="159"/>
       <c r="C20" s="159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D20" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="285" t="s">
-        <v>422</v>
+      <c r="E20" s="283" t="s">
+        <v>421</v>
       </c>
       <c r="F20" s="160" t="s">
         <v>329</v>
@@ -4097,46 +4056,46 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="216" customFormat="1" ht="59.4" customHeight="1">
-      <c r="A21" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B21" s="233" t="s">
+    <row r="21" spans="1:10" s="215" customFormat="1" ht="59.4" customHeight="1">
+      <c r="A21" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="231" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="234" t="s">
+      <c r="C21" s="232" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="234" t="s">
+      <c r="D21" s="232" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="235">
+      <c r="E21" s="233">
         <v>15</v>
       </c>
-      <c r="F21" s="235" t="s">
+      <c r="F21" s="233" t="s">
         <v>337</v>
       </c>
-      <c r="G21" s="236">
+      <c r="G21" s="234">
         <v>51</v>
       </c>
-      <c r="H21" s="236">
+      <c r="H21" s="234">
         <f t="shared" si="0"/>
         <v>765</v>
       </c>
-      <c r="I21" s="237" t="s">
+      <c r="I21" s="235" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="238" t="s">
+      <c r="J21" s="236" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="214" t="s">
+      <c r="B22" s="213" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A23" s="215" t="s">
+      <c r="A23" s="214" t="s">
         <v>404</v>
       </c>
       <c r="B23" s="175" t="s">
@@ -4167,11 +4126,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="216" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B24" s="183" t="s">
+    <row r="24" spans="1:10" s="215" customFormat="1" ht="72" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A24" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" s="182" t="s">
         <v>185</v>
       </c>
       <c r="C24" s="74" t="s">
@@ -4180,60 +4139,60 @@
       <c r="D24" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="184">
+      <c r="E24" s="183">
         <v>80</v>
       </c>
       <c r="F24" s="74">
         <v>8</v>
       </c>
-      <c r="G24" s="185">
+      <c r="G24" s="184">
         <v>2.99</v>
       </c>
-      <c r="H24" s="186">
+      <c r="H24" s="185">
         <f t="shared" ref="H24:H41" si="1">E24*G24</f>
         <v>239.20000000000002</v>
       </c>
-      <c r="I24" s="199"/>
-      <c r="J24" s="187" t="s">
+      <c r="I24" s="198"/>
+      <c r="J24" s="186" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="216" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
-      <c r="A25" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B25" s="183" t="s">
+    <row r="25" spans="1:10" s="215" customFormat="1" ht="70.2" customHeight="1" thickBot="1">
+      <c r="A25" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="182" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="297" t="s">
-        <v>434</v>
+      <c r="C25" s="295" t="s">
+        <v>432</v>
       </c>
       <c r="D25" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="184">
+      <c r="E25" s="183">
         <v>550</v>
       </c>
       <c r="F25" s="74">
         <v>1</v>
       </c>
-      <c r="G25" s="185">
+      <c r="G25" s="184">
         <v>2.29</v>
       </c>
-      <c r="H25" s="186">
+      <c r="H25" s="185">
         <f t="shared" si="1"/>
         <v>1259.5</v>
       </c>
-      <c r="I25" s="186" t="s">
+      <c r="I25" s="185" t="s">
         <v>191</v>
       </c>
-      <c r="J25" s="187" t="s">
+      <c r="J25" s="186" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="216" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
-      <c r="A26" s="215"/>
-      <c r="B26" s="183" t="s">
+    <row r="26" spans="1:10" s="215" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1">
+      <c r="A26" s="214"/>
+      <c r="B26" s="182" t="s">
         <v>196</v>
       </c>
       <c r="C26" s="74" t="s">
@@ -4242,309 +4201,309 @@
       <c r="D26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="184">
+      <c r="E26" s="183">
         <v>110</v>
       </c>
       <c r="F26" s="74"/>
-      <c r="G26" s="185">
+      <c r="G26" s="184">
         <v>1.77</v>
       </c>
-      <c r="H26" s="186">
+      <c r="H26" s="185">
         <f t="shared" si="1"/>
         <v>194.7</v>
       </c>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187" t="s">
+      <c r="I26" s="185"/>
+      <c r="J26" s="186" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="142.19999999999999" customHeight="1" thickBot="1">
+    <row r="27" spans="1:10" s="215" customFormat="1" ht="142.19999999999999" customHeight="1" thickBot="1">
       <c r="A27" s="296" t="s">
-        <v>432</v>
-      </c>
-      <c r="B27" s="178"/>
-      <c r="C27" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="182"/>
+      <c r="C27" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="179">
+      <c r="E27" s="183">
         <v>110</v>
       </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="180">
+      <c r="F27" s="74"/>
+      <c r="G27" s="184">
         <v>10.89</v>
       </c>
-      <c r="H27" s="181">
+      <c r="H27" s="185">
         <f t="shared" si="1"/>
         <v>1197.9000000000001</v>
       </c>
-      <c r="I27" s="181"/>
-      <c r="J27" s="182" t="s">
+      <c r="I27" s="185"/>
+      <c r="J27" s="186" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="216" customFormat="1" ht="63" thickBot="1">
-      <c r="A28" s="215" t="s">
+    <row r="28" spans="1:10" s="215" customFormat="1" ht="63" thickBot="1">
+      <c r="A28" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="182"/>
+      <c r="C28" s="74" t="s">
         <v>433</v>
-      </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="74" t="s">
-        <v>435</v>
       </c>
       <c r="D28" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="184">
+      <c r="E28" s="183">
         <v>110</v>
       </c>
       <c r="F28" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="185">
+      <c r="G28" s="184">
         <v>3.47</v>
       </c>
-      <c r="H28" s="186">
+      <c r="H28" s="185">
         <f t="shared" si="1"/>
         <v>381.70000000000005</v>
       </c>
-      <c r="I28" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="187" t="s">
+      <c r="I28" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="186" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="216" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
-      <c r="A29" s="215" t="s">
-        <v>436</v>
-      </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="208" t="s">
+    <row r="29" spans="1:10" s="215" customFormat="1" ht="48.6" customHeight="1" thickBot="1">
+      <c r="A29" s="214" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="206"/>
+      <c r="C29" s="207" t="s">
         <v>385</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="209">
-        <v>2</v>
-      </c>
-      <c r="F29" s="208"/>
-      <c r="G29" s="210">
+      <c r="E29" s="208">
+        <v>2</v>
+      </c>
+      <c r="F29" s="207"/>
+      <c r="G29" s="209">
         <v>3.99</v>
       </c>
-      <c r="H29" s="211">
+      <c r="H29" s="210">
         <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="I29" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" s="212" t="s">
+      <c r="I29" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="211" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A30" s="215"/>
-      <c r="B30" s="188"/>
+      <c r="A30" s="214"/>
+      <c r="B30" s="187"/>
       <c r="C30" s="151"/>
       <c r="D30" s="151"/>
-      <c r="E30" s="189"/>
+      <c r="E30" s="188"/>
       <c r="F30" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="190"/>
-      <c r="H30" s="191">
+      <c r="G30" s="189"/>
+      <c r="H30" s="190">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="193"/>
-    </row>
-    <row r="31" spans="1:10" s="216" customFormat="1" ht="75" customHeight="1" thickBot="1">
-      <c r="A31" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" s="207" t="s">
+      <c r="I30" s="190" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="192"/>
+    </row>
+    <row r="31" spans="1:10" s="215" customFormat="1" ht="75" customHeight="1" thickBot="1">
+      <c r="A31" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="206" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="207" t="s">
         <v>269</v>
       </c>
-      <c r="D31" s="208" t="s">
+      <c r="D31" s="207" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="209">
+      <c r="E31" s="208">
         <v>3</v>
       </c>
-      <c r="F31" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="210">
+      <c r="F31" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="209">
         <v>27</v>
       </c>
-      <c r="H31" s="211">
+      <c r="H31" s="210">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="I31" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="212" t="s">
+      <c r="I31" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="211" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="216" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
-      <c r="A32" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B32" s="207" t="s">
+    <row r="32" spans="1:10" s="215" customFormat="1" ht="57.6" customHeight="1" thickBot="1">
+      <c r="A32" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="206" t="s">
         <v>376</v>
       </c>
-      <c r="C32" s="208" t="s">
+      <c r="C32" s="207" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="208" t="s">
+      <c r="D32" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="209">
+      <c r="E32" s="208">
         <v>3</v>
       </c>
-      <c r="F32" s="208"/>
-      <c r="G32" s="210">
+      <c r="F32" s="207"/>
+      <c r="G32" s="209">
         <v>154.37</v>
       </c>
-      <c r="H32" s="211">
+      <c r="H32" s="210">
         <f t="shared" si="1"/>
         <v>463.11</v>
       </c>
-      <c r="I32" s="211"/>
-      <c r="J32" s="212" t="s">
+      <c r="I32" s="210"/>
+      <c r="J32" s="211" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="216" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A33" s="215"/>
-      <c r="B33" s="207" t="s">
+    <row r="33" spans="1:10" s="215" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A33" s="214"/>
+      <c r="B33" s="206" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="208" t="s">
+      <c r="C33" s="207" t="s">
         <v>208</v>
       </c>
-      <c r="D33" s="208" t="s">
+      <c r="D33" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="209">
+      <c r="E33" s="208">
         <v>4</v>
       </c>
-      <c r="F33" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="210">
+      <c r="F33" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="209">
         <v>13.51</v>
       </c>
-      <c r="H33" s="211">
+      <c r="H33" s="210">
         <f t="shared" si="1"/>
         <v>54.04</v>
       </c>
-      <c r="I33" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="212" t="s">
+      <c r="I33" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="211" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A34" s="215"/>
-      <c r="B34" s="188"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="187"/>
       <c r="C34" s="151"/>
       <c r="D34" s="151"/>
-      <c r="E34" s="189"/>
+      <c r="E34" s="188"/>
       <c r="F34" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="190"/>
-      <c r="H34" s="191">
+      <c r="G34" s="189"/>
+      <c r="H34" s="190">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192"/>
-    </row>
-    <row r="35" spans="1:10" s="216" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
-      <c r="A35" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B35" s="207" t="s">
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
+    </row>
+    <row r="35" spans="1:10" s="215" customFormat="1" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A35" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="206" t="s">
         <v>212</v>
       </c>
-      <c r="C35" s="208" t="s">
+      <c r="C35" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="208" t="s">
+      <c r="D35" s="207" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="209">
+      <c r="E35" s="208">
         <v>220</v>
       </c>
-      <c r="F35" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="210">
+      <c r="F35" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="209">
         <v>1.49</v>
       </c>
-      <c r="H35" s="211">
+      <c r="H35" s="210">
         <f t="shared" si="1"/>
         <v>327.8</v>
       </c>
-      <c r="I35" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J35" s="212" t="s">
+      <c r="I35" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="216" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A36" s="215" t="s">
+    <row r="36" spans="1:10" s="215" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A36" s="214" t="s">
+        <v>413</v>
+      </c>
+      <c r="B36" s="206" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="207" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="207" t="s">
         <v>414</v>
       </c>
-      <c r="B36" s="207" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="208" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="208" t="s">
-        <v>415</v>
-      </c>
-      <c r="E36" s="209">
+      <c r="E36" s="208">
         <v>19</v>
       </c>
-      <c r="F36" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="210">
+      <c r="F36" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="209">
         <v>4.99</v>
       </c>
-      <c r="H36" s="211">
+      <c r="H36" s="210">
         <f t="shared" si="1"/>
         <v>94.81</v>
       </c>
-      <c r="I36" s="211" t="s">
+      <c r="I36" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="J36" s="212" t="s">
+      <c r="J36" s="211" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="216" customFormat="1" ht="87" thickBot="1">
-      <c r="A37" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B37" s="183" t="s">
+    <row r="37" spans="1:10" s="215" customFormat="1" ht="87" thickBot="1">
+      <c r="A37" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" s="182" t="s">
         <v>271</v>
       </c>
       <c r="C37" s="74" t="s">
@@ -4553,149 +4512,149 @@
       <c r="D37" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="184">
+      <c r="E37" s="183">
         <v>39</v>
       </c>
       <c r="F37" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="185">
+      <c r="G37" s="184">
         <v>6.11</v>
       </c>
-      <c r="H37" s="186">
+      <c r="H37" s="185">
         <f t="shared" si="1"/>
         <v>238.29000000000002</v>
       </c>
-      <c r="I37" s="186"/>
-      <c r="J37" s="201" t="s">
+      <c r="I37" s="185"/>
+      <c r="J37" s="200" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="216" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A38" s="215" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" s="183" t="s">
+    <row r="38" spans="1:10" s="215" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A38" s="214" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="182" t="s">
         <v>219</v>
       </c>
       <c r="C38" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="283" t="s">
+      <c r="D38" s="281" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="282" t="s">
         <v>419</v>
       </c>
-      <c r="E38" s="284" t="s">
-        <v>420</v>
-      </c>
       <c r="F38" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="185">
+      <c r="G38" s="184">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H38" s="186" t="e">
+      <c r="H38" s="185" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J38" s="187" t="s">
+      <c r="I38" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="186" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="216" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
-      <c r="A39" s="215" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" s="207" t="s">
+    <row r="39" spans="1:10" s="215" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A39" s="214" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" s="206" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="208" t="s">
+      <c r="C39" s="207" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="208" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="209">
+      <c r="D39" s="207" t="s">
+        <v>417</v>
+      </c>
+      <c r="E39" s="208">
         <v>440</v>
       </c>
-      <c r="F39" s="208"/>
-      <c r="G39" s="210">
+      <c r="F39" s="207"/>
+      <c r="G39" s="209">
         <v>1.55</v>
       </c>
-      <c r="H39" s="211">
+      <c r="H39" s="210">
         <f t="shared" si="1"/>
         <v>682</v>
       </c>
-      <c r="I39" s="211"/>
-      <c r="J39" s="212" t="s">
+      <c r="I39" s="210"/>
+      <c r="J39" s="211" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A40" s="215" t="s">
+      <c r="A40" s="214" t="s">
         <v>405</v>
       </c>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="194" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="196" t="s">
+      <c r="C40" s="195" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="196" t="s">
+      <c r="D40" s="195" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="197">
+      <c r="E40" s="196">
         <v>110</v>
       </c>
-      <c r="F40" s="196"/>
-      <c r="G40" s="198">
+      <c r="F40" s="195"/>
+      <c r="G40" s="197">
         <v>1.79</v>
       </c>
-      <c r="H40" s="199">
+      <c r="H40" s="198">
         <f t="shared" si="1"/>
         <v>196.9</v>
       </c>
-      <c r="I40" s="199"/>
-      <c r="J40" s="182" t="s">
+      <c r="I40" s="198"/>
+      <c r="J40" s="181" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="216" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
-      <c r="A41" s="215" t="s">
-        <v>437</v>
-      </c>
-      <c r="B41" s="207"/>
-      <c r="C41" s="208" t="s">
+    <row r="41" spans="1:10" s="215" customFormat="1" ht="91.2" customHeight="1" thickBot="1">
+      <c r="A41" s="214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41" s="206"/>
+      <c r="C41" s="207" t="s">
         <v>383</v>
       </c>
-      <c r="D41" s="208" t="s">
+      <c r="D41" s="207" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="209">
-        <v>2</v>
-      </c>
-      <c r="F41" s="208"/>
-      <c r="G41" s="210">
+      <c r="E41" s="208">
+        <v>2</v>
+      </c>
+      <c r="F41" s="207"/>
+      <c r="G41" s="209">
         <v>28.08</v>
       </c>
-      <c r="H41" s="211">
+      <c r="H41" s="210">
         <f t="shared" si="1"/>
         <v>56.16</v>
       </c>
-      <c r="I41" s="211"/>
-      <c r="J41" s="239" t="s">
+      <c r="I41" s="210"/>
+      <c r="J41" s="237" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="214" t="s">
+      <c r="B43" s="213" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="35.4" thickBot="1">
-      <c r="A44" s="217" t="s">
+      <c r="A44" s="216" t="s">
         <v>401</v>
       </c>
       <c r="B44" s="175" t="s">
@@ -4726,182 +4685,182 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="217"/>
-      <c r="B45" s="207" t="s">
+    <row r="45" spans="1:10" s="215" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A45" s="216"/>
+      <c r="B45" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="208" t="s">
+      <c r="C45" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="208" t="s">
+      <c r="D45" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="209">
+      <c r="E45" s="208">
         <v>7</v>
       </c>
-      <c r="F45" s="208" t="s">
+      <c r="F45" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="210">
+      <c r="G45" s="209">
         <v>12.85</v>
       </c>
-      <c r="H45" s="211">
+      <c r="H45" s="210">
         <v>89.95</v>
       </c>
-      <c r="I45" s="211" t="s">
+      <c r="I45" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="J45" s="239" t="s">
+      <c r="J45" s="237" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A46" s="217"/>
-      <c r="B46" s="188" t="s">
+      <c r="A46" s="216"/>
+      <c r="B46" s="187" t="s">
         <v>63</v>
       </c>
       <c r="C46" s="151"/>
       <c r="D46" s="151"/>
-      <c r="E46" s="189"/>
+      <c r="E46" s="188"/>
       <c r="F46" s="151"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="193"/>
-    </row>
-    <row r="47" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A47" s="217"/>
-      <c r="B47" s="207">
+      <c r="G46" s="189"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="192"/>
+    </row>
+    <row r="47" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A47" s="216"/>
+      <c r="B47" s="206">
         <v>11029200</v>
       </c>
-      <c r="C47" s="208" t="s">
+      <c r="C47" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="208" t="s">
+      <c r="D47" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="209">
+      <c r="E47" s="208">
         <v>6</v>
       </c>
-      <c r="F47" s="208" t="s">
+      <c r="F47" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="210">
+      <c r="G47" s="209">
         <v>29.51</v>
       </c>
-      <c r="H47" s="211">
+      <c r="H47" s="210">
         <v>177.06</v>
       </c>
-      <c r="I47" s="211" t="s">
+      <c r="I47" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="239" t="s">
+      <c r="J47" s="237" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="216" customFormat="1" ht="63" thickBot="1">
-      <c r="A48" s="221" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="207" t="s">
+    <row r="48" spans="1:10" s="215" customFormat="1" ht="63" thickBot="1">
+      <c r="A48" s="220" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="208" t="s">
+      <c r="C48" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="302" t="s">
-        <v>440</v>
-      </c>
-      <c r="E48" s="209">
+      <c r="D48" s="299" t="s">
+        <v>438</v>
+      </c>
+      <c r="E48" s="208">
         <v>115</v>
       </c>
-      <c r="F48" s="208" t="s">
+      <c r="F48" s="207" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="303">
+      <c r="G48" s="300">
         <v>2.27</v>
       </c>
-      <c r="H48" s="211">
+      <c r="H48" s="210">
         <f t="shared" ref="H48:H65" si="2">E48*G48</f>
         <v>261.05</v>
       </c>
-      <c r="I48" s="211" t="s">
+      <c r="I48" s="210" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="239" t="s">
+      <c r="J48" s="237" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A49" s="217"/>
-      <c r="B49" s="207">
+    <row r="49" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A49" s="216"/>
+      <c r="B49" s="206">
         <v>22584104</v>
       </c>
-      <c r="C49" s="208" t="s">
+      <c r="C49" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="208" t="s">
+      <c r="D49" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="209">
+      <c r="E49" s="208">
         <v>6</v>
       </c>
-      <c r="F49" s="208" t="s">
+      <c r="F49" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="210">
+      <c r="G49" s="209">
         <v>18.239999999999998</v>
       </c>
-      <c r="H49" s="211">
+      <c r="H49" s="210">
         <f t="shared" si="2"/>
         <v>109.44</v>
       </c>
-      <c r="I49" s="211" t="s">
+      <c r="I49" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="239" t="s">
+      <c r="J49" s="237" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A50" s="217" t="s">
-        <v>410</v>
-      </c>
-      <c r="B50" s="207">
+    <row r="50" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A50" s="216" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" s="206">
         <v>10400921</v>
       </c>
-      <c r="C50" s="208" t="s">
+      <c r="C50" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="208" t="s">
+      <c r="D50" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="209">
+      <c r="E50" s="208">
         <v>6</v>
       </c>
-      <c r="F50" s="208" t="s">
+      <c r="F50" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="210">
+      <c r="G50" s="209">
         <v>17.649999999999999</v>
       </c>
-      <c r="H50" s="211">
+      <c r="H50" s="210">
         <f t="shared" si="2"/>
         <v>105.89999999999999</v>
       </c>
-      <c r="I50" s="211" t="s">
+      <c r="I50" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="239" t="s">
+      <c r="J50" s="237" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="216" customFormat="1" ht="55.8" thickBot="1">
-      <c r="A51" s="218" t="s">
+    <row r="51" spans="1:10" s="215" customFormat="1" ht="55.8" thickBot="1">
+      <c r="A51" s="217" t="s">
         <v>403</v>
       </c>
-      <c r="B51" s="207">
+      <c r="B51" s="206">
         <v>556138647</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -4910,31 +4869,31 @@
       <c r="D51" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="184">
+      <c r="E51" s="183">
         <v>145</v>
       </c>
       <c r="F51" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G51" s="185">
+      <c r="G51" s="184">
         <v>5.2</v>
       </c>
-      <c r="H51" s="186">
+      <c r="H51" s="185">
         <f t="shared" si="2"/>
         <v>754</v>
       </c>
-      <c r="I51" s="186" t="s">
+      <c r="I51" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="201" t="s">
+      <c r="J51" s="200" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A52" s="217" t="s">
-        <v>433</v>
-      </c>
-      <c r="B52" s="207">
+    <row r="52" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A52" s="216" t="s">
+        <v>431</v>
+      </c>
+      <c r="B52" s="206">
         <v>15166</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -4943,31 +4902,31 @@
       <c r="D52" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="184">
+      <c r="E52" s="183">
         <v>4</v>
       </c>
       <c r="F52" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="185">
+      <c r="G52" s="184">
         <v>32</v>
       </c>
-      <c r="H52" s="186">
+      <c r="H52" s="185">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="I52" s="186" t="s">
+      <c r="I52" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="201" t="s">
+      <c r="J52" s="200" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="216" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A53" s="217" t="s">
+    <row r="53" spans="1:10" s="215" customFormat="1" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A53" s="216" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="207">
+      <c r="B53" s="206">
         <v>564439325</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -4976,31 +4935,31 @@
       <c r="D53" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="184">
+      <c r="E53" s="183">
         <v>115</v>
       </c>
       <c r="F53" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="G53" s="185">
+      <c r="G53" s="184">
         <v>4.9400000000000004</v>
       </c>
-      <c r="H53" s="186">
+      <c r="H53" s="185">
         <f t="shared" si="2"/>
         <v>568.1</v>
       </c>
-      <c r="I53" s="186" t="s">
+      <c r="I53" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="201" t="s">
+      <c r="J53" s="200" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A54" s="217" t="s">
-        <v>427</v>
-      </c>
-      <c r="B54" s="207" t="s">
+    <row r="54" spans="1:10" s="215" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A54" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B54" s="206" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="74" t="s">
@@ -5009,31 +4968,31 @@
       <c r="D54" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="184">
+      <c r="E54" s="183">
         <v>2</v>
       </c>
       <c r="F54" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="185">
+      <c r="G54" s="184">
         <v>89.92</v>
       </c>
-      <c r="H54" s="186">
+      <c r="H54" s="185">
         <f t="shared" si="2"/>
         <v>179.84</v>
       </c>
-      <c r="I54" s="186" t="s">
+      <c r="I54" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="287" t="s">
+      <c r="J54" s="285" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A55" s="217" t="s">
-        <v>427</v>
-      </c>
-      <c r="B55" s="207" t="s">
+    <row r="55" spans="1:10" s="215" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A55" s="216" t="s">
+        <v>426</v>
+      </c>
+      <c r="B55" s="206" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="74" t="s">
@@ -5042,31 +5001,31 @@
       <c r="D55" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="184">
+      <c r="E55" s="183">
         <v>12</v>
       </c>
       <c r="F55" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="185">
+      <c r="G55" s="184">
         <v>28.62</v>
       </c>
-      <c r="H55" s="186">
+      <c r="H55" s="185">
         <f t="shared" si="2"/>
         <v>343.44</v>
       </c>
-      <c r="I55" s="186" t="s">
+      <c r="I55" s="185" t="s">
         <v>80</v>
       </c>
-      <c r="J55" s="201" t="s">
+      <c r="J55" s="200" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A56" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B56" s="220">
+    <row r="56" spans="1:10" s="215" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A56" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B56" s="219">
         <v>625277</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -5075,225 +5034,225 @@
       <c r="D56" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="184">
+      <c r="E56" s="183">
         <v>5</v>
       </c>
       <c r="F56" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="185">
+      <c r="G56" s="184">
         <v>24</v>
       </c>
-      <c r="H56" s="186">
+      <c r="H56" s="185">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="I56" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J56" s="201" t="s">
+      <c r="I56" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="200" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A57" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B57" s="207" t="s">
+    <row r="57" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A57" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B57" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="208" t="s">
+      <c r="C57" s="207" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="208" t="s">
+      <c r="D57" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="209">
+      <c r="E57" s="208">
         <v>6</v>
       </c>
-      <c r="F57" s="208" t="s">
+      <c r="F57" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="210">
+      <c r="G57" s="209">
         <v>21.15</v>
       </c>
-      <c r="H57" s="211">
+      <c r="H57" s="210">
         <f t="shared" si="2"/>
         <v>126.89999999999999</v>
       </c>
-      <c r="I57" s="211"/>
-      <c r="J57" s="239" t="s">
+      <c r="I57" s="210"/>
+      <c r="J57" s="237" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A58" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B58" s="207" t="s">
+    <row r="58" spans="1:10" s="215" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A58" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="206" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="208" t="s">
+      <c r="C58" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="208" t="s">
+      <c r="D58" s="207" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="209">
+      <c r="E58" s="208">
         <v>3</v>
       </c>
-      <c r="F58" s="208" t="s">
+      <c r="F58" s="207" t="s">
         <v>173</v>
       </c>
-      <c r="G58" s="210">
+      <c r="G58" s="209">
         <v>81.27</v>
       </c>
-      <c r="H58" s="211">
+      <c r="H58" s="210">
         <f t="shared" si="2"/>
         <v>243.81</v>
       </c>
-      <c r="I58" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J58" s="239" t="s">
+      <c r="I58" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="237" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A59" s="221" t="s">
-        <v>445</v>
-      </c>
-      <c r="B59" s="207">
+    <row r="59" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A59" s="220" t="s">
+        <v>443</v>
+      </c>
+      <c r="B59" s="206">
         <v>9171119</v>
       </c>
-      <c r="C59" s="208" t="s">
+      <c r="C59" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="208" t="s">
+      <c r="D59" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="209">
-        <v>2</v>
-      </c>
-      <c r="F59" s="208" t="s">
+      <c r="E59" s="208">
+        <v>2</v>
+      </c>
+      <c r="F59" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="210">
+      <c r="G59" s="209">
         <v>32.49</v>
       </c>
-      <c r="H59" s="211">
+      <c r="H59" s="210">
         <f t="shared" si="2"/>
         <v>64.98</v>
       </c>
-      <c r="I59" s="211" t="s">
+      <c r="I59" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="239" t="s">
+      <c r="J59" s="237" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="228" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A60" s="298" t="s">
+    <row r="60" spans="1:10" s="308" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A60" s="331" t="s">
         <v>446</v>
       </c>
-      <c r="B60" s="222">
+      <c r="B60" s="302">
         <v>565320669</v>
       </c>
-      <c r="C60" s="223" t="s">
+      <c r="C60" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="223" t="s">
+      <c r="D60" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="224">
+      <c r="E60" s="304">
         <v>110</v>
       </c>
-      <c r="F60" s="223" t="s">
+      <c r="F60" s="303" t="s">
         <v>92</v>
       </c>
-      <c r="G60" s="225">
+      <c r="G60" s="305">
         <v>0.88</v>
       </c>
-      <c r="H60" s="226">
+      <c r="H60" s="306">
         <f t="shared" si="2"/>
         <v>96.8</v>
       </c>
-      <c r="I60" s="226" t="s">
+      <c r="I60" s="306" t="s">
         <v>93</v>
       </c>
-      <c r="J60" s="337" t="s">
+      <c r="J60" s="307" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="216" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A61" s="217" t="s">
-        <v>443</v>
-      </c>
-      <c r="B61" s="207" t="s">
+    <row r="61" spans="1:10" s="215" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A61" s="216" t="s">
+        <v>441</v>
+      </c>
+      <c r="B61" s="206" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="208" t="s">
+      <c r="C61" s="207" t="s">
         <v>370</v>
       </c>
-      <c r="D61" s="208" t="s">
+      <c r="D61" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="209">
+      <c r="E61" s="208">
         <v>220</v>
       </c>
-      <c r="F61" s="208" t="s">
+      <c r="F61" s="207" t="s">
         <v>371</v>
       </c>
-      <c r="G61" s="210">
+      <c r="G61" s="209">
         <v>1.39</v>
       </c>
-      <c r="H61" s="211">
+      <c r="H61" s="210">
         <f t="shared" si="2"/>
         <v>305.79999999999995</v>
       </c>
-      <c r="I61" s="211" t="s">
+      <c r="I61" s="210" t="s">
         <v>373</v>
       </c>
-      <c r="J61" s="239" t="s">
+      <c r="J61" s="237" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="228" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A62" s="298" t="s">
-        <v>407</v>
-      </c>
-      <c r="B62" s="222">
+    <row r="62" spans="1:10" s="308" customFormat="1" ht="45" customHeight="1" thickBot="1">
+      <c r="A62" s="331" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="302">
         <v>178257</v>
       </c>
-      <c r="C62" s="223" t="s">
+      <c r="C62" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="D62" s="312" t="s">
+      <c r="D62" s="332" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="224">
+      <c r="E62" s="304">
         <v>9</v>
       </c>
-      <c r="F62" s="223" t="s">
+      <c r="F62" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="225">
+      <c r="G62" s="305">
         <v>24</v>
       </c>
-      <c r="H62" s="226">
+      <c r="H62" s="306">
         <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="I62" s="226" t="s">
+      <c r="I62" s="306" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="227" t="s">
+      <c r="J62" s="333" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="32.4" customHeight="1" thickBot="1">
-      <c r="A63" s="217"/>
-      <c r="B63" s="188" t="s">
+      <c r="A63" s="216"/>
+      <c r="B63" s="187" t="s">
         <v>375</v>
       </c>
       <c r="C63" s="151" t="s">
@@ -5302,64 +5261,64 @@
       <c r="D63" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="189">
+      <c r="E63" s="188">
         <v>0</v>
       </c>
       <c r="F63" s="151">
         <v>0</v>
       </c>
-      <c r="G63" s="190">
+      <c r="G63" s="189">
         <v>0</v>
       </c>
-      <c r="H63" s="191">
+      <c r="H63" s="190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="191" t="s">
+      <c r="I63" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="229" t="s">
+      <c r="J63" s="227" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="216" customFormat="1" ht="60.6" thickBot="1">
-      <c r="A64" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B64" s="207" t="s">
+    <row r="64" spans="1:10" s="215" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A64" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B64" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="208" t="s">
+      <c r="C64" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="208" t="s">
+      <c r="D64" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="209">
+      <c r="E64" s="208">
         <v>3</v>
       </c>
-      <c r="F64" s="208" t="s">
+      <c r="F64" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="G64" s="210">
+      <c r="G64" s="209">
         <v>33.49</v>
       </c>
-      <c r="H64" s="211">
+      <c r="H64" s="210">
         <f t="shared" si="2"/>
         <v>100.47</v>
       </c>
-      <c r="I64" s="211" t="s">
+      <c r="I64" s="210" t="s">
         <v>113</v>
       </c>
-      <c r="J64" s="239" t="s">
+      <c r="J64" s="237" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="216" customFormat="1" ht="45.6" thickBot="1">
-      <c r="A65" s="217" t="s">
-        <v>433</v>
-      </c>
-      <c r="B65" s="207">
+    <row r="65" spans="1:10" s="215" customFormat="1" ht="45.6" thickBot="1">
+      <c r="A65" s="216" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" s="206">
         <v>843342</v>
       </c>
       <c r="C65" s="74" t="s">
@@ -5368,161 +5327,161 @@
       <c r="D65" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="184">
+      <c r="E65" s="183">
         <v>3</v>
       </c>
       <c r="F65" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="G65" s="185">
+      <c r="G65" s="184">
         <v>36</v>
       </c>
-      <c r="H65" s="186">
+      <c r="H65" s="185">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="I65" s="186" t="s">
+      <c r="I65" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="201" t="s">
+      <c r="J65" s="200" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.6" hidden="1">
-      <c r="A66" s="217"/>
+      <c r="A66" s="216"/>
     </row>
     <row r="67" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A67" s="217"/>
-      <c r="B67" s="214" t="s">
+      <c r="A67" s="216"/>
+      <c r="B67" s="213" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="216" customFormat="1" ht="43.8" thickBot="1">
-      <c r="A68" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B68" s="207" t="s">
+    <row r="68" spans="1:10" s="215" customFormat="1" ht="43.8" thickBot="1">
+      <c r="A68" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B68" s="206" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="208" t="s">
+      <c r="C68" s="207" t="s">
         <v>363</v>
       </c>
-      <c r="D68" s="208" t="s">
+      <c r="D68" s="207" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="209">
+      <c r="E68" s="208">
         <v>2750</v>
       </c>
-      <c r="F68" s="208" t="s">
+      <c r="F68" s="207" t="s">
         <v>140</v>
       </c>
-      <c r="G68" s="210">
+      <c r="G68" s="209">
         <v>0.47</v>
       </c>
-      <c r="H68" s="211">
+      <c r="H68" s="210">
         <f t="shared" ref="H68:H84" si="3">E68*G68</f>
         <v>1292.5</v>
       </c>
-      <c r="I68" s="282" t="s">
+      <c r="I68" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="J68" s="239" t="s">
+      <c r="J68" s="237" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="336" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
-      <c r="A69" s="335"/>
-      <c r="B69" s="188">
+    <row r="69" spans="1:10" s="277" customFormat="1" ht="85.2" customHeight="1" thickBot="1">
+      <c r="A69" s="216"/>
+      <c r="B69" s="206">
         <v>1100113439</v>
       </c>
-      <c r="C69" s="151" t="s">
+      <c r="C69" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="151" t="s">
+      <c r="D69" s="207" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="189">
+      <c r="E69" s="208">
         <v>53</v>
       </c>
-      <c r="F69" s="151" t="s">
+      <c r="F69" s="207" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="190">
+      <c r="G69" s="209">
         <v>7.99</v>
       </c>
-      <c r="H69" s="191">
+      <c r="H69" s="210">
         <f t="shared" si="3"/>
         <v>423.47</v>
       </c>
-      <c r="I69" s="191"/>
-      <c r="J69" s="192" t="s">
+      <c r="I69" s="210"/>
+      <c r="J69" s="211" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A70" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B70" s="207" t="s">
+    <row r="70" spans="1:10" s="215" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A70" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="206" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="208" t="s">
+      <c r="C70" s="207" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="207" t="s">
+      <c r="D70" s="206" t="s">
         <v>348</v>
       </c>
-      <c r="E70" s="209">
+      <c r="E70" s="208">
         <v>115</v>
       </c>
-      <c r="F70" s="208" t="s">
+      <c r="F70" s="207" t="s">
         <v>350</v>
       </c>
-      <c r="G70" s="210">
+      <c r="G70" s="209">
         <v>1.27</v>
       </c>
-      <c r="H70" s="211">
+      <c r="H70" s="210">
         <v>142.24</v>
       </c>
-      <c r="I70" s="211"/>
-      <c r="J70" s="239" t="s">
+      <c r="I70" s="210"/>
+      <c r="J70" s="237" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="216" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
-      <c r="A71" s="215"/>
-      <c r="B71" s="207" t="s">
+    <row r="71" spans="1:10" s="215" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
+      <c r="A71" s="214"/>
+      <c r="B71" s="206" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="208" t="s">
+      <c r="C71" s="207" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="208" t="s">
+      <c r="D71" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="209">
+      <c r="E71" s="208">
         <v>115</v>
       </c>
-      <c r="F71" s="208" t="s">
+      <c r="F71" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="210">
+      <c r="G71" s="209">
         <v>7.95</v>
       </c>
-      <c r="H71" s="211">
+      <c r="H71" s="210">
         <f t="shared" si="3"/>
         <v>914.25</v>
       </c>
-      <c r="I71" s="211"/>
-      <c r="J71" s="239" t="s">
+      <c r="I71" s="210"/>
+      <c r="J71" s="237" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="216" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
-      <c r="A72" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B72" s="183" t="s">
+    <row r="72" spans="1:10" s="215" customFormat="1" ht="70.8" customHeight="1" thickBot="1">
+      <c r="A72" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B72" s="182" t="s">
         <v>151</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -5531,62 +5490,62 @@
       <c r="D72" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="184">
+      <c r="E72" s="183">
         <v>115</v>
       </c>
       <c r="F72" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="G72" s="185">
+      <c r="G72" s="184">
         <v>6.89</v>
       </c>
-      <c r="H72" s="186">
+      <c r="H72" s="185">
         <f>E72*G72</f>
         <v>792.34999999999991</v>
       </c>
-      <c r="I72" s="186" t="s">
+      <c r="I72" s="185" t="s">
         <v>234</v>
       </c>
-      <c r="J72" s="201" t="s">
+      <c r="J72" s="200" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="216" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A73" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B73" s="330"/>
-      <c r="C73" s="331" t="s">
+    <row r="73" spans="1:10" s="215" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
+      <c r="A73" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B73" s="309"/>
+      <c r="C73" s="310" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="331" t="s">
-        <v>444</v>
-      </c>
-      <c r="E73" s="332">
+      <c r="D73" s="310" t="s">
+        <v>442</v>
+      </c>
+      <c r="E73" s="311">
         <v>2709</v>
       </c>
-      <c r="F73" s="331" t="s">
+      <c r="F73" s="310" t="s">
         <v>158</v>
       </c>
-      <c r="G73" s="333">
+      <c r="G73" s="312">
         <v>0.3</v>
       </c>
-      <c r="H73" s="211">
+      <c r="H73" s="210">
         <f t="shared" si="3"/>
         <v>812.69999999999993</v>
       </c>
-      <c r="I73" s="334" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" s="239" t="s">
+      <c r="I73" s="313" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="237" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="216" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A74" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="240" t="s">
+    <row r="74" spans="1:10" s="215" customFormat="1" ht="39.6" customHeight="1" thickBot="1">
+      <c r="A74" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="238" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -5595,151 +5554,151 @@
       <c r="D74" s="74" t="s">
         <v>386</v>
       </c>
-      <c r="E74" s="184">
+      <c r="E74" s="183">
         <v>115</v>
       </c>
       <c r="F74" s="74"/>
-      <c r="G74" s="185">
+      <c r="G74" s="184">
         <v>5.98</v>
       </c>
-      <c r="H74" s="241">
+      <c r="H74" s="239">
         <f t="shared" si="3"/>
         <v>687.7</v>
       </c>
-      <c r="I74" s="241"/>
-      <c r="J74" s="242" t="s">
+      <c r="I74" s="239"/>
+      <c r="J74" s="240" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A75" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B75" s="207" t="s">
+    <row r="75" spans="1:10" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A75" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="208" t="s">
+      <c r="C75" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="208" t="s">
+      <c r="D75" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="209">
+      <c r="E75" s="208">
         <v>550</v>
       </c>
-      <c r="F75" s="208" t="s">
+      <c r="F75" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="G75" s="210"/>
-      <c r="H75" s="211">
+      <c r="G75" s="209"/>
+      <c r="H75" s="210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I75" s="300" t="s">
-        <v>2</v>
-      </c>
-      <c r="J75" s="301"/>
-    </row>
-    <row r="76" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A76" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B76" s="207" t="s">
+      <c r="I75" s="297" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="298"/>
+    </row>
+    <row r="76" spans="1:10" s="215" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A76" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B76" s="206" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="208" t="s">
+      <c r="C76" s="207" t="s">
         <v>352</v>
       </c>
-      <c r="D76" s="208" t="s">
+      <c r="D76" s="207" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="209">
+      <c r="E76" s="208">
         <v>63</v>
       </c>
-      <c r="F76" s="208" t="s">
+      <c r="F76" s="207" t="s">
         <v>357</v>
       </c>
-      <c r="G76" s="210">
+      <c r="G76" s="209">
         <v>0.24</v>
       </c>
-      <c r="H76" s="211">
+      <c r="H76" s="210">
         <f t="shared" si="3"/>
         <v>15.12</v>
       </c>
-      <c r="I76" s="300" t="s">
+      <c r="I76" s="297" t="s">
         <v>362</v>
       </c>
-      <c r="J76" s="301" t="s">
+      <c r="J76" s="298" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="295" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A77" s="288"/>
-      <c r="B77" s="289" t="s">
+    <row r="77" spans="1:10" s="293" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A77" s="286"/>
+      <c r="B77" s="287" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="290" t="s">
+      <c r="C77" s="288" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="290" t="s">
+      <c r="D77" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="291">
+      <c r="E77" s="289">
         <v>115</v>
       </c>
-      <c r="F77" s="290" t="s">
+      <c r="F77" s="288" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="292"/>
-      <c r="H77" s="293">
+      <c r="G77" s="290"/>
+      <c r="H77" s="291">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I77" s="293" t="s">
+      <c r="I77" s="291" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="294" t="s">
+      <c r="J77" s="292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="216" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A78" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B78" s="207" t="s">
+    <row r="78" spans="1:10" s="215" customFormat="1" ht="49.8" customHeight="1" thickBot="1">
+      <c r="A78" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="206" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="208" t="s">
+      <c r="C78" s="207" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="208" t="s">
+      <c r="D78" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="209">
+      <c r="E78" s="208">
         <v>3</v>
       </c>
-      <c r="F78" s="208" t="s">
+      <c r="F78" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="210">
+      <c r="G78" s="209">
         <v>6.5</v>
       </c>
-      <c r="H78" s="211">
+      <c r="H78" s="210">
         <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
-      <c r="I78" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="239" t="s">
+      <c r="I78" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="237" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="216" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A79" s="215" t="s">
-        <v>428</v>
-      </c>
-      <c r="B79" s="183" t="s">
+    <row r="79" spans="1:10" s="215" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A79" s="214" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" s="182" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="74" t="s">
@@ -5748,114 +5707,114 @@
       <c r="D79" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="184">
+      <c r="E79" s="183">
         <v>19</v>
       </c>
       <c r="F79" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G79" s="185">
+      <c r="G79" s="184">
         <v>11.59</v>
       </c>
-      <c r="H79" s="186">
+      <c r="H79" s="185">
         <f t="shared" si="3"/>
         <v>220.21</v>
       </c>
-      <c r="I79" s="186"/>
-      <c r="J79" s="201" t="s">
+      <c r="I79" s="185"/>
+      <c r="J79" s="200" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="344" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A80" s="296" t="s">
-        <v>447</v>
-      </c>
-      <c r="B80" s="338" t="s">
+    <row r="80" spans="1:10" s="321" customFormat="1" ht="58.2" thickBot="1">
+      <c r="A80" s="294" t="s">
+        <v>444</v>
+      </c>
+      <c r="B80" s="315" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="339" t="s">
+      <c r="C80" s="316" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="339" t="s">
+      <c r="D80" s="316" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="340">
+      <c r="E80" s="317">
         <v>14</v>
       </c>
-      <c r="F80" s="339">
+      <c r="F80" s="316">
         <v>1</v>
       </c>
-      <c r="G80" s="341">
+      <c r="G80" s="318">
         <v>2.52</v>
       </c>
-      <c r="H80" s="342">
+      <c r="H80" s="319">
         <f t="shared" si="3"/>
         <v>35.28</v>
       </c>
-      <c r="I80" s="342"/>
-      <c r="J80" s="343" t="s">
+      <c r="I80" s="319"/>
+      <c r="J80" s="320" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="311" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A81" s="304" t="s">
-        <v>439</v>
-      </c>
-      <c r="B81" s="305"/>
-      <c r="C81" s="306" t="s">
+    <row r="81" spans="1:10" s="226" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A81" s="296" t="s">
+        <v>437</v>
+      </c>
+      <c r="B81" s="221"/>
+      <c r="C81" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="306" t="s">
+      <c r="D81" s="222" t="s">
         <v>157</v>
       </c>
-      <c r="E81" s="307"/>
-      <c r="F81" s="306"/>
-      <c r="G81" s="308"/>
-      <c r="H81" s="309">
+      <c r="E81" s="223"/>
+      <c r="F81" s="222"/>
+      <c r="G81" s="224"/>
+      <c r="H81" s="225">
         <f>E81*G81</f>
         <v>0</v>
       </c>
-      <c r="I81" s="309" t="s">
+      <c r="I81" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="J81" s="310"/>
-    </row>
-    <row r="82" spans="1:10" s="216" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A82" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B82" s="207" t="s">
+      <c r="J81" s="314"/>
+    </row>
+    <row r="82" spans="1:10" s="215" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A82" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B82" s="206" t="s">
         <v>364</v>
       </c>
-      <c r="C82" s="208" t="s">
+      <c r="C82" s="207" t="s">
         <v>365</v>
       </c>
-      <c r="D82" s="208" t="s">
+      <c r="D82" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="209">
+      <c r="E82" s="208">
         <v>3</v>
       </c>
-      <c r="F82" s="208" t="s">
+      <c r="F82" s="207" t="s">
         <v>366</v>
       </c>
-      <c r="G82" s="210">
+      <c r="G82" s="209">
         <v>1.49</v>
       </c>
-      <c r="H82" s="211">
+      <c r="H82" s="210">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
-      <c r="I82" s="211"/>
-      <c r="J82" s="239" t="s">
+      <c r="I82" s="210"/>
+      <c r="J82" s="237" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="216" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A83" s="213" t="s">
-        <v>424</v>
-      </c>
-      <c r="B83" s="183" t="s">
+    <row r="83" spans="1:10" s="215" customFormat="1" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A83" s="212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83" s="182" t="s">
         <v>361</v>
       </c>
       <c r="C83" s="74" t="s">
@@ -5864,59 +5823,59 @@
       <c r="D83" s="74" t="s">
         <v>359</v>
       </c>
-      <c r="E83" s="184">
+      <c r="E83" s="183">
         <v>18</v>
       </c>
       <c r="F83" s="74" t="s">
         <v>367</v>
       </c>
-      <c r="G83" s="185">
+      <c r="G83" s="184">
         <v>1</v>
       </c>
-      <c r="H83" s="186">
+      <c r="H83" s="185">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I83" s="186" t="s">
+      <c r="I83" s="185" t="s">
         <v>360</v>
       </c>
-      <c r="J83" s="201" t="s">
+      <c r="J83" s="200" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="329" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A84" s="322" t="s">
-        <v>410</v>
-      </c>
-      <c r="B84" s="323" t="s">
+    <row r="84" spans="1:10" s="308" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A84" s="301" t="s">
+        <v>409</v>
+      </c>
+      <c r="B84" s="302" t="s">
         <v>392</v>
       </c>
-      <c r="C84" s="324" t="s">
+      <c r="C84" s="303" t="s">
         <v>391</v>
       </c>
-      <c r="D84" s="324" t="s">
+      <c r="D84" s="303" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="325">
+      <c r="E84" s="304">
         <v>11</v>
       </c>
-      <c r="F84" s="324" t="s">
+      <c r="F84" s="303" t="s">
         <v>390</v>
       </c>
-      <c r="G84" s="326">
+      <c r="G84" s="305">
         <v>7.91</v>
       </c>
-      <c r="H84" s="327">
+      <c r="H84" s="306">
         <f t="shared" si="3"/>
         <v>87.01</v>
       </c>
-      <c r="I84" s="327" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" s="328"/>
+      <c r="I84" s="306" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="307"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
-      <c r="B86" s="200" t="s">
+      <c r="B86" s="199" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5950,143 +5909,143 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A88" s="299" t="s">
-        <v>429</v>
-      </c>
-      <c r="B88" s="188"/>
+      <c r="A88" s="296" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88" s="187"/>
       <c r="C88" s="150" t="s">
         <v>175</v>
       </c>
       <c r="D88" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="179">
+      <c r="E88" s="178">
         <v>120</v>
       </c>
       <c r="F88" s="150"/>
-      <c r="G88" s="180">
+      <c r="G88" s="179">
         <v>6.5</v>
       </c>
-      <c r="H88" s="181">
+      <c r="H88" s="180">
         <v>780</v>
       </c>
-      <c r="I88" s="181"/>
-      <c r="J88" s="219" t="s">
+      <c r="I88" s="180"/>
+      <c r="J88" s="218" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A89" s="299"/>
-      <c r="B89" s="188"/>
+      <c r="A89" s="296"/>
+      <c r="B89" s="187"/>
       <c r="C89" s="150" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="179">
+      <c r="E89" s="178">
         <v>120</v>
       </c>
       <c r="F89" s="150"/>
-      <c r="G89" s="180">
+      <c r="G89" s="179">
         <v>6.5</v>
       </c>
-      <c r="H89" s="181">
+      <c r="H89" s="180">
         <v>780</v>
       </c>
-      <c r="I89" s="181"/>
-      <c r="J89" s="219" t="s">
+      <c r="I89" s="180"/>
+      <c r="J89" s="218" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A90" s="299"/>
-      <c r="B90" s="188"/>
+      <c r="A90" s="296"/>
+      <c r="B90" s="187"/>
       <c r="C90" s="150" t="s">
         <v>177</v>
       </c>
       <c r="D90" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="E90" s="179">
+      <c r="E90" s="178">
         <v>120</v>
       </c>
       <c r="F90" s="150"/>
-      <c r="G90" s="180">
+      <c r="G90" s="179">
         <v>6.5</v>
       </c>
-      <c r="H90" s="181">
+      <c r="H90" s="180">
         <v>780</v>
       </c>
-      <c r="I90" s="181"/>
-      <c r="J90" s="194" t="s">
+      <c r="I90" s="180"/>
+      <c r="J90" s="193" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="216" customFormat="1" ht="72.599999999999994" thickBot="1">
-      <c r="A91" s="221" t="s">
-        <v>430</v>
-      </c>
-      <c r="B91" s="207" t="s">
+    <row r="91" spans="1:10" s="215" customFormat="1" ht="72.599999999999994" thickBot="1">
+      <c r="A91" s="220" t="s">
+        <v>429</v>
+      </c>
+      <c r="B91" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="208" t="s">
+      <c r="C91" s="207" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="208" t="s">
+      <c r="D91" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="E91" s="209">
+      <c r="E91" s="208">
         <v>600</v>
       </c>
-      <c r="F91" s="208"/>
-      <c r="G91" s="210">
+      <c r="F91" s="207"/>
+      <c r="G91" s="209">
         <v>0.59</v>
       </c>
-      <c r="H91" s="211">
+      <c r="H91" s="210">
         <v>354</v>
       </c>
-      <c r="I91" s="211"/>
-      <c r="J91" s="239" t="s">
+      <c r="I91" s="210"/>
+      <c r="J91" s="237" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="216" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
-      <c r="A92" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B92" s="183"/>
+    <row r="92" spans="1:10" s="215" customFormat="1" ht="29.4" customHeight="1" thickBot="1">
+      <c r="A92" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B92" s="182"/>
       <c r="C92" s="74" t="s">
         <v>179</v>
       </c>
       <c r="D92" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E92" s="184">
+      <c r="E92" s="183">
         <v>6</v>
       </c>
       <c r="F92" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="G92" s="185">
+      <c r="G92" s="184">
         <v>3.32</v>
       </c>
-      <c r="H92" s="186">
+      <c r="H92" s="185">
         <f t="shared" ref="H92:H101" si="4">E92*G92</f>
         <v>19.919999999999998</v>
       </c>
-      <c r="I92" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J92" s="201" t="s">
+      <c r="I92" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="200" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A93" s="215" t="s">
-        <v>425</v>
-      </c>
-      <c r="B93" s="183" t="s">
+    <row r="93" spans="1:10" s="215" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A93" s="214" t="s">
+        <v>424</v>
+      </c>
+      <c r="B93" s="182" t="s">
         <v>244</v>
       </c>
       <c r="C93" s="74" t="s">
@@ -6095,93 +6054,93 @@
       <c r="D93" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E93" s="184">
+      <c r="E93" s="183">
         <v>350</v>
       </c>
       <c r="F93" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G93" s="185">
+      <c r="G93" s="184">
         <v>1</v>
       </c>
-      <c r="H93" s="186">
+      <c r="H93" s="185">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="I93" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J93" s="201" t="s">
+      <c r="I93" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="200" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="216" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
-      <c r="A94" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B94" s="207">
+    <row r="94" spans="1:10" s="215" customFormat="1" ht="58.2" customHeight="1" thickBot="1">
+      <c r="A94" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" s="206">
         <v>1601</v>
       </c>
-      <c r="C94" s="208" t="s">
+      <c r="C94" s="207" t="s">
         <v>247</v>
       </c>
-      <c r="D94" s="208" t="s">
+      <c r="D94" s="207" t="s">
         <v>248</v>
       </c>
-      <c r="E94" s="209">
+      <c r="E94" s="208">
         <v>2800</v>
       </c>
-      <c r="F94" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="210">
+      <c r="F94" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="209">
         <v>0.2</v>
       </c>
-      <c r="H94" s="211">
+      <c r="H94" s="210">
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="I94" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J94" s="239" t="s">
+      <c r="I94" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="237" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="216" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A95" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B95" s="207" t="s">
+    <row r="95" spans="1:10" s="215" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1">
+      <c r="A95" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B95" s="206" t="s">
         <v>250</v>
       </c>
-      <c r="C95" s="208" t="s">
+      <c r="C95" s="207" t="s">
         <v>251</v>
       </c>
-      <c r="D95" s="208" t="s">
+      <c r="D95" s="207" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="209">
+      <c r="E95" s="208">
         <v>600</v>
       </c>
-      <c r="F95" s="208"/>
-      <c r="G95" s="210">
+      <c r="F95" s="207"/>
+      <c r="G95" s="209">
         <v>0.64</v>
       </c>
-      <c r="H95" s="211">
+      <c r="H95" s="210">
         <f t="shared" si="4"/>
         <v>384</v>
       </c>
-      <c r="I95" s="211"/>
-      <c r="J95" s="239" t="s">
+      <c r="I95" s="210"/>
+      <c r="J95" s="237" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="216" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A96" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B96" s="183">
+    <row r="96" spans="1:10" s="215" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A96" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B96" s="182">
         <v>154953</v>
       </c>
       <c r="C96" s="74" t="s">
@@ -6190,27 +6149,27 @@
       <c r="D96" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="E96" s="184">
+      <c r="E96" s="183">
         <v>150</v>
       </c>
       <c r="F96" s="74"/>
-      <c r="G96" s="185">
+      <c r="G96" s="184">
         <v>1</v>
       </c>
-      <c r="H96" s="186">
+      <c r="H96" s="185">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="I96" s="186"/>
-      <c r="J96" s="201" t="s">
+      <c r="I96" s="185"/>
+      <c r="J96" s="200" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="216" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
-      <c r="A97" s="299" t="s">
-        <v>438</v>
-      </c>
-      <c r="B97" s="183">
+    <row r="97" spans="1:11" s="215" customFormat="1" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A97" s="296" t="s">
+        <v>436</v>
+      </c>
+      <c r="B97" s="182">
         <v>659250</v>
       </c>
       <c r="C97" s="74" t="s">
@@ -6219,91 +6178,91 @@
       <c r="D97" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="184">
+      <c r="E97" s="183">
         <v>300</v>
       </c>
       <c r="F97" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="G97" s="185">
+      <c r="G97" s="184">
         <v>1</v>
       </c>
-      <c r="H97" s="186">
+      <c r="H97" s="185">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="I97" s="186"/>
-      <c r="J97" s="201" t="s">
+      <c r="I97" s="185"/>
+      <c r="J97" s="200" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="216" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A98" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B98" s="207" t="s">
+    <row r="98" spans="1:11" s="215" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A98" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" s="206" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="208" t="s">
+      <c r="C98" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="D98" s="208" t="s">
+      <c r="D98" s="207" t="s">
         <v>252</v>
       </c>
-      <c r="E98" s="209">
+      <c r="E98" s="208">
         <v>1200</v>
       </c>
-      <c r="F98" s="208"/>
-      <c r="G98" s="210">
+      <c r="F98" s="207"/>
+      <c r="G98" s="209">
         <v>0.3</v>
       </c>
-      <c r="H98" s="211">
+      <c r="H98" s="210">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="I98" s="211"/>
-      <c r="J98" s="239" t="s">
+      <c r="I98" s="210"/>
+      <c r="J98" s="237" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="216" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A99" s="215" t="s">
-        <v>433</v>
-      </c>
-      <c r="B99" s="207" t="s">
+    <row r="99" spans="1:11" s="215" customFormat="1" ht="25.2" customHeight="1" thickBot="1">
+      <c r="A99" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B99" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="C99" s="208" t="s">
+      <c r="C99" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="D99" s="208" t="s">
+      <c r="D99" s="207" t="s">
         <v>252</v>
       </c>
-      <c r="E99" s="209">
+      <c r="E99" s="208">
         <v>600</v>
       </c>
-      <c r="F99" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="210">
+      <c r="F99" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="209">
         <v>0.59</v>
       </c>
-      <c r="H99" s="211">
+      <c r="H99" s="210">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I99" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" s="239" t="s">
+      <c r="I99" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="237" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="216" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
-      <c r="A100" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B100" s="183">
+    <row r="100" spans="1:11" s="215" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A100" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="182">
         <v>106619</v>
       </c>
       <c r="C100" s="74" t="s">
@@ -6312,31 +6271,31 @@
       <c r="D100" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E100" s="184">
+      <c r="E100" s="183">
         <v>120</v>
       </c>
       <c r="F100" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G100" s="185">
+      <c r="G100" s="184">
         <v>1</v>
       </c>
-      <c r="H100" s="186">
+      <c r="H100" s="185">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="I100" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J100" s="201" t="s">
+      <c r="I100" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J100" s="200" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="216" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
-      <c r="A101" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B101" s="183" t="s">
+    <row r="101" spans="1:11" s="215" customFormat="1" ht="61.2" customHeight="1" thickBot="1">
+      <c r="A101" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B101" s="182" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="74" t="s">
@@ -6345,28 +6304,28 @@
       <c r="D101" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="184">
+      <c r="E101" s="183">
         <v>2</v>
       </c>
       <c r="F101" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="G101" s="185">
+      <c r="G101" s="184">
         <v>19.13</v>
       </c>
-      <c r="H101" s="186">
+      <c r="H101" s="185">
         <f t="shared" si="4"/>
         <v>38.26</v>
       </c>
-      <c r="I101" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" s="201" t="s">
+      <c r="I101" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="200" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="B103" s="214" t="s">
+      <c r="B103" s="213" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6398,203 +6357,203 @@
       <c r="J104" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="K104" s="230" t="s">
+      <c r="K104" s="228" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="216" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
-      <c r="A105" s="215"/>
-      <c r="B105" s="207" t="s">
+    <row r="105" spans="1:11" s="215" customFormat="1" ht="31.2" thickTop="1" thickBot="1">
+      <c r="A105" s="214"/>
+      <c r="B105" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="208" t="s">
+      <c r="C105" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D105" s="208" t="s">
+      <c r="D105" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E105" s="209">
-        <v>2</v>
-      </c>
-      <c r="F105" s="208" t="s">
+      <c r="E105" s="208">
+        <v>2</v>
+      </c>
+      <c r="F105" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="210">
+      <c r="G105" s="209">
         <v>169.99</v>
       </c>
-      <c r="H105" s="211">
+      <c r="H105" s="210">
         <f t="shared" ref="H105:H110" si="5">E105*G105</f>
         <v>339.98</v>
       </c>
-      <c r="I105" s="282"/>
-      <c r="J105" s="280"/>
-      <c r="K105" s="281"/>
-    </row>
-    <row r="106" spans="1:11" s="216" customFormat="1" ht="30.6" thickBot="1">
-      <c r="A106" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B106" s="207" t="s">
+      <c r="I105" s="280"/>
+      <c r="J105" s="278"/>
+      <c r="K105" s="279"/>
+    </row>
+    <row r="106" spans="1:11" s="215" customFormat="1" ht="30.6" thickBot="1">
+      <c r="A106" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="208" t="s">
+      <c r="C106" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="208" t="s">
+      <c r="D106" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="209">
+      <c r="E106" s="208">
         <v>6</v>
       </c>
-      <c r="F106" s="208" t="s">
+      <c r="F106" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="210">
+      <c r="G106" s="209">
         <v>11</v>
       </c>
-      <c r="H106" s="211">
+      <c r="H106" s="210">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="I106" s="211"/>
-      <c r="J106" s="280"/>
-      <c r="K106" s="281"/>
-    </row>
-    <row r="107" spans="1:11" s="279" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
-      <c r="A107" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B107" s="275">
+      <c r="I106" s="210"/>
+      <c r="J106" s="278"/>
+      <c r="K106" s="279"/>
+    </row>
+    <row r="107" spans="1:11" s="277" customFormat="1" ht="97.2" customHeight="1" thickBot="1">
+      <c r="A107" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B107" s="273">
         <v>803920103314</v>
       </c>
-      <c r="C107" s="276" t="s">
+      <c r="C107" s="274" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="203" t="s">
+      <c r="D107" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="E107" s="204">
+      <c r="E107" s="203">
         <v>3</v>
       </c>
-      <c r="F107" s="204" t="s">
+      <c r="F107" s="203" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="274">
+      <c r="G107" s="272">
         <v>16.47</v>
       </c>
-      <c r="H107" s="274">
+      <c r="H107" s="272">
         <f>SUM(E107*G107)</f>
         <v>49.41</v>
       </c>
-      <c r="I107" s="205" t="s">
+      <c r="I107" s="204" t="s">
         <v>333</v>
       </c>
-      <c r="J107" s="277" t="s">
+      <c r="J107" s="275" t="s">
         <v>334</v>
       </c>
-      <c r="K107" s="278"/>
-    </row>
-    <row r="108" spans="1:11" s="216" customFormat="1" ht="60.6" thickBot="1">
-      <c r="A108" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B108" s="207"/>
-      <c r="C108" s="208" t="s">
+      <c r="K107" s="276"/>
+    </row>
+    <row r="108" spans="1:11" s="215" customFormat="1" ht="60.6" thickBot="1">
+      <c r="A108" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B108" s="206"/>
+      <c r="C108" s="207" t="s">
         <v>341</v>
       </c>
-      <c r="D108" s="208" t="s">
+      <c r="D108" s="207" t="s">
         <v>342</v>
       </c>
-      <c r="E108" s="209">
+      <c r="E108" s="208">
         <v>550</v>
       </c>
-      <c r="F108" s="208" t="s">
+      <c r="F108" s="207" t="s">
         <v>343</v>
       </c>
-      <c r="G108" s="210">
+      <c r="G108" s="209">
         <v>12.11</v>
       </c>
-      <c r="H108" s="211">
+      <c r="H108" s="210">
         <f t="shared" si="5"/>
         <v>6660.5</v>
       </c>
-      <c r="I108" s="211" t="s">
+      <c r="I108" s="210" t="s">
         <v>344</v>
       </c>
-      <c r="J108" s="280" t="s">
+      <c r="J108" s="278" t="s">
         <v>345</v>
       </c>
-      <c r="K108" s="281" t="s">
+      <c r="K108" s="279" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="216" customFormat="1" ht="87" thickBot="1">
-      <c r="A109" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B109" s="207" t="s">
+    <row r="109" spans="1:11" s="215" customFormat="1" ht="87" thickBot="1">
+      <c r="A109" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B109" s="206" t="s">
         <v>377</v>
       </c>
-      <c r="C109" s="208" t="s">
+      <c r="C109" s="207" t="s">
         <v>268</v>
       </c>
-      <c r="D109" s="208" t="s">
+      <c r="D109" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="209">
+      <c r="E109" s="208">
         <v>11</v>
       </c>
-      <c r="F109" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="210">
+      <c r="F109" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="209">
         <v>3.79</v>
       </c>
-      <c r="H109" s="211">
+      <c r="H109" s="210">
         <f t="shared" si="5"/>
         <v>41.69</v>
       </c>
-      <c r="I109" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J109" s="280" t="s">
+      <c r="I109" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="278" t="s">
         <v>201</v>
       </c>
-      <c r="K109" s="281"/>
-    </row>
-    <row r="110" spans="1:11" s="216" customFormat="1" ht="58.2" thickBot="1">
-      <c r="A110" s="215" t="s">
-        <v>410</v>
-      </c>
-      <c r="B110" s="207" t="s">
+      <c r="K109" s="279"/>
+    </row>
+    <row r="110" spans="1:11" s="215" customFormat="1" ht="58.2" thickBot="1">
+      <c r="A110" s="214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B110" s="206" t="s">
         <v>379</v>
       </c>
-      <c r="C110" s="208" t="s">
+      <c r="C110" s="207" t="s">
         <v>380</v>
       </c>
-      <c r="D110" s="208" t="s">
+      <c r="D110" s="207" t="s">
         <v>224</v>
       </c>
-      <c r="E110" s="209">
+      <c r="E110" s="208">
         <v>550</v>
       </c>
-      <c r="F110" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G110" s="210">
+      <c r="F110" s="207" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="209">
         <v>0.54</v>
       </c>
-      <c r="H110" s="211">
+      <c r="H110" s="210">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
-      <c r="I110" s="211" t="s">
-        <v>2</v>
-      </c>
-      <c r="J110" s="280" t="s">
+      <c r="I110" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="J110" s="278" t="s">
         <v>378</v>
       </c>
-      <c r="K110" s="281"/>
+      <c r="K110" s="279"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6679,17 +6638,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="322" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="322"/>
+      <c r="F1" s="322"/>
+      <c r="G1" s="322"/>
+      <c r="H1" s="322"/>
+      <c r="I1" s="322"/>
       <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
@@ -7349,10 +7308,10 @@
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
-      <c r="F25" s="314" t="s">
+      <c r="F25" s="323" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="315"/>
+      <c r="G25" s="324"/>
       <c r="H25" s="147">
         <f>SUM(H6:H24)</f>
         <v>5810.22</v>
@@ -7426,17 +7385,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -8120,10 +8079,10 @@
     <row r="27" spans="1:56" ht="21.6" thickBot="1">
       <c r="A27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="317" t="s">
+      <c r="F27" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="318"/>
+      <c r="G27" s="327"/>
       <c r="H27" s="28">
         <f>SUM(H6:H26)</f>
         <v>5499.6900000000005</v>
@@ -8187,17 +8146,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="328" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24.6">
@@ -8992,10 +8951,10 @@
     <row r="30" spans="1:10" ht="21.6" thickBot="1">
       <c r="A30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="317" t="s">
+      <c r="F30" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="318"/>
+      <c r="G30" s="327"/>
       <c r="H30" s="28">
         <f>SUM(H6:H29)</f>
         <v>3917.8400000000006</v>
@@ -9070,17 +9029,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="24.6">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
-      <c r="G1" s="316"/>
-      <c r="H1" s="316"/>
-      <c r="I1" s="316"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:90" ht="24.6">
@@ -10093,10 +10052,10 @@
       <c r="C28" s="91"/>
       <c r="D28" s="91"/>
       <c r="E28" s="92"/>
-      <c r="F28" s="320" t="s">
+      <c r="F28" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="321"/>
+      <c r="G28" s="330"/>
       <c r="H28" s="93">
         <f>SUM(H6:H27)</f>
         <v>6412.95</v>
@@ -10148,17 +10107,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.6">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="328" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="24.6">
@@ -10712,10 +10671,10 @@
     <row r="23" spans="1:10" ht="21.6" thickBot="1">
       <c r="A23" s="12"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="317" t="s">
+      <c r="F23" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="318"/>
+      <c r="G23" s="327"/>
       <c r="H23" s="28">
         <f>SUM(H6:H22)</f>
         <v>5330.18</v>
@@ -10765,101 +10724,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.6">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="328" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="244"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="242"/>
     </row>
     <row r="2" spans="1:11" ht="24.6">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="243" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="246"/>
+      <c r="C2" s="244"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="244"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="242"/>
     </row>
     <row r="3" spans="1:11" ht="24.6">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="243" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="246"/>
+      <c r="C3" s="244"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="244"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="243" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="246"/>
+      <c r="C4" s="244"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="248"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="244"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="247"/>
+      <c r="J4" s="247"/>
+      <c r="K4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="18" thickBot="1">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="251" t="s">
+      <c r="C5" s="249" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="251" t="s">
+      <c r="D5" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="250" t="s">
+      <c r="E5" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="250" t="s">
+      <c r="F5" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="250" t="s">
+      <c r="G5" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="252" t="s">
+      <c r="H5" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="250" t="s">
+      <c r="I5" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="252" t="s">
+      <c r="J5" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="253" t="s">
+      <c r="K5" s="251" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10887,9 +10846,9 @@
         <f t="shared" ref="H6:H16" si="0">E6*G6</f>
         <v>339.98</v>
       </c>
-      <c r="I6" s="271"/>
-      <c r="J6" s="266"/>
-      <c r="K6" s="267"/>
+      <c r="I6" s="269"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="265"/>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="15.6" thickBot="1">
       <c r="A7" s="20" t="s">
@@ -10916,10 +10875,10 @@
         <v>66</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="267"/>
-    </row>
-    <row r="8" spans="1:11" s="269" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
+      <c r="J7" s="264"/>
+      <c r="K7" s="265"/>
+    </row>
+    <row r="8" spans="1:11" s="267" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A8" s="79">
         <v>803920103314</v>
       </c>
@@ -10949,37 +10908,37 @@
       <c r="J8" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="268"/>
+      <c r="K8" s="266"/>
     </row>
     <row r="9" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A9" s="254"/>
-      <c r="B9" s="261" t="s">
+      <c r="A9" s="252"/>
+      <c r="B9" s="259" t="s">
         <v>341</v>
       </c>
-      <c r="C9" s="261" t="s">
+      <c r="C9" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259">
+      <c r="D9" s="257"/>
+      <c r="E9" s="257">
         <v>550</v>
       </c>
-      <c r="F9" s="261" t="s">
+      <c r="F9" s="259" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="255">
+      <c r="G9" s="253">
         <v>12.11</v>
       </c>
-      <c r="H9" s="256">
+      <c r="H9" s="254">
         <f t="shared" si="0"/>
         <v>6660.5</v>
       </c>
-      <c r="I9" s="260" t="s">
+      <c r="I9" s="258" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="257" t="s">
+      <c r="J9" s="255" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="258" t="s">
+      <c r="K9" s="256" t="s">
         <v>346</v>
       </c>
     </row>
@@ -11010,190 +10969,190 @@
       <c r="I10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="270" t="s">
+      <c r="J10" s="268" t="s">
         <v>201</v>
       </c>
-      <c r="K10" s="267"/>
+      <c r="K10" s="265"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A11" s="254" t="s">
+      <c r="A11" s="252" t="s">
         <v>379</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="259" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="261" t="s">
+      <c r="C11" s="259" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259">
+      <c r="D11" s="257"/>
+      <c r="E11" s="257">
         <v>550</v>
       </c>
-      <c r="F11" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="255">
+      <c r="F11" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="253">
         <v>0.54</v>
       </c>
-      <c r="H11" s="256">
+      <c r="H11" s="254">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="I11" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="262" t="s">
+      <c r="I11" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="260" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="258"/>
+      <c r="K11" s="256"/>
     </row>
     <row r="12" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A12" s="254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="259"/>
-      <c r="E12" s="259"/>
-      <c r="F12" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="255"/>
-      <c r="H12" s="256">
+      <c r="A12" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="253"/>
+      <c r="H12" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="262"/>
-      <c r="K12" s="258"/>
+      <c r="I12" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="260"/>
+      <c r="K12" s="256"/>
     </row>
     <row r="13" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A13" s="254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="255"/>
-      <c r="H13" s="256">
+      <c r="A13" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="253"/>
+      <c r="H13" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="262"/>
-      <c r="K13" s="258"/>
+      <c r="I13" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="260"/>
+      <c r="K13" s="256"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A14" s="254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="259"/>
-      <c r="E14" s="259"/>
-      <c r="F14" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="255"/>
-      <c r="H14" s="256">
+      <c r="A14" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="257"/>
+      <c r="E14" s="257"/>
+      <c r="F14" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="253"/>
+      <c r="H14" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="262"/>
-      <c r="K14" s="258"/>
+      <c r="I14" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="260"/>
+      <c r="K14" s="256"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A15" s="254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="259"/>
-      <c r="E15" s="259"/>
-      <c r="F15" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="255"/>
-      <c r="H15" s="256">
+      <c r="A15" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="253"/>
+      <c r="H15" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="262"/>
-      <c r="K15" s="258"/>
+      <c r="I15" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="260"/>
+      <c r="K15" s="256"/>
     </row>
     <row r="16" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A16" s="254" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="259"/>
-      <c r="E16" s="259"/>
-      <c r="F16" s="261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="255"/>
-      <c r="H16" s="256">
+      <c r="A16" s="252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="257"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="259" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="253"/>
+      <c r="H16" s="254">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="260" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="262"/>
-      <c r="K16" s="258"/>
+      <c r="I16" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="260"/>
+      <c r="K16" s="256"/>
     </row>
     <row r="17" spans="1:11" ht="21.6" thickBot="1">
-      <c r="A17" s="263"/>
-      <c r="B17" s="244"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="317" t="s">
+      <c r="A17" s="261"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="318"/>
+      <c r="G17" s="327"/>
       <c r="H17" s="28">
         <f>SUM(H6:H16)</f>
         <v>7454.58</v>
       </c>
       <c r="I17" s="14"/>
-      <c r="J17" s="265"/>
-      <c r="K17" s="244"/>
+      <c r="J17" s="263"/>
+      <c r="K17" s="242"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" t="s">
